--- a/Assets/06.Table/TaegeukSimbeop.xlsx
+++ b/Assets/06.Table/TaegeukSimbeop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3016AC-B422-4725-BBD3-C932ED76BB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9945D69-6F4E-45EE-952A-1DE37F430CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TaegeukSimbeop" sheetId="1" r:id="rId1"/>
@@ -529,11 +529,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I158" sqref="I158"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C295" sqref="C295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3311,7 +3311,7 @@
         <v>28400</v>
       </c>
       <c r="D139">
-        <f t="shared" ref="D139:D151" si="3">D138</f>
+        <f t="shared" ref="D139:D202" si="3">D138</f>
         <v>90</v>
       </c>
       <c r="E139">
@@ -3557,6 +3557,3006 @@
       <c r="E151">
         <f>(VLOOKUP(A151+1,Balance!P:S,4,FALSE)/100)</f>
         <v>13.2567</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>9048</v>
+      </c>
+      <c r="C152" s="1">
+        <f>VLOOKUP(A152+1,Balance!J:K,2,FALSE)</f>
+        <v>31000</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E152">
+        <f>(VLOOKUP(A152+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>13.507999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>9048</v>
+      </c>
+      <c r="C153" s="1">
+        <f>VLOOKUP(A153+1,Balance!J:K,2,FALSE)</f>
+        <v>31200</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E153">
+        <f>(VLOOKUP(A153+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>13.762499999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>9048</v>
+      </c>
+      <c r="C154" s="1">
+        <f>VLOOKUP(A154+1,Balance!J:K,2,FALSE)</f>
+        <v>31400</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E154">
+        <f>(VLOOKUP(A154+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>14.020199999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>9048</v>
+      </c>
+      <c r="C155" s="1">
+        <f>VLOOKUP(A155+1,Balance!J:K,2,FALSE)</f>
+        <v>31600</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E155">
+        <f>(VLOOKUP(A155+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>14.281099999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>9048</v>
+      </c>
+      <c r="C156" s="1">
+        <f>VLOOKUP(A156+1,Balance!J:K,2,FALSE)</f>
+        <v>31800</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E156">
+        <f>(VLOOKUP(A156+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>14.545199999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>9048</v>
+      </c>
+      <c r="C157" s="1">
+        <f>VLOOKUP(A157+1,Balance!J:K,2,FALSE)</f>
+        <v>32000</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E157">
+        <f>(VLOOKUP(A157+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>14.8126</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>9048</v>
+      </c>
+      <c r="C158" s="1">
+        <f>VLOOKUP(A158+1,Balance!J:K,2,FALSE)</f>
+        <v>32200</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E158">
+        <f>(VLOOKUP(A158+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>15.083299999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>9048</v>
+      </c>
+      <c r="C159" s="1">
+        <f>VLOOKUP(A159+1,Balance!J:K,2,FALSE)</f>
+        <v>32400</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E159">
+        <f>(VLOOKUP(A159+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>15.3573</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>9048</v>
+      </c>
+      <c r="C160" s="1">
+        <f>VLOOKUP(A160+1,Balance!J:K,2,FALSE)</f>
+        <v>32600</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E160">
+        <f>(VLOOKUP(A160+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>15.634600000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>9048</v>
+      </c>
+      <c r="C161" s="1">
+        <f>VLOOKUP(A161+1,Balance!J:K,2,FALSE)</f>
+        <v>32800</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E161">
+        <f>(VLOOKUP(A161+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>15.9152</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>9048</v>
+      </c>
+      <c r="C162" s="1">
+        <f>VLOOKUP(A162+1,Balance!J:K,2,FALSE)</f>
+        <v>33000</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E162">
+        <f>(VLOOKUP(A162+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>16.199200000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>9048</v>
+      </c>
+      <c r="C163" s="1">
+        <f>VLOOKUP(A163+1,Balance!J:K,2,FALSE)</f>
+        <v>33200</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E163">
+        <f>(VLOOKUP(A163+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>16.486599999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>9048</v>
+      </c>
+      <c r="C164" s="1">
+        <f>VLOOKUP(A164+1,Balance!J:K,2,FALSE)</f>
+        <v>33400</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E164">
+        <f>(VLOOKUP(A164+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>16.7774</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>9048</v>
+      </c>
+      <c r="C165" s="1">
+        <f>VLOOKUP(A165+1,Balance!J:K,2,FALSE)</f>
+        <v>33600</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E165">
+        <f>(VLOOKUP(A165+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>17.0716</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>9048</v>
+      </c>
+      <c r="C166" s="1">
+        <f>VLOOKUP(A166+1,Balance!J:K,2,FALSE)</f>
+        <v>33800</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E166">
+        <f>(VLOOKUP(A166+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>17.369199999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>9048</v>
+      </c>
+      <c r="C167" s="1">
+        <f>VLOOKUP(A167+1,Balance!J:K,2,FALSE)</f>
+        <v>34000</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E167">
+        <f>(VLOOKUP(A167+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>17.670300000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>9048</v>
+      </c>
+      <c r="C168" s="1">
+        <f>VLOOKUP(A168+1,Balance!J:K,2,FALSE)</f>
+        <v>34200</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E168">
+        <f>(VLOOKUP(A168+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>17.974900000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>9048</v>
+      </c>
+      <c r="C169" s="1">
+        <f>VLOOKUP(A169+1,Balance!J:K,2,FALSE)</f>
+        <v>34400</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E169">
+        <f>(VLOOKUP(A169+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>18.283000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>9048</v>
+      </c>
+      <c r="C170" s="1">
+        <f>VLOOKUP(A170+1,Balance!J:K,2,FALSE)</f>
+        <v>34600</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E170">
+        <f>(VLOOKUP(A170+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>18.5946</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>9048</v>
+      </c>
+      <c r="C171" s="1">
+        <f>VLOOKUP(A171+1,Balance!J:K,2,FALSE)</f>
+        <v>34800</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E171">
+        <f>(VLOOKUP(A171+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>18.909700000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>9048</v>
+      </c>
+      <c r="C172" s="1">
+        <f>VLOOKUP(A172+1,Balance!J:K,2,FALSE)</f>
+        <v>35000</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E172">
+        <f>(VLOOKUP(A172+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>19.228400000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>9048</v>
+      </c>
+      <c r="C173" s="1">
+        <f>VLOOKUP(A173+1,Balance!J:K,2,FALSE)</f>
+        <v>35200</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E173">
+        <f>(VLOOKUP(A173+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>19.550699999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>9048</v>
+      </c>
+      <c r="C174" s="1">
+        <f>VLOOKUP(A174+1,Balance!J:K,2,FALSE)</f>
+        <v>35400</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E174">
+        <f>(VLOOKUP(A174+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>19.8766</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>9048</v>
+      </c>
+      <c r="C175" s="1">
+        <f>VLOOKUP(A175+1,Balance!J:K,2,FALSE)</f>
+        <v>35600</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E175">
+        <f>(VLOOKUP(A175+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>20.206099999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>9048</v>
+      </c>
+      <c r="C176" s="1">
+        <f>VLOOKUP(A176+1,Balance!J:K,2,FALSE)</f>
+        <v>35800</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E176">
+        <f>(VLOOKUP(A176+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>20.539200000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>9048</v>
+      </c>
+      <c r="C177" s="1">
+        <f>VLOOKUP(A177+1,Balance!J:K,2,FALSE)</f>
+        <v>36000</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E177">
+        <f>(VLOOKUP(A177+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>20.875999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>9048</v>
+      </c>
+      <c r="C178" s="1">
+        <f>VLOOKUP(A178+1,Balance!J:K,2,FALSE)</f>
+        <v>36200</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E178">
+        <f>(VLOOKUP(A178+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>21.2165</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>9048</v>
+      </c>
+      <c r="C179" s="1">
+        <f>VLOOKUP(A179+1,Balance!J:K,2,FALSE)</f>
+        <v>36400</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E179">
+        <f>(VLOOKUP(A179+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>21.560700000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>9048</v>
+      </c>
+      <c r="C180" s="1">
+        <f>VLOOKUP(A180+1,Balance!J:K,2,FALSE)</f>
+        <v>36600</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E180">
+        <f>(VLOOKUP(A180+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>21.9086</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>9048</v>
+      </c>
+      <c r="C181" s="1">
+        <f>VLOOKUP(A181+1,Balance!J:K,2,FALSE)</f>
+        <v>36800</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E181">
+        <f>(VLOOKUP(A181+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>22.260200000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>9048</v>
+      </c>
+      <c r="C182" s="1">
+        <f>VLOOKUP(A182+1,Balance!J:K,2,FALSE)</f>
+        <v>37000</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E182">
+        <f>(VLOOKUP(A182+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>22.615600000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>9048</v>
+      </c>
+      <c r="C183" s="1">
+        <f>VLOOKUP(A183+1,Balance!J:K,2,FALSE)</f>
+        <v>37200</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E183">
+        <f>(VLOOKUP(A183+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>22.974800000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>9048</v>
+      </c>
+      <c r="C184" s="1">
+        <f>VLOOKUP(A184+1,Balance!J:K,2,FALSE)</f>
+        <v>37400</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E184">
+        <f>(VLOOKUP(A184+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>23.337800000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>9048</v>
+      </c>
+      <c r="C185" s="1">
+        <f>VLOOKUP(A185+1,Balance!J:K,2,FALSE)</f>
+        <v>37600</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E185">
+        <f>(VLOOKUP(A185+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>23.704599999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>9048</v>
+      </c>
+      <c r="C186" s="1">
+        <f>VLOOKUP(A186+1,Balance!J:K,2,FALSE)</f>
+        <v>37800</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E186">
+        <f>(VLOOKUP(A186+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>24.075199999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>9048</v>
+      </c>
+      <c r="C187" s="1">
+        <f>VLOOKUP(A187+1,Balance!J:K,2,FALSE)</f>
+        <v>38000</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E187">
+        <f>(VLOOKUP(A187+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>24.449699999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>9048</v>
+      </c>
+      <c r="C188" s="1">
+        <f>VLOOKUP(A188+1,Balance!J:K,2,FALSE)</f>
+        <v>38200</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E188">
+        <f>(VLOOKUP(A188+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>24.828099999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>9048</v>
+      </c>
+      <c r="C189" s="1">
+        <f>VLOOKUP(A189+1,Balance!J:K,2,FALSE)</f>
+        <v>38400</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E189">
+        <f>(VLOOKUP(A189+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>25.2104</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>9048</v>
+      </c>
+      <c r="C190" s="1">
+        <f>VLOOKUP(A190+1,Balance!J:K,2,FALSE)</f>
+        <v>38600</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E190">
+        <f>(VLOOKUP(A190+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>25.596599999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>9048</v>
+      </c>
+      <c r="C191" s="1">
+        <f>VLOOKUP(A191+1,Balance!J:K,2,FALSE)</f>
+        <v>38800</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E191">
+        <f>(VLOOKUP(A191+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>25.986699999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>9048</v>
+      </c>
+      <c r="C192" s="1">
+        <f>VLOOKUP(A192+1,Balance!J:K,2,FALSE)</f>
+        <v>39000</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E192">
+        <f>(VLOOKUP(A192+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>26.380800000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>9048</v>
+      </c>
+      <c r="C193" s="1">
+        <f>VLOOKUP(A193+1,Balance!J:K,2,FALSE)</f>
+        <v>39200</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E193">
+        <f>(VLOOKUP(A193+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>26.7789</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>9048</v>
+      </c>
+      <c r="C194" s="1">
+        <f>VLOOKUP(A194+1,Balance!J:K,2,FALSE)</f>
+        <v>39400</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E194">
+        <f>(VLOOKUP(A194+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>27.180999999999997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>9048</v>
+      </c>
+      <c r="C195" s="1">
+        <f>VLOOKUP(A195+1,Balance!J:K,2,FALSE)</f>
+        <v>39600</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E195">
+        <f>(VLOOKUP(A195+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>27.5871</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>9048</v>
+      </c>
+      <c r="C196" s="1">
+        <f>VLOOKUP(A196+1,Balance!J:K,2,FALSE)</f>
+        <v>39800</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E196">
+        <f>(VLOOKUP(A196+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>27.997199999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>9048</v>
+      </c>
+      <c r="C197" s="1">
+        <f>VLOOKUP(A197+1,Balance!J:K,2,FALSE)</f>
+        <v>40000</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E197">
+        <f>(VLOOKUP(A197+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>28.4114</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>9048</v>
+      </c>
+      <c r="C198" s="1">
+        <f>VLOOKUP(A198+1,Balance!J:K,2,FALSE)</f>
+        <v>40200</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E198">
+        <f>(VLOOKUP(A198+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>28.829699999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>9048</v>
+      </c>
+      <c r="C199" s="1">
+        <f>VLOOKUP(A199+1,Balance!J:K,2,FALSE)</f>
+        <v>40400</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E199">
+        <f>(VLOOKUP(A199+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>29.252099999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>9048</v>
+      </c>
+      <c r="C200" s="1">
+        <f>VLOOKUP(A200+1,Balance!J:K,2,FALSE)</f>
+        <v>40600</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E200">
+        <f>(VLOOKUP(A200+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>29.678600000000003</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>9048</v>
+      </c>
+      <c r="C201" s="1">
+        <f>VLOOKUP(A201+1,Balance!J:K,2,FALSE)</f>
+        <v>40800</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E201">
+        <f>(VLOOKUP(A201+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>30.109200000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>9048</v>
+      </c>
+      <c r="C202" s="1">
+        <f>VLOOKUP(A202+1,Balance!J:K,2,FALSE)</f>
+        <v>41000</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E202">
+        <f>(VLOOKUP(A202+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>30.544</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>9048</v>
+      </c>
+      <c r="C203" s="1">
+        <f>VLOOKUP(A203+1,Balance!J:K,2,FALSE)</f>
+        <v>41200</v>
+      </c>
+      <c r="D203">
+        <f t="shared" ref="D203:D266" si="4">D202</f>
+        <v>90</v>
+      </c>
+      <c r="E203">
+        <f>(VLOOKUP(A203+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>30.983000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>9048</v>
+      </c>
+      <c r="C204" s="1">
+        <f>VLOOKUP(A204+1,Balance!J:K,2,FALSE)</f>
+        <v>41400</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E204">
+        <f>(VLOOKUP(A204+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>31.426199999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>9048</v>
+      </c>
+      <c r="C205" s="1">
+        <f>VLOOKUP(A205+1,Balance!J:K,2,FALSE)</f>
+        <v>41600</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E205">
+        <f>(VLOOKUP(A205+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>31.8736</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>9048</v>
+      </c>
+      <c r="C206" s="1">
+        <f>VLOOKUP(A206+1,Balance!J:K,2,FALSE)</f>
+        <v>41800</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E206">
+        <f>(VLOOKUP(A206+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>32.325200000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>9048</v>
+      </c>
+      <c r="C207" s="1">
+        <f>VLOOKUP(A207+1,Balance!J:K,2,FALSE)</f>
+        <v>42000</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E207">
+        <f>(VLOOKUP(A207+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>32.781100000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>9048</v>
+      </c>
+      <c r="C208" s="1">
+        <f>VLOOKUP(A208+1,Balance!J:K,2,FALSE)</f>
+        <v>42200</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E208">
+        <f>(VLOOKUP(A208+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>33.241300000000003</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>9048</v>
+      </c>
+      <c r="C209" s="1">
+        <f>VLOOKUP(A209+1,Balance!J:K,2,FALSE)</f>
+        <v>42400</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E209">
+        <f>(VLOOKUP(A209+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>33.705799999999996</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>9048</v>
+      </c>
+      <c r="C210" s="1">
+        <f>VLOOKUP(A210+1,Balance!J:K,2,FALSE)</f>
+        <v>42600</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E210">
+        <f>(VLOOKUP(A210+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>34.174599999999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>9048</v>
+      </c>
+      <c r="C211" s="1">
+        <f>VLOOKUP(A211+1,Balance!J:K,2,FALSE)</f>
+        <v>42800</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E211">
+        <f>(VLOOKUP(A211+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>34.6477</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>9048</v>
+      </c>
+      <c r="C212" s="1">
+        <f>VLOOKUP(A212+1,Balance!J:K,2,FALSE)</f>
+        <v>43000</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E212">
+        <f>(VLOOKUP(A212+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>35.1252</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>9048</v>
+      </c>
+      <c r="C213" s="1">
+        <f>VLOOKUP(A213+1,Balance!J:K,2,FALSE)</f>
+        <v>43200</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E213">
+        <f>(VLOOKUP(A213+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>35.607100000000003</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>9048</v>
+      </c>
+      <c r="C214" s="1">
+        <f>VLOOKUP(A214+1,Balance!J:K,2,FALSE)</f>
+        <v>43400</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E214">
+        <f>(VLOOKUP(A214+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>36.093400000000003</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>9048</v>
+      </c>
+      <c r="C215" s="1">
+        <f>VLOOKUP(A215+1,Balance!J:K,2,FALSE)</f>
+        <v>43600</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E215">
+        <f>(VLOOKUP(A215+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>36.584099999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>9048</v>
+      </c>
+      <c r="C216" s="1">
+        <f>VLOOKUP(A216+1,Balance!J:K,2,FALSE)</f>
+        <v>43800</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E216">
+        <f>(VLOOKUP(A216+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>37.0792</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>9048</v>
+      </c>
+      <c r="C217" s="1">
+        <f>VLOOKUP(A217+1,Balance!J:K,2,FALSE)</f>
+        <v>44000</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E217">
+        <f>(VLOOKUP(A217+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>37.578800000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>9048</v>
+      </c>
+      <c r="C218" s="1">
+        <f>VLOOKUP(A218+1,Balance!J:K,2,FALSE)</f>
+        <v>44200</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E218">
+        <f>(VLOOKUP(A218+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>38.082900000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>9048</v>
+      </c>
+      <c r="C219" s="1">
+        <f>VLOOKUP(A219+1,Balance!J:K,2,FALSE)</f>
+        <v>44400</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E219">
+        <f>(VLOOKUP(A219+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>38.591500000000003</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>9048</v>
+      </c>
+      <c r="C220" s="1">
+        <f>VLOOKUP(A220+1,Balance!J:K,2,FALSE)</f>
+        <v>44600</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E220">
+        <f>(VLOOKUP(A220+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>39.104599999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>9048</v>
+      </c>
+      <c r="C221" s="1">
+        <f>VLOOKUP(A221+1,Balance!J:K,2,FALSE)</f>
+        <v>44800</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E221">
+        <f>(VLOOKUP(A221+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>39.622199999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>9048</v>
+      </c>
+      <c r="C222" s="1">
+        <f>VLOOKUP(A222+1,Balance!J:K,2,FALSE)</f>
+        <v>45000</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E222">
+        <f>(VLOOKUP(A222+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>40.144399999999997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>9048</v>
+      </c>
+      <c r="C223" s="1">
+        <f>VLOOKUP(A223+1,Balance!J:K,2,FALSE)</f>
+        <v>45200</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E223">
+        <f>(VLOOKUP(A223+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>40.671199999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>9048</v>
+      </c>
+      <c r="C224" s="1">
+        <f>VLOOKUP(A224+1,Balance!J:K,2,FALSE)</f>
+        <v>45400</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E224">
+        <f>(VLOOKUP(A224+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>41.202600000000004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>9048</v>
+      </c>
+      <c r="C225" s="1">
+        <f>VLOOKUP(A225+1,Balance!J:K,2,FALSE)</f>
+        <v>45600</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E225">
+        <f>(VLOOKUP(A225+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>41.738599999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>9048</v>
+      </c>
+      <c r="C226" s="1">
+        <f>VLOOKUP(A226+1,Balance!J:K,2,FALSE)</f>
+        <v>45800</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E226">
+        <f>(VLOOKUP(A226+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>42.279200000000003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>9048</v>
+      </c>
+      <c r="C227" s="1">
+        <f>VLOOKUP(A227+1,Balance!J:K,2,FALSE)</f>
+        <v>46000</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E227">
+        <f>(VLOOKUP(A227+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>42.8245</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>9048</v>
+      </c>
+      <c r="C228" s="1">
+        <f>VLOOKUP(A228+1,Balance!J:K,2,FALSE)</f>
+        <v>46200</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E228">
+        <f>(VLOOKUP(A228+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>43.374499999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>9048</v>
+      </c>
+      <c r="C229" s="1">
+        <f>VLOOKUP(A229+1,Balance!J:K,2,FALSE)</f>
+        <v>46400</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E229">
+        <f>(VLOOKUP(A229+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>43.929200000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>9048</v>
+      </c>
+      <c r="C230" s="1">
+        <f>VLOOKUP(A230+1,Balance!J:K,2,FALSE)</f>
+        <v>46600</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E230">
+        <f>(VLOOKUP(A230+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>44.488599999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>9048</v>
+      </c>
+      <c r="C231" s="1">
+        <f>VLOOKUP(A231+1,Balance!J:K,2,FALSE)</f>
+        <v>46800</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E231">
+        <f>(VLOOKUP(A231+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>45.052700000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>9048</v>
+      </c>
+      <c r="C232" s="1">
+        <f>VLOOKUP(A232+1,Balance!J:K,2,FALSE)</f>
+        <v>47000</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E232">
+        <f>(VLOOKUP(A232+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>45.621600000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>9048</v>
+      </c>
+      <c r="C233" s="1">
+        <f>VLOOKUP(A233+1,Balance!J:K,2,FALSE)</f>
+        <v>47200</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E233">
+        <f>(VLOOKUP(A233+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>46.195299999999996</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>9048</v>
+      </c>
+      <c r="C234" s="1">
+        <f>VLOOKUP(A234+1,Balance!J:K,2,FALSE)</f>
+        <v>47400</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E234">
+        <f>(VLOOKUP(A234+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>46.773800000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>9048</v>
+      </c>
+      <c r="C235" s="1">
+        <f>VLOOKUP(A235+1,Balance!J:K,2,FALSE)</f>
+        <v>47600</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E235">
+        <f>(VLOOKUP(A235+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>47.357100000000003</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>9048</v>
+      </c>
+      <c r="C236" s="1">
+        <f>VLOOKUP(A236+1,Balance!J:K,2,FALSE)</f>
+        <v>47800</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E236">
+        <f>(VLOOKUP(A236+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>47.945200000000007</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>9048</v>
+      </c>
+      <c r="C237" s="1">
+        <f>VLOOKUP(A237+1,Balance!J:K,2,FALSE)</f>
+        <v>48000</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E237">
+        <f>(VLOOKUP(A237+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>48.538199999999996</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>9048</v>
+      </c>
+      <c r="C238" s="1">
+        <f>VLOOKUP(A238+1,Balance!J:K,2,FALSE)</f>
+        <v>48200</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E238">
+        <f>(VLOOKUP(A238+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>49.136099999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>9048</v>
+      </c>
+      <c r="C239" s="1">
+        <f>VLOOKUP(A239+1,Balance!J:K,2,FALSE)</f>
+        <v>48400</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E239">
+        <f>(VLOOKUP(A239+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>49.738900000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>9048</v>
+      </c>
+      <c r="C240" s="1">
+        <f>VLOOKUP(A240+1,Balance!J:K,2,FALSE)</f>
+        <v>48600</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E240">
+        <f>(VLOOKUP(A240+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>50.346599999999995</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>9048</v>
+      </c>
+      <c r="C241" s="1">
+        <f>VLOOKUP(A241+1,Balance!J:K,2,FALSE)</f>
+        <v>48800</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E241">
+        <f>(VLOOKUP(A241+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>50.959200000000003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>9048</v>
+      </c>
+      <c r="C242" s="1">
+        <f>VLOOKUP(A242+1,Balance!J:K,2,FALSE)</f>
+        <v>49000</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E242">
+        <f>(VLOOKUP(A242+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>51.576800000000006</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>9048</v>
+      </c>
+      <c r="C243" s="1">
+        <f>VLOOKUP(A243+1,Balance!J:K,2,FALSE)</f>
+        <v>49200</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E243">
+        <f>(VLOOKUP(A243+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>52.199399999999997</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>9048</v>
+      </c>
+      <c r="C244" s="1">
+        <f>VLOOKUP(A244+1,Balance!J:K,2,FALSE)</f>
+        <v>49400</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E244">
+        <f>(VLOOKUP(A244+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>52.826999999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>9048</v>
+      </c>
+      <c r="C245" s="1">
+        <f>VLOOKUP(A245+1,Balance!J:K,2,FALSE)</f>
+        <v>49600</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E245">
+        <f>(VLOOKUP(A245+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>53.459600000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>9048</v>
+      </c>
+      <c r="C246" s="1">
+        <f>VLOOKUP(A246+1,Balance!J:K,2,FALSE)</f>
+        <v>49800</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E246">
+        <f>(VLOOKUP(A246+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>54.097200000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>9048</v>
+      </c>
+      <c r="C247" s="1">
+        <f>VLOOKUP(A247+1,Balance!J:K,2,FALSE)</f>
+        <v>50000</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E247">
+        <f>(VLOOKUP(A247+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>54.739899999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>9048</v>
+      </c>
+      <c r="C248" s="1">
+        <f>VLOOKUP(A248+1,Balance!J:K,2,FALSE)</f>
+        <v>50200</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E248">
+        <f>(VLOOKUP(A248+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>55.387700000000002</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>9048</v>
+      </c>
+      <c r="C249" s="1">
+        <f>VLOOKUP(A249+1,Balance!J:K,2,FALSE)</f>
+        <v>50400</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E249">
+        <f>(VLOOKUP(A249+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>56.040600000000005</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>9048</v>
+      </c>
+      <c r="C250" s="1">
+        <f>VLOOKUP(A250+1,Balance!J:K,2,FALSE)</f>
+        <v>50600</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E250">
+        <f>(VLOOKUP(A250+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>56.698599999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>9048</v>
+      </c>
+      <c r="C251" s="1">
+        <f>VLOOKUP(A251+1,Balance!J:K,2,FALSE)</f>
+        <v>50800</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E251">
+        <f>(VLOOKUP(A251+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>57.361699999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>9048</v>
+      </c>
+      <c r="C252" s="1">
+        <f>VLOOKUP(A252+1,Balance!J:K,2,FALSE)</f>
+        <v>51000</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E252">
+        <f>(VLOOKUP(A252+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>58.03</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>9048</v>
+      </c>
+      <c r="C253" s="1">
+        <f>VLOOKUP(A253+1,Balance!J:K,2,FALSE)</f>
+        <v>51200</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E253">
+        <f>(VLOOKUP(A253+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>58.703500000000005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>9048</v>
+      </c>
+      <c r="C254" s="1">
+        <f>VLOOKUP(A254+1,Balance!J:K,2,FALSE)</f>
+        <v>51400</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E254">
+        <f>(VLOOKUP(A254+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>59.382200000000005</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>9048</v>
+      </c>
+      <c r="C255" s="1">
+        <f>VLOOKUP(A255+1,Balance!J:K,2,FALSE)</f>
+        <v>51600</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E255">
+        <f>(VLOOKUP(A255+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>60.066099999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>9048</v>
+      </c>
+      <c r="C256" s="1">
+        <f>VLOOKUP(A256+1,Balance!J:K,2,FALSE)</f>
+        <v>51800</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E256">
+        <f>(VLOOKUP(A256+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>60.755200000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>9048</v>
+      </c>
+      <c r="C257" s="1">
+        <f>VLOOKUP(A257+1,Balance!J:K,2,FALSE)</f>
+        <v>52000</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E257">
+        <f>(VLOOKUP(A257+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>61.449600000000004</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>9048</v>
+      </c>
+      <c r="C258" s="1">
+        <f>VLOOKUP(A258+1,Balance!J:K,2,FALSE)</f>
+        <v>52200</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E258">
+        <f>(VLOOKUP(A258+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>62.149300000000004</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>9048</v>
+      </c>
+      <c r="C259" s="1">
+        <f>VLOOKUP(A259+1,Balance!J:K,2,FALSE)</f>
+        <v>52400</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E259">
+        <f>(VLOOKUP(A259+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>62.854300000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>9048</v>
+      </c>
+      <c r="C260" s="1">
+        <f>VLOOKUP(A260+1,Balance!J:K,2,FALSE)</f>
+        <v>52600</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E260">
+        <f>(VLOOKUP(A260+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>63.564599999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>9048</v>
+      </c>
+      <c r="C261" s="1">
+        <f>VLOOKUP(A261+1,Balance!J:K,2,FALSE)</f>
+        <v>52800</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E261">
+        <f>(VLOOKUP(A261+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>64.280200000000008</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>9048</v>
+      </c>
+      <c r="C262" s="1">
+        <f>VLOOKUP(A262+1,Balance!J:K,2,FALSE)</f>
+        <v>53000</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E262">
+        <f>(VLOOKUP(A262+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>65.001199999999997</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>9048</v>
+      </c>
+      <c r="C263" s="1">
+        <f>VLOOKUP(A263+1,Balance!J:K,2,FALSE)</f>
+        <v>53200</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E263">
+        <f>(VLOOKUP(A263+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>65.727599999999995</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>9048</v>
+      </c>
+      <c r="C264" s="1">
+        <f>VLOOKUP(A264+1,Balance!J:K,2,FALSE)</f>
+        <v>53400</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E264">
+        <f>(VLOOKUP(A264+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>66.459499999999991</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>9048</v>
+      </c>
+      <c r="C265" s="1">
+        <f>VLOOKUP(A265+1,Balance!J:K,2,FALSE)</f>
+        <v>53600</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E265">
+        <f>(VLOOKUP(A265+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>67.196700000000007</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>9048</v>
+      </c>
+      <c r="C266" s="1">
+        <f>VLOOKUP(A266+1,Balance!J:K,2,FALSE)</f>
+        <v>53800</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E266">
+        <f>(VLOOKUP(A266+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>67.939300000000003</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>9048</v>
+      </c>
+      <c r="C267" s="1">
+        <f>VLOOKUP(A267+1,Balance!J:K,2,FALSE)</f>
+        <v>54000</v>
+      </c>
+      <c r="D267">
+        <f t="shared" ref="D267:D301" si="5">D266</f>
+        <v>90</v>
+      </c>
+      <c r="E267">
+        <f>(VLOOKUP(A267+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>68.687399999999997</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>9048</v>
+      </c>
+      <c r="C268" s="1">
+        <f>VLOOKUP(A268+1,Balance!J:K,2,FALSE)</f>
+        <v>54200</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E268">
+        <f>(VLOOKUP(A268+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>69.441000000000003</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>9048</v>
+      </c>
+      <c r="C269" s="1">
+        <f>VLOOKUP(A269+1,Balance!J:K,2,FALSE)</f>
+        <v>54400</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E269">
+        <f>(VLOOKUP(A269+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>70.200100000000006</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>9048</v>
+      </c>
+      <c r="C270" s="1">
+        <f>VLOOKUP(A270+1,Balance!J:K,2,FALSE)</f>
+        <v>54600</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E270">
+        <f>(VLOOKUP(A270+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>70.964700000000008</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>9048</v>
+      </c>
+      <c r="C271" s="1">
+        <f>VLOOKUP(A271+1,Balance!J:K,2,FALSE)</f>
+        <v>54800</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E271">
+        <f>(VLOOKUP(A271+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>71.734800000000007</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>9048</v>
+      </c>
+      <c r="C272" s="1">
+        <f>VLOOKUP(A272+1,Balance!J:K,2,FALSE)</f>
+        <v>55000</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E272">
+        <f>(VLOOKUP(A272+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>72.510500000000008</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>9048</v>
+      </c>
+      <c r="C273" s="1">
+        <f>VLOOKUP(A273+1,Balance!J:K,2,FALSE)</f>
+        <v>55200</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E273">
+        <f>(VLOOKUP(A273+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>73.291800000000009</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>9048</v>
+      </c>
+      <c r="C274" s="1">
+        <f>VLOOKUP(A274+1,Balance!J:K,2,FALSE)</f>
+        <v>55400</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E274">
+        <f>(VLOOKUP(A274+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>74.078699999999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>9048</v>
+      </c>
+      <c r="C275" s="1">
+        <f>VLOOKUP(A275+1,Balance!J:K,2,FALSE)</f>
+        <v>55600</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E275">
+        <f>(VLOOKUP(A275+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>74.871200000000002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>9048</v>
+      </c>
+      <c r="C276" s="1">
+        <f>VLOOKUP(A276+1,Balance!J:K,2,FALSE)</f>
+        <v>55800</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E276">
+        <f>(VLOOKUP(A276+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>75.669300000000007</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>9048</v>
+      </c>
+      <c r="C277" s="1">
+        <f>VLOOKUP(A277+1,Balance!J:K,2,FALSE)</f>
+        <v>56000</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E277">
+        <f>(VLOOKUP(A277+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>76.473100000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>9048</v>
+      </c>
+      <c r="C278" s="1">
+        <f>VLOOKUP(A278+1,Balance!J:K,2,FALSE)</f>
+        <v>56200</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E278">
+        <f>(VLOOKUP(A278+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>77.282600000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>9048</v>
+      </c>
+      <c r="C279" s="1">
+        <f>VLOOKUP(A279+1,Balance!J:K,2,FALSE)</f>
+        <v>56400</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E279">
+        <f>(VLOOKUP(A279+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>78.097800000000007</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>9048</v>
+      </c>
+      <c r="C280" s="1">
+        <f>VLOOKUP(A280+1,Balance!J:K,2,FALSE)</f>
+        <v>56600</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E280">
+        <f>(VLOOKUP(A280+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>78.918700000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>9048</v>
+      </c>
+      <c r="C281" s="1">
+        <f>VLOOKUP(A281+1,Balance!J:K,2,FALSE)</f>
+        <v>56800</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E281">
+        <f>(VLOOKUP(A281+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>79.7453</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>9048</v>
+      </c>
+      <c r="C282" s="1">
+        <f>VLOOKUP(A282+1,Balance!J:K,2,FALSE)</f>
+        <v>57000</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E282">
+        <f>(VLOOKUP(A282+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>80.577700000000007</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>9048</v>
+      </c>
+      <c r="C283" s="1">
+        <f>VLOOKUP(A283+1,Balance!J:K,2,FALSE)</f>
+        <v>57200</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E283">
+        <f>(VLOOKUP(A283+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>81.415900000000008</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>9048</v>
+      </c>
+      <c r="C284" s="1">
+        <f>VLOOKUP(A284+1,Balance!J:K,2,FALSE)</f>
+        <v>57400</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E284">
+        <f>(VLOOKUP(A284+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>82.259900000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>9048</v>
+      </c>
+      <c r="C285" s="1">
+        <f>VLOOKUP(A285+1,Balance!J:K,2,FALSE)</f>
+        <v>57600</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E285">
+        <f>(VLOOKUP(A285+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>83.109599999999986</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>9048</v>
+      </c>
+      <c r="C286" s="1">
+        <f>VLOOKUP(A286+1,Balance!J:K,2,FALSE)</f>
+        <v>57800</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E286">
+        <f>(VLOOKUP(A286+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>83.96520000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>9048</v>
+      </c>
+      <c r="C287" s="1">
+        <f>VLOOKUP(A287+1,Balance!J:K,2,FALSE)</f>
+        <v>58000</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E287">
+        <f>(VLOOKUP(A287+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>84.826700000000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>9048</v>
+      </c>
+      <c r="C288" s="1">
+        <f>VLOOKUP(A288+1,Balance!J:K,2,FALSE)</f>
+        <v>58200</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E288">
+        <f>(VLOOKUP(A288+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>85.694099999999992</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>9048</v>
+      </c>
+      <c r="C289" s="1">
+        <f>VLOOKUP(A289+1,Balance!J:K,2,FALSE)</f>
+        <v>58400</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E289">
+        <f>(VLOOKUP(A289+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>86.567399999999992</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>9048</v>
+      </c>
+      <c r="C290" s="1">
+        <f>VLOOKUP(A290+1,Balance!J:K,2,FALSE)</f>
+        <v>58600</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E290">
+        <f>(VLOOKUP(A290+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>87.446600000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>9048</v>
+      </c>
+      <c r="C291" s="1">
+        <f>VLOOKUP(A291+1,Balance!J:K,2,FALSE)</f>
+        <v>58800</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E291">
+        <f>(VLOOKUP(A291+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>88.331699999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>9048</v>
+      </c>
+      <c r="C292" s="1">
+        <f>VLOOKUP(A292+1,Balance!J:K,2,FALSE)</f>
+        <v>59000</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E292">
+        <f>(VLOOKUP(A292+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>89.222800000000007</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>9048</v>
+      </c>
+      <c r="C293" s="1">
+        <f>VLOOKUP(A293+1,Balance!J:K,2,FALSE)</f>
+        <v>59200</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E293">
+        <f>(VLOOKUP(A293+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>90.119900000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>9048</v>
+      </c>
+      <c r="C294" s="1">
+        <f>VLOOKUP(A294+1,Balance!J:K,2,FALSE)</f>
+        <v>59400</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E294">
+        <f>(VLOOKUP(A294+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>91.022999999999996</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>9048</v>
+      </c>
+      <c r="C295" s="1">
+        <f>VLOOKUP(A295+1,Balance!J:K,2,FALSE)</f>
+        <v>59600</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E295">
+        <f>(VLOOKUP(A295+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>91.932099999999991</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>9048</v>
+      </c>
+      <c r="C296" s="1">
+        <f>VLOOKUP(A296+1,Balance!J:K,2,FALSE)</f>
+        <v>59800</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E296">
+        <f>(VLOOKUP(A296+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>92.847199999999987</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>9048</v>
+      </c>
+      <c r="C297" s="1">
+        <f>VLOOKUP(A297+1,Balance!J:K,2,FALSE)</f>
+        <v>60000</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E297">
+        <f>(VLOOKUP(A297+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>93.7684</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>9048</v>
+      </c>
+      <c r="C298" s="1">
+        <f>VLOOKUP(A298+1,Balance!J:K,2,FALSE)</f>
+        <v>60200</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E298">
+        <f>(VLOOKUP(A298+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>94.695700000000002</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>9048</v>
+      </c>
+      <c r="C299" s="1">
+        <f>VLOOKUP(A299+1,Balance!J:K,2,FALSE)</f>
+        <v>60400</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E299">
+        <f>(VLOOKUP(A299+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>95.629099999999994</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>9048</v>
+      </c>
+      <c r="C300" s="1">
+        <f>VLOOKUP(A300+1,Balance!J:K,2,FALSE)</f>
+        <v>60600</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E300">
+        <f>(VLOOKUP(A300+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>96.568600000000004</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>9048</v>
+      </c>
+      <c r="C301" s="1">
+        <f>VLOOKUP(A301+1,Balance!J:K,2,FALSE)</f>
+        <v>60800</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E301">
+        <f>(VLOOKUP(A301+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>97.514200000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3575,8 +6575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="O85" sqref="O85"/>
+    <sheetView topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="K302" sqref="K302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/TaegeukSimbeop.xlsx
+++ b/Assets/06.Table/TaegeukSimbeop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9945D69-6F4E-45EE-952A-1DE37F430CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4030AD-1C3F-4691-9209-6E64C991C1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -529,11 +529,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C295" sqref="C295"/>
+      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5871,7 +5871,7 @@
         <v>54000</v>
       </c>
       <c r="D267">
-        <f t="shared" ref="D267:D301" si="5">D266</f>
+        <f t="shared" ref="D267:D330" si="5">D266</f>
         <v>90</v>
       </c>
       <c r="E267">
@@ -6557,6 +6557,2006 @@
       <c r="E301">
         <f>(VLOOKUP(A301+1,Balance!P:S,4,FALSE)/100)</f>
         <v>97.514200000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>9048</v>
+      </c>
+      <c r="C302" s="1">
+        <f>VLOOKUP(A302+1,Balance!J:K,2,FALSE)</f>
+        <v>61000</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E302">
+        <f>(VLOOKUP(A302+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>98.466000000000008</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>9048</v>
+      </c>
+      <c r="C303" s="1">
+        <f>VLOOKUP(A303+1,Balance!J:K,2,FALSE)</f>
+        <v>61200</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E303">
+        <f>(VLOOKUP(A303+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>99.423999999999992</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>9048</v>
+      </c>
+      <c r="C304" s="1">
+        <f>VLOOKUP(A304+1,Balance!J:K,2,FALSE)</f>
+        <v>61400</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E304">
+        <f>(VLOOKUP(A304+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>100.3882</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>9048</v>
+      </c>
+      <c r="C305" s="1">
+        <f>VLOOKUP(A305+1,Balance!J:K,2,FALSE)</f>
+        <v>61600</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E305">
+        <f>(VLOOKUP(A305+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>101.35860000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>9048</v>
+      </c>
+      <c r="C306" s="1">
+        <f>VLOOKUP(A306+1,Balance!J:K,2,FALSE)</f>
+        <v>61800</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E306">
+        <f>(VLOOKUP(A306+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>102.3352</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>9048</v>
+      </c>
+      <c r="C307" s="1">
+        <f>VLOOKUP(A307+1,Balance!J:K,2,FALSE)</f>
+        <v>62000</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E307">
+        <f>(VLOOKUP(A307+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>103.3181</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>9048</v>
+      </c>
+      <c r="C308" s="1">
+        <f>VLOOKUP(A308+1,Balance!J:K,2,FALSE)</f>
+        <v>62200</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E308">
+        <f>(VLOOKUP(A308+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>104.3073</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>9048</v>
+      </c>
+      <c r="C309" s="1">
+        <f>VLOOKUP(A309+1,Balance!J:K,2,FALSE)</f>
+        <v>62400</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E309">
+        <f>(VLOOKUP(A309+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>105.3028</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>9048</v>
+      </c>
+      <c r="C310" s="1">
+        <f>VLOOKUP(A310+1,Balance!J:K,2,FALSE)</f>
+        <v>62600</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E310">
+        <f>(VLOOKUP(A310+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>106.30459999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>9048</v>
+      </c>
+      <c r="C311" s="1">
+        <f>VLOOKUP(A311+1,Balance!J:K,2,FALSE)</f>
+        <v>62800</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E311">
+        <f>(VLOOKUP(A311+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>107.31270000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>9048</v>
+      </c>
+      <c r="C312" s="1">
+        <f>VLOOKUP(A312+1,Balance!J:K,2,FALSE)</f>
+        <v>63000</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E312">
+        <f>(VLOOKUP(A312+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>108.32719999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>9048</v>
+      </c>
+      <c r="C313" s="1">
+        <f>VLOOKUP(A313+1,Balance!J:K,2,FALSE)</f>
+        <v>63200</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E313">
+        <f>(VLOOKUP(A313+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>109.34809999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>9048</v>
+      </c>
+      <c r="C314" s="1">
+        <f>VLOOKUP(A314+1,Balance!J:K,2,FALSE)</f>
+        <v>63400</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E314">
+        <f>(VLOOKUP(A314+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>110.37540000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>9048</v>
+      </c>
+      <c r="C315" s="1">
+        <f>VLOOKUP(A315+1,Balance!J:K,2,FALSE)</f>
+        <v>63600</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E315">
+        <f>(VLOOKUP(A315+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>111.4091</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>9048</v>
+      </c>
+      <c r="C316" s="1">
+        <f>VLOOKUP(A316+1,Balance!J:K,2,FALSE)</f>
+        <v>63800</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E316">
+        <f>(VLOOKUP(A316+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>112.4492</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>9048</v>
+      </c>
+      <c r="C317" s="1">
+        <f>VLOOKUP(A317+1,Balance!J:K,2,FALSE)</f>
+        <v>64000</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E317">
+        <f>(VLOOKUP(A317+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>113.4958</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>9048</v>
+      </c>
+      <c r="C318" s="1">
+        <f>VLOOKUP(A318+1,Balance!J:K,2,FALSE)</f>
+        <v>64200</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E318">
+        <f>(VLOOKUP(A318+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>114.54889999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>9048</v>
+      </c>
+      <c r="C319" s="1">
+        <f>VLOOKUP(A319+1,Balance!J:K,2,FALSE)</f>
+        <v>64400</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E319">
+        <f>(VLOOKUP(A319+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>115.60850000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>9048</v>
+      </c>
+      <c r="C320" s="1">
+        <f>VLOOKUP(A320+1,Balance!J:K,2,FALSE)</f>
+        <v>64600</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E320">
+        <f>(VLOOKUP(A320+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>116.6746</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>9048</v>
+      </c>
+      <c r="C321" s="1">
+        <f>VLOOKUP(A321+1,Balance!J:K,2,FALSE)</f>
+        <v>64800</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E321">
+        <f>(VLOOKUP(A321+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>117.74719999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>9048</v>
+      </c>
+      <c r="C322" s="1">
+        <f>VLOOKUP(A322+1,Balance!J:K,2,FALSE)</f>
+        <v>65000</v>
+      </c>
+      <c r="D322">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E322">
+        <f>(VLOOKUP(A322+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>118.82639999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>9048</v>
+      </c>
+      <c r="C323" s="1">
+        <f>VLOOKUP(A323+1,Balance!J:K,2,FALSE)</f>
+        <v>65200</v>
+      </c>
+      <c r="D323">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E323">
+        <f>(VLOOKUP(A323+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>119.9122</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>9048</v>
+      </c>
+      <c r="C324" s="1">
+        <f>VLOOKUP(A324+1,Balance!J:K,2,FALSE)</f>
+        <v>65400</v>
+      </c>
+      <c r="D324">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E324">
+        <f>(VLOOKUP(A324+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>121.0046</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>9048</v>
+      </c>
+      <c r="C325" s="1">
+        <f>VLOOKUP(A325+1,Balance!J:K,2,FALSE)</f>
+        <v>65600</v>
+      </c>
+      <c r="D325">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E325">
+        <f>(VLOOKUP(A325+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>122.1036</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>9048</v>
+      </c>
+      <c r="C326" s="1">
+        <f>VLOOKUP(A326+1,Balance!J:K,2,FALSE)</f>
+        <v>65800</v>
+      </c>
+      <c r="D326">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E326">
+        <f>(VLOOKUP(A326+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>123.2092</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>9048</v>
+      </c>
+      <c r="C327" s="1">
+        <f>VLOOKUP(A327+1,Balance!J:K,2,FALSE)</f>
+        <v>66000</v>
+      </c>
+      <c r="D327">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E327">
+        <f>(VLOOKUP(A327+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>124.3215</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>9048</v>
+      </c>
+      <c r="C328" s="1">
+        <f>VLOOKUP(A328+1,Balance!J:K,2,FALSE)</f>
+        <v>66200</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E328">
+        <f>(VLOOKUP(A328+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>125.44049999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>9048</v>
+      </c>
+      <c r="C329" s="1">
+        <f>VLOOKUP(A329+1,Balance!J:K,2,FALSE)</f>
+        <v>66400</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E329">
+        <f>(VLOOKUP(A329+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>126.56620000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>9048</v>
+      </c>
+      <c r="C330" s="1">
+        <f>VLOOKUP(A330+1,Balance!J:K,2,FALSE)</f>
+        <v>66600</v>
+      </c>
+      <c r="D330">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E330">
+        <f>(VLOOKUP(A330+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>127.6986</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>9048</v>
+      </c>
+      <c r="C331" s="1">
+        <f>VLOOKUP(A331+1,Balance!J:K,2,FALSE)</f>
+        <v>66800</v>
+      </c>
+      <c r="D331">
+        <f t="shared" ref="D331:D394" si="6">D330</f>
+        <v>90</v>
+      </c>
+      <c r="E331">
+        <f>(VLOOKUP(A331+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>128.83770000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>9048</v>
+      </c>
+      <c r="C332" s="1">
+        <f>VLOOKUP(A332+1,Balance!J:K,2,FALSE)</f>
+        <v>67000</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E332">
+        <f>(VLOOKUP(A332+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>129.9836</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>9048</v>
+      </c>
+      <c r="C333" s="1">
+        <f>VLOOKUP(A333+1,Balance!J:K,2,FALSE)</f>
+        <v>67200</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E333">
+        <f>(VLOOKUP(A333+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>131.13630000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>9048</v>
+      </c>
+      <c r="C334" s="1">
+        <f>VLOOKUP(A334+1,Balance!J:K,2,FALSE)</f>
+        <v>67400</v>
+      </c>
+      <c r="D334">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E334">
+        <f>(VLOOKUP(A334+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>132.29579999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>9048</v>
+      </c>
+      <c r="C335" s="1">
+        <f>VLOOKUP(A335+1,Balance!J:K,2,FALSE)</f>
+        <v>67600</v>
+      </c>
+      <c r="D335">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E335">
+        <f>(VLOOKUP(A335+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>133.46209999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>9048</v>
+      </c>
+      <c r="C336" s="1">
+        <f>VLOOKUP(A336+1,Balance!J:K,2,FALSE)</f>
+        <v>67800</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E336">
+        <f>(VLOOKUP(A336+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>134.6352</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>9048</v>
+      </c>
+      <c r="C337" s="1">
+        <f>VLOOKUP(A337+1,Balance!J:K,2,FALSE)</f>
+        <v>68000</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E337">
+        <f>(VLOOKUP(A337+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>135.8152</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>9048</v>
+      </c>
+      <c r="C338" s="1">
+        <f>VLOOKUP(A338+1,Balance!J:K,2,FALSE)</f>
+        <v>68200</v>
+      </c>
+      <c r="D338">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E338">
+        <f>(VLOOKUP(A338+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>137.00209999999998</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>9048</v>
+      </c>
+      <c r="C339" s="1">
+        <f>VLOOKUP(A339+1,Balance!J:K,2,FALSE)</f>
+        <v>68400</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E339">
+        <f>(VLOOKUP(A339+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>138.19589999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>9048</v>
+      </c>
+      <c r="C340" s="1">
+        <f>VLOOKUP(A340+1,Balance!J:K,2,FALSE)</f>
+        <v>68600</v>
+      </c>
+      <c r="D340">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E340">
+        <f>(VLOOKUP(A340+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>139.39660000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>9048</v>
+      </c>
+      <c r="C341" s="1">
+        <f>VLOOKUP(A341+1,Balance!J:K,2,FALSE)</f>
+        <v>68800</v>
+      </c>
+      <c r="D341">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E341">
+        <f>(VLOOKUP(A341+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>140.60419999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>9048</v>
+      </c>
+      <c r="C342" s="1">
+        <f>VLOOKUP(A342+1,Balance!J:K,2,FALSE)</f>
+        <v>69000</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E342">
+        <f>(VLOOKUP(A342+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>141.81879999999998</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>9048</v>
+      </c>
+      <c r="C343" s="1">
+        <f>VLOOKUP(A343+1,Balance!J:K,2,FALSE)</f>
+        <v>69200</v>
+      </c>
+      <c r="D343">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E343">
+        <f>(VLOOKUP(A343+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>143.04040000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>9048</v>
+      </c>
+      <c r="C344" s="1">
+        <f>VLOOKUP(A344+1,Balance!J:K,2,FALSE)</f>
+        <v>69400</v>
+      </c>
+      <c r="D344">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E344">
+        <f>(VLOOKUP(A344+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>144.26900000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>9048</v>
+      </c>
+      <c r="C345" s="1">
+        <f>VLOOKUP(A345+1,Balance!J:K,2,FALSE)</f>
+        <v>69600</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E345">
+        <f>(VLOOKUP(A345+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>145.50459999999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>9048</v>
+      </c>
+      <c r="C346" s="1">
+        <f>VLOOKUP(A346+1,Balance!J:K,2,FALSE)</f>
+        <v>69800</v>
+      </c>
+      <c r="D346">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E346">
+        <f>(VLOOKUP(A346+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>146.74719999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>9048</v>
+      </c>
+      <c r="C347" s="1">
+        <f>VLOOKUP(A347+1,Balance!J:K,2,FALSE)</f>
+        <v>70000</v>
+      </c>
+      <c r="D347">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E347">
+        <f>(VLOOKUP(A347+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>147.99690000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>9048</v>
+      </c>
+      <c r="C348" s="1">
+        <f>VLOOKUP(A348+1,Balance!J:K,2,FALSE)</f>
+        <v>70200</v>
+      </c>
+      <c r="D348">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E348">
+        <f>(VLOOKUP(A348+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>149.25370000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>9048</v>
+      </c>
+      <c r="C349" s="1">
+        <f>VLOOKUP(A349+1,Balance!J:K,2,FALSE)</f>
+        <v>70400</v>
+      </c>
+      <c r="D349">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E349">
+        <f>(VLOOKUP(A349+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>150.51760000000002</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>9048</v>
+      </c>
+      <c r="C350" s="1">
+        <f>VLOOKUP(A350+1,Balance!J:K,2,FALSE)</f>
+        <v>70600</v>
+      </c>
+      <c r="D350">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E350">
+        <f>(VLOOKUP(A350+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>151.7886</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>9048</v>
+      </c>
+      <c r="C351" s="1">
+        <f>VLOOKUP(A351+1,Balance!J:K,2,FALSE)</f>
+        <v>70800</v>
+      </c>
+      <c r="D351">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E351">
+        <f>(VLOOKUP(A351+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>153.0667</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>9048</v>
+      </c>
+      <c r="C352" s="1">
+        <f>VLOOKUP(A352+1,Balance!J:K,2,FALSE)</f>
+        <v>71000</v>
+      </c>
+      <c r="D352">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E352">
+        <f>(VLOOKUP(A352+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>154.352</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>9048</v>
+      </c>
+      <c r="C353" s="1">
+        <f>VLOOKUP(A353+1,Balance!J:K,2,FALSE)</f>
+        <v>71200</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E353">
+        <f>(VLOOKUP(A353+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>155.64449999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>9048</v>
+      </c>
+      <c r="C354" s="1">
+        <f>VLOOKUP(A354+1,Balance!J:K,2,FALSE)</f>
+        <v>71400</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E354">
+        <f>(VLOOKUP(A354+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>156.9442</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>9048</v>
+      </c>
+      <c r="C355" s="1">
+        <f>VLOOKUP(A355+1,Balance!J:K,2,FALSE)</f>
+        <v>71600</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E355">
+        <f>(VLOOKUP(A355+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>158.25110000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>9048</v>
+      </c>
+      <c r="C356" s="1">
+        <f>VLOOKUP(A356+1,Balance!J:K,2,FALSE)</f>
+        <v>71800</v>
+      </c>
+      <c r="D356">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E356">
+        <f>(VLOOKUP(A356+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>159.5652</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>9048</v>
+      </c>
+      <c r="C357" s="1">
+        <f>VLOOKUP(A357+1,Balance!J:K,2,FALSE)</f>
+        <v>72000</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E357">
+        <f>(VLOOKUP(A357+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>160.88659999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>9048</v>
+      </c>
+      <c r="C358" s="1">
+        <f>VLOOKUP(A358+1,Balance!J:K,2,FALSE)</f>
+        <v>72200</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E358">
+        <f>(VLOOKUP(A358+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>162.21530000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>9048</v>
+      </c>
+      <c r="C359" s="1">
+        <f>VLOOKUP(A359+1,Balance!J:K,2,FALSE)</f>
+        <v>72400</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E359">
+        <f>(VLOOKUP(A359+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>163.5513</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>9048</v>
+      </c>
+      <c r="C360" s="1">
+        <f>VLOOKUP(A360+1,Balance!J:K,2,FALSE)</f>
+        <v>72600</v>
+      </c>
+      <c r="D360">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E360">
+        <f>(VLOOKUP(A360+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>164.8946</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>9048</v>
+      </c>
+      <c r="C361" s="1">
+        <f>VLOOKUP(A361+1,Balance!J:K,2,FALSE)</f>
+        <v>72800</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E361">
+        <f>(VLOOKUP(A361+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>166.24520000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>9048</v>
+      </c>
+      <c r="C362" s="1">
+        <f>VLOOKUP(A362+1,Balance!J:K,2,FALSE)</f>
+        <v>73000</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E362">
+        <f>(VLOOKUP(A362+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>167.60319999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>9048</v>
+      </c>
+      <c r="C363" s="1">
+        <f>VLOOKUP(A363+1,Balance!J:K,2,FALSE)</f>
+        <v>73200</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E363">
+        <f>(VLOOKUP(A363+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>168.96860000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>9048</v>
+      </c>
+      <c r="C364" s="1">
+        <f>VLOOKUP(A364+1,Balance!J:K,2,FALSE)</f>
+        <v>73400</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E364">
+        <f>(VLOOKUP(A364+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>170.34139999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>9048</v>
+      </c>
+      <c r="C365" s="1">
+        <f>VLOOKUP(A365+1,Balance!J:K,2,FALSE)</f>
+        <v>73600</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E365">
+        <f>(VLOOKUP(A365+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>171.7216</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>9048</v>
+      </c>
+      <c r="C366" s="1">
+        <f>VLOOKUP(A366+1,Balance!J:K,2,FALSE)</f>
+        <v>73800</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E366">
+        <f>(VLOOKUP(A366+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>173.10919999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>9048</v>
+      </c>
+      <c r="C367" s="1">
+        <f>VLOOKUP(A367+1,Balance!J:K,2,FALSE)</f>
+        <v>74000</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E367">
+        <f>(VLOOKUP(A367+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>174.5043</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>9048</v>
+      </c>
+      <c r="C368" s="1">
+        <f>VLOOKUP(A368+1,Balance!J:K,2,FALSE)</f>
+        <v>74200</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E368">
+        <f>(VLOOKUP(A368+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>175.90689999999998</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>9048</v>
+      </c>
+      <c r="C369" s="1">
+        <f>VLOOKUP(A369+1,Balance!J:K,2,FALSE)</f>
+        <v>74400</v>
+      </c>
+      <c r="D369">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E369">
+        <f>(VLOOKUP(A369+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>177.31700000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>9048</v>
+      </c>
+      <c r="C370" s="1">
+        <f>VLOOKUP(A370+1,Balance!J:K,2,FALSE)</f>
+        <v>74600</v>
+      </c>
+      <c r="D370">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E370">
+        <f>(VLOOKUP(A370+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>178.7346</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>9048</v>
+      </c>
+      <c r="C371" s="1">
+        <f>VLOOKUP(A371+1,Balance!J:K,2,FALSE)</f>
+        <v>74800</v>
+      </c>
+      <c r="D371">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E371">
+        <f>(VLOOKUP(A371+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>180.15970000000002</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>9048</v>
+      </c>
+      <c r="C372" s="1">
+        <f>VLOOKUP(A372+1,Balance!J:K,2,FALSE)</f>
+        <v>75000</v>
+      </c>
+      <c r="D372">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E372">
+        <f>(VLOOKUP(A372+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>181.59240000000003</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>9048</v>
+      </c>
+      <c r="C373" s="1">
+        <f>VLOOKUP(A373+1,Balance!J:K,2,FALSE)</f>
+        <v>75200</v>
+      </c>
+      <c r="D373">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E373">
+        <f>(VLOOKUP(A373+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>183.03270000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>9048</v>
+      </c>
+      <c r="C374" s="1">
+        <f>VLOOKUP(A374+1,Balance!J:K,2,FALSE)</f>
+        <v>75400</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E374">
+        <f>(VLOOKUP(A374+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>184.48060000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>9048</v>
+      </c>
+      <c r="C375" s="1">
+        <f>VLOOKUP(A375+1,Balance!J:K,2,FALSE)</f>
+        <v>75600</v>
+      </c>
+      <c r="D375">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E375">
+        <f>(VLOOKUP(A375+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>185.93610000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>9048</v>
+      </c>
+      <c r="C376" s="1">
+        <f>VLOOKUP(A376+1,Balance!J:K,2,FALSE)</f>
+        <v>75800</v>
+      </c>
+      <c r="D376">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E376">
+        <f>(VLOOKUP(A376+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>187.39919999999998</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>9048</v>
+      </c>
+      <c r="C377" s="1">
+        <f>VLOOKUP(A377+1,Balance!J:K,2,FALSE)</f>
+        <v>76000</v>
+      </c>
+      <c r="D377">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E377">
+        <f>(VLOOKUP(A377+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>188.87</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>9048</v>
+      </c>
+      <c r="C378" s="1">
+        <f>VLOOKUP(A378+1,Balance!J:K,2,FALSE)</f>
+        <v>76200</v>
+      </c>
+      <c r="D378">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E378">
+        <f>(VLOOKUP(A378+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>190.34849999999997</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>9048</v>
+      </c>
+      <c r="C379" s="1">
+        <f>VLOOKUP(A379+1,Balance!J:K,2,FALSE)</f>
+        <v>76400</v>
+      </c>
+      <c r="D379">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E379">
+        <f>(VLOOKUP(A379+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>191.8347</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>9048</v>
+      </c>
+      <c r="C380" s="1">
+        <f>VLOOKUP(A380+1,Balance!J:K,2,FALSE)</f>
+        <v>76600</v>
+      </c>
+      <c r="D380">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E380">
+        <f>(VLOOKUP(A380+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>193.32859999999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>9048</v>
+      </c>
+      <c r="C381" s="1">
+        <f>VLOOKUP(A381+1,Balance!J:K,2,FALSE)</f>
+        <v>76800</v>
+      </c>
+      <c r="D381">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E381">
+        <f>(VLOOKUP(A381+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>194.83019999999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>9048</v>
+      </c>
+      <c r="C382" s="1">
+        <f>VLOOKUP(A382+1,Balance!J:K,2,FALSE)</f>
+        <v>77000</v>
+      </c>
+      <c r="D382">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E382">
+        <f>(VLOOKUP(A382+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>196.33959999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>9048</v>
+      </c>
+      <c r="C383" s="1">
+        <f>VLOOKUP(A383+1,Balance!J:K,2,FALSE)</f>
+        <v>77200</v>
+      </c>
+      <c r="D383">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E383">
+        <f>(VLOOKUP(A383+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>197.85679999999999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>9048</v>
+      </c>
+      <c r="C384" s="1">
+        <f>VLOOKUP(A384+1,Balance!J:K,2,FALSE)</f>
+        <v>77400</v>
+      </c>
+      <c r="D384">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E384">
+        <f>(VLOOKUP(A384+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>199.3818</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>9048</v>
+      </c>
+      <c r="C385" s="1">
+        <f>VLOOKUP(A385+1,Balance!J:K,2,FALSE)</f>
+        <v>77600</v>
+      </c>
+      <c r="D385">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E385">
+        <f>(VLOOKUP(A385+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>200.91459999999998</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>9048</v>
+      </c>
+      <c r="C386" s="1">
+        <f>VLOOKUP(A386+1,Balance!J:K,2,FALSE)</f>
+        <v>77800</v>
+      </c>
+      <c r="D386">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E386">
+        <f>(VLOOKUP(A386+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>202.45519999999999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>9048</v>
+      </c>
+      <c r="C387" s="1">
+        <f>VLOOKUP(A387+1,Balance!J:K,2,FALSE)</f>
+        <v>78000</v>
+      </c>
+      <c r="D387">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E387">
+        <f>(VLOOKUP(A387+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>204.00369999999998</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>9048</v>
+      </c>
+      <c r="C388" s="1">
+        <f>VLOOKUP(A388+1,Balance!J:K,2,FALSE)</f>
+        <v>78200</v>
+      </c>
+      <c r="D388">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E388">
+        <f>(VLOOKUP(A388+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>205.56009999999998</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>9048</v>
+      </c>
+      <c r="C389" s="1">
+        <f>VLOOKUP(A389+1,Balance!J:K,2,FALSE)</f>
+        <v>78400</v>
+      </c>
+      <c r="D389">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E389">
+        <f>(VLOOKUP(A389+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>207.12439999999998</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>9048</v>
+      </c>
+      <c r="C390" s="1">
+        <f>VLOOKUP(A390+1,Balance!J:K,2,FALSE)</f>
+        <v>78600</v>
+      </c>
+      <c r="D390">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E390">
+        <f>(VLOOKUP(A390+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>208.69659999999999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>9048</v>
+      </c>
+      <c r="C391" s="1">
+        <f>VLOOKUP(A391+1,Balance!J:K,2,FALSE)</f>
+        <v>78800</v>
+      </c>
+      <c r="D391">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E391">
+        <f>(VLOOKUP(A391+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>210.27669999999998</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>9048</v>
+      </c>
+      <c r="C392" s="1">
+        <f>VLOOKUP(A392+1,Balance!J:K,2,FALSE)</f>
+        <v>79000</v>
+      </c>
+      <c r="D392">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E392">
+        <f>(VLOOKUP(A392+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>211.8648</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>9048</v>
+      </c>
+      <c r="C393" s="1">
+        <f>VLOOKUP(A393+1,Balance!J:K,2,FALSE)</f>
+        <v>79200</v>
+      </c>
+      <c r="D393">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E393">
+        <f>(VLOOKUP(A393+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>213.46090000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>9048</v>
+      </c>
+      <c r="C394" s="1">
+        <f>VLOOKUP(A394+1,Balance!J:K,2,FALSE)</f>
+        <v>79400</v>
+      </c>
+      <c r="D394">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E394">
+        <f>(VLOOKUP(A394+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>215.065</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>9048</v>
+      </c>
+      <c r="C395" s="1">
+        <f>VLOOKUP(A395+1,Balance!J:K,2,FALSE)</f>
+        <v>79600</v>
+      </c>
+      <c r="D395">
+        <f t="shared" ref="D395:D401" si="7">D394</f>
+        <v>90</v>
+      </c>
+      <c r="E395">
+        <f>(VLOOKUP(A395+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>216.6771</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>9048</v>
+      </c>
+      <c r="C396" s="1">
+        <f>VLOOKUP(A396+1,Balance!J:K,2,FALSE)</f>
+        <v>79800</v>
+      </c>
+      <c r="D396">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="E396">
+        <f>(VLOOKUP(A396+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>218.2972</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>9048</v>
+      </c>
+      <c r="C397" s="1">
+        <f>VLOOKUP(A397+1,Balance!J:K,2,FALSE)</f>
+        <v>80000</v>
+      </c>
+      <c r="D397">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="E397">
+        <f>(VLOOKUP(A397+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>219.9254</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>9048</v>
+      </c>
+      <c r="C398" s="1">
+        <f>VLOOKUP(A398+1,Balance!J:K,2,FALSE)</f>
+        <v>80200</v>
+      </c>
+      <c r="D398">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="E398">
+        <f>(VLOOKUP(A398+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>221.56169999999997</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>9048</v>
+      </c>
+      <c r="C399" s="1">
+        <f>VLOOKUP(A399+1,Balance!J:K,2,FALSE)</f>
+        <v>80400</v>
+      </c>
+      <c r="D399">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="E399">
+        <f>(VLOOKUP(A399+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>223.20609999999999</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>9048</v>
+      </c>
+      <c r="C400" s="1">
+        <f>VLOOKUP(A400+1,Balance!J:K,2,FALSE)</f>
+        <v>80600</v>
+      </c>
+      <c r="D400">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="E400">
+        <f>(VLOOKUP(A400+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>224.8586</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>9048</v>
+      </c>
+      <c r="C401" s="1">
+        <f>VLOOKUP(A401+1,Balance!J:K,2,FALSE)</f>
+        <v>80800</v>
+      </c>
+      <c r="D401">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="E401">
+        <f>(VLOOKUP(A401+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>226.51919999999998</v>
       </c>
     </row>
   </sheetData>
@@ -6573,10 +8573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:U304"/>
+  <dimension ref="A1:U404"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="K302" sqref="K302"/>
+    <sheetView topLeftCell="C385" workbookViewId="0">
+      <selection activeCell="L397" sqref="L397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19057,7 +21057,7 @@
         <v>259</v>
       </c>
       <c r="K263" s="1">
-        <f t="shared" ref="K263:K304" si="36">K262+200</f>
+        <f t="shared" ref="K263:K326" si="36">K262+200</f>
         <v>52600</v>
       </c>
       <c r="L263" s="1">
@@ -19080,7 +21080,7 @@
         <v>71.03</v>
       </c>
       <c r="R263" s="6">
-        <f t="shared" ref="R263:R304" si="37">R262+0.002</f>
+        <f t="shared" ref="R263:R326" si="37">R262+0.002</f>
         <v>0.53600000000000037</v>
       </c>
       <c r="S263" s="5">
@@ -20898,6 +22898,4406 @@
       <c r="U304">
         <f t="shared" si="42"/>
         <v>0.96916425981308663</v>
+      </c>
+    </row>
+    <row r="305" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J305" s="2">
+        <v>301</v>
+      </c>
+      <c r="K305" s="1">
+        <f t="shared" si="36"/>
+        <v>61000</v>
+      </c>
+      <c r="L305" s="1">
+        <f>SUM($K$5:K305)</f>
+        <v>9331000</v>
+      </c>
+      <c r="M305" s="3">
+        <f t="shared" ref="M305:M368" si="43">K305/$H$94</f>
+        <v>2.1254355400696863</v>
+      </c>
+      <c r="N305" s="4">
+        <f t="shared" ref="N305:N368" si="44">L305/$H$94</f>
+        <v>325.1219512195122</v>
+      </c>
+      <c r="P305" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q305" s="6">
+        <f t="shared" ref="Q305:Q368" si="45">ROUNDDOWN(Q304+R305,2)</f>
+        <v>95.18</v>
+      </c>
+      <c r="R305" s="6">
+        <f t="shared" si="37"/>
+        <v>0.62000000000000044</v>
+      </c>
+      <c r="S305" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q305),2)</f>
+        <v>9846.6</v>
+      </c>
+      <c r="T305" s="5">
+        <f t="shared" ref="T305:T368" si="46">$T$3*(100+S305)/100</f>
+        <v>198932</v>
+      </c>
+      <c r="U305">
+        <f t="shared" ref="U305:U368" si="47">((T305-T304)/T304)*100</f>
+        <v>0.96615513296560585</v>
+      </c>
+    </row>
+    <row r="306" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J306" s="2">
+        <v>302</v>
+      </c>
+      <c r="K306" s="1">
+        <f t="shared" si="36"/>
+        <v>61200</v>
+      </c>
+      <c r="L306" s="1">
+        <f>SUM($K$5:K306)</f>
+        <v>9392200</v>
+      </c>
+      <c r="M306" s="3">
+        <f t="shared" si="43"/>
+        <v>2.1324041811846688</v>
+      </c>
+      <c r="N306" s="4">
+        <f t="shared" si="44"/>
+        <v>327.25435540069685</v>
+      </c>
+      <c r="P306" s="2">
+        <v>302</v>
+      </c>
+      <c r="Q306" s="6">
+        <f t="shared" si="45"/>
+        <v>95.8</v>
+      </c>
+      <c r="R306" s="6">
+        <f t="shared" si="37"/>
+        <v>0.62200000000000044</v>
+      </c>
+      <c r="S306" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q306),2)</f>
+        <v>9942.4</v>
+      </c>
+      <c r="T306" s="5">
+        <f t="shared" si="46"/>
+        <v>200848</v>
+      </c>
+      <c r="U306">
+        <f t="shared" si="47"/>
+        <v>0.96314318460579484</v>
+      </c>
+    </row>
+    <row r="307" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J307" s="2">
+        <v>303</v>
+      </c>
+      <c r="K307" s="1">
+        <f t="shared" si="36"/>
+        <v>61400</v>
+      </c>
+      <c r="L307" s="1">
+        <f>SUM($K$5:K307)</f>
+        <v>9453600</v>
+      </c>
+      <c r="M307" s="3">
+        <f t="shared" si="43"/>
+        <v>2.1393728222996518</v>
+      </c>
+      <c r="N307" s="4">
+        <f t="shared" si="44"/>
+        <v>329.39372822299651</v>
+      </c>
+      <c r="P307" s="2">
+        <v>303</v>
+      </c>
+      <c r="Q307" s="6">
+        <f t="shared" si="45"/>
+        <v>96.42</v>
+      </c>
+      <c r="R307" s="6">
+        <f t="shared" si="37"/>
+        <v>0.62400000000000044</v>
+      </c>
+      <c r="S307" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q307),2)</f>
+        <v>10038.82</v>
+      </c>
+      <c r="T307" s="5">
+        <f t="shared" si="46"/>
+        <v>202776.4</v>
+      </c>
+      <c r="U307">
+        <f t="shared" si="47"/>
+        <v>0.96012905281605687</v>
+      </c>
+    </row>
+    <row r="308" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J308" s="2">
+        <v>304</v>
+      </c>
+      <c r="K308" s="1">
+        <f t="shared" si="36"/>
+        <v>61600</v>
+      </c>
+      <c r="L308" s="1">
+        <f>SUM($K$5:K308)</f>
+        <v>9515200</v>
+      </c>
+      <c r="M308" s="3">
+        <f t="shared" si="43"/>
+        <v>2.1463414634146343</v>
+      </c>
+      <c r="N308" s="4">
+        <f t="shared" si="44"/>
+        <v>331.54006968641113</v>
+      </c>
+      <c r="P308" s="2">
+        <v>304</v>
+      </c>
+      <c r="Q308" s="6">
+        <f t="shared" si="45"/>
+        <v>97.04</v>
+      </c>
+      <c r="R308" s="6">
+        <f t="shared" si="37"/>
+        <v>0.62600000000000044</v>
+      </c>
+      <c r="S308" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q308),2)</f>
+        <v>10135.86</v>
+      </c>
+      <c r="T308" s="5">
+        <f t="shared" si="46"/>
+        <v>204717.2</v>
+      </c>
+      <c r="U308">
+        <f t="shared" si="47"/>
+        <v>0.95711335244141704</v>
+      </c>
+    </row>
+    <row r="309" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J309" s="2">
+        <v>305</v>
+      </c>
+      <c r="K309" s="1">
+        <f t="shared" si="36"/>
+        <v>61800</v>
+      </c>
+      <c r="L309" s="1">
+        <f>SUM($K$5:K309)</f>
+        <v>9577000</v>
+      </c>
+      <c r="M309" s="3">
+        <f t="shared" si="43"/>
+        <v>2.1533101045296168</v>
+      </c>
+      <c r="N309" s="4">
+        <f t="shared" si="44"/>
+        <v>333.69337979094075</v>
+      </c>
+      <c r="P309" s="2">
+        <v>305</v>
+      </c>
+      <c r="Q309" s="6">
+        <f t="shared" si="45"/>
+        <v>97.66</v>
+      </c>
+      <c r="R309" s="6">
+        <f t="shared" si="37"/>
+        <v>0.62800000000000045</v>
+      </c>
+      <c r="S309" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q309),2)</f>
+        <v>10233.52</v>
+      </c>
+      <c r="T309" s="5">
+        <f t="shared" si="46"/>
+        <v>206670.4</v>
+      </c>
+      <c r="U309">
+        <f t="shared" si="47"/>
+        <v>0.954096675804467</v>
+      </c>
+    </row>
+    <row r="310" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J310" s="2">
+        <v>306</v>
+      </c>
+      <c r="K310" s="1">
+        <f t="shared" si="36"/>
+        <v>62000</v>
+      </c>
+      <c r="L310" s="1">
+        <f>SUM($K$5:K310)</f>
+        <v>9639000</v>
+      </c>
+      <c r="M310" s="3">
+        <f t="shared" si="43"/>
+        <v>2.1602787456445993</v>
+      </c>
+      <c r="N310" s="4">
+        <f t="shared" si="44"/>
+        <v>335.85365853658539</v>
+      </c>
+      <c r="P310" s="2">
+        <v>306</v>
+      </c>
+      <c r="Q310" s="6">
+        <f t="shared" si="45"/>
+        <v>98.29</v>
+      </c>
+      <c r="R310" s="6">
+        <f t="shared" si="37"/>
+        <v>0.63000000000000045</v>
+      </c>
+      <c r="S310" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q310),2)</f>
+        <v>10331.81</v>
+      </c>
+      <c r="T310" s="5">
+        <f t="shared" si="46"/>
+        <v>208636.2</v>
+      </c>
+      <c r="U310">
+        <f t="shared" si="47"/>
+        <v>0.95117636584630283</v>
+      </c>
+    </row>
+    <row r="311" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J311" s="2">
+        <v>307</v>
+      </c>
+      <c r="K311" s="1">
+        <f t="shared" si="36"/>
+        <v>62200</v>
+      </c>
+      <c r="L311" s="1">
+        <f>SUM($K$5:K311)</f>
+        <v>9701200</v>
+      </c>
+      <c r="M311" s="3">
+        <f t="shared" si="43"/>
+        <v>2.1672473867595818</v>
+      </c>
+      <c r="N311" s="4">
+        <f t="shared" si="44"/>
+        <v>338.02090592334497</v>
+      </c>
+      <c r="P311" s="2">
+        <v>307</v>
+      </c>
+      <c r="Q311" s="6">
+        <f t="shared" si="45"/>
+        <v>98.92</v>
+      </c>
+      <c r="R311" s="6">
+        <f t="shared" si="37"/>
+        <v>0.63200000000000045</v>
+      </c>
+      <c r="S311" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q311),2)</f>
+        <v>10430.73</v>
+      </c>
+      <c r="T311" s="5">
+        <f t="shared" si="46"/>
+        <v>210614.6</v>
+      </c>
+      <c r="U311">
+        <f t="shared" si="47"/>
+        <v>0.94825346703975355</v>
+      </c>
+    </row>
+    <row r="312" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J312" s="2">
+        <v>308</v>
+      </c>
+      <c r="K312" s="1">
+        <f t="shared" si="36"/>
+        <v>62400</v>
+      </c>
+      <c r="L312" s="1">
+        <f>SUM($K$5:K312)</f>
+        <v>9763600</v>
+      </c>
+      <c r="M312" s="3">
+        <f t="shared" si="43"/>
+        <v>2.1742160278745644</v>
+      </c>
+      <c r="N312" s="4">
+        <f t="shared" si="44"/>
+        <v>340.19512195121951</v>
+      </c>
+      <c r="P312" s="2">
+        <v>308</v>
+      </c>
+      <c r="Q312" s="6">
+        <f t="shared" si="45"/>
+        <v>99.55</v>
+      </c>
+      <c r="R312" s="6">
+        <f t="shared" si="37"/>
+        <v>0.63400000000000045</v>
+      </c>
+      <c r="S312" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q312),2)</f>
+        <v>10530.28</v>
+      </c>
+      <c r="T312" s="5">
+        <f t="shared" si="46"/>
+        <v>212605.6</v>
+      </c>
+      <c r="U312">
+        <f t="shared" si="47"/>
+        <v>0.94532857646146085</v>
+      </c>
+    </row>
+    <row r="313" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J313" s="2">
+        <v>309</v>
+      </c>
+      <c r="K313" s="1">
+        <f t="shared" si="36"/>
+        <v>62600</v>
+      </c>
+      <c r="L313" s="1">
+        <f>SUM($K$5:K313)</f>
+        <v>9826200</v>
+      </c>
+      <c r="M313" s="3">
+        <f t="shared" si="43"/>
+        <v>2.1811846689895469</v>
+      </c>
+      <c r="N313" s="4">
+        <f t="shared" si="44"/>
+        <v>342.37630662020905</v>
+      </c>
+      <c r="P313" s="2">
+        <v>309</v>
+      </c>
+      <c r="Q313" s="6">
+        <f t="shared" si="45"/>
+        <v>100.18</v>
+      </c>
+      <c r="R313" s="6">
+        <f t="shared" si="37"/>
+        <v>0.63600000000000045</v>
+      </c>
+      <c r="S313" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q313),2)</f>
+        <v>10630.46</v>
+      </c>
+      <c r="T313" s="5">
+        <f t="shared" si="46"/>
+        <v>214609.2</v>
+      </c>
+      <c r="U313">
+        <f t="shared" si="47"/>
+        <v>0.94240226974266239</v>
+      </c>
+    </row>
+    <row r="314" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J314" s="2">
+        <v>310</v>
+      </c>
+      <c r="K314" s="1">
+        <f t="shared" si="36"/>
+        <v>62800</v>
+      </c>
+      <c r="L314" s="1">
+        <f>SUM($K$5:K314)</f>
+        <v>9889000</v>
+      </c>
+      <c r="M314" s="3">
+        <f t="shared" si="43"/>
+        <v>2.1881533101045294</v>
+      </c>
+      <c r="N314" s="4">
+        <f t="shared" si="44"/>
+        <v>344.5644599303136</v>
+      </c>
+      <c r="P314" s="2">
+        <v>310</v>
+      </c>
+      <c r="Q314" s="6">
+        <f t="shared" si="45"/>
+        <v>100.81</v>
+      </c>
+      <c r="R314" s="6">
+        <f t="shared" si="37"/>
+        <v>0.63800000000000046</v>
+      </c>
+      <c r="S314" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q314),2)</f>
+        <v>10731.27</v>
+      </c>
+      <c r="T314" s="5">
+        <f t="shared" si="46"/>
+        <v>216625.4</v>
+      </c>
+      <c r="U314">
+        <f t="shared" si="47"/>
+        <v>0.93947510171976889</v>
+      </c>
+    </row>
+    <row r="315" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J315" s="2">
+        <v>311</v>
+      </c>
+      <c r="K315" s="1">
+        <f t="shared" si="36"/>
+        <v>63000</v>
+      </c>
+      <c r="L315" s="1">
+        <f>SUM($K$5:K315)</f>
+        <v>9952000</v>
+      </c>
+      <c r="M315" s="3">
+        <f t="shared" si="43"/>
+        <v>2.1951219512195124</v>
+      </c>
+      <c r="N315" s="4">
+        <f t="shared" si="44"/>
+        <v>346.75958188153311</v>
+      </c>
+      <c r="P315" s="2">
+        <v>311</v>
+      </c>
+      <c r="Q315" s="6">
+        <f t="shared" si="45"/>
+        <v>101.45</v>
+      </c>
+      <c r="R315" s="6">
+        <f t="shared" si="37"/>
+        <v>0.64000000000000046</v>
+      </c>
+      <c r="S315" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q315),2)</f>
+        <v>10832.72</v>
+      </c>
+      <c r="T315" s="5">
+        <f t="shared" si="46"/>
+        <v>218654.4</v>
+      </c>
+      <c r="U315">
+        <f t="shared" si="47"/>
+        <v>0.93663993234403731</v>
+      </c>
+    </row>
+    <row r="316" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J316" s="2">
+        <v>312</v>
+      </c>
+      <c r="K316" s="1">
+        <f t="shared" si="36"/>
+        <v>63200</v>
+      </c>
+      <c r="L316" s="1">
+        <f>SUM($K$5:K316)</f>
+        <v>10015200</v>
+      </c>
+      <c r="M316" s="3">
+        <f t="shared" si="43"/>
+        <v>2.2020905923344949</v>
+      </c>
+      <c r="N316" s="4">
+        <f t="shared" si="44"/>
+        <v>348.96167247386762</v>
+      </c>
+      <c r="P316" s="2">
+        <v>312</v>
+      </c>
+      <c r="Q316" s="6">
+        <f t="shared" si="45"/>
+        <v>102.09</v>
+      </c>
+      <c r="R316" s="6">
+        <f t="shared" si="37"/>
+        <v>0.64200000000000046</v>
+      </c>
+      <c r="S316" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q316),2)</f>
+        <v>10934.81</v>
+      </c>
+      <c r="T316" s="5">
+        <f t="shared" si="46"/>
+        <v>220696.2</v>
+      </c>
+      <c r="U316">
+        <f t="shared" si="47"/>
+        <v>0.93380238403618576</v>
+      </c>
+    </row>
+    <row r="317" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J317" s="2">
+        <v>313</v>
+      </c>
+      <c r="K317" s="1">
+        <f t="shared" si="36"/>
+        <v>63400</v>
+      </c>
+      <c r="L317" s="1">
+        <f>SUM($K$5:K317)</f>
+        <v>10078600</v>
+      </c>
+      <c r="M317" s="3">
+        <f t="shared" si="43"/>
+        <v>2.2090592334494774</v>
+      </c>
+      <c r="N317" s="4">
+        <f t="shared" si="44"/>
+        <v>351.17073170731709</v>
+      </c>
+      <c r="P317" s="2">
+        <v>313</v>
+      </c>
+      <c r="Q317" s="6">
+        <f t="shared" si="45"/>
+        <v>102.73</v>
+      </c>
+      <c r="R317" s="6">
+        <f t="shared" si="37"/>
+        <v>0.64400000000000046</v>
+      </c>
+      <c r="S317" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q317),2)</f>
+        <v>11037.54</v>
+      </c>
+      <c r="T317" s="5">
+        <f t="shared" si="46"/>
+        <v>222750.8</v>
+      </c>
+      <c r="U317">
+        <f t="shared" si="47"/>
+        <v>0.93096301612804244</v>
+      </c>
+    </row>
+    <row r="318" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J318" s="2">
+        <v>314</v>
+      </c>
+      <c r="K318" s="1">
+        <f t="shared" si="36"/>
+        <v>63600</v>
+      </c>
+      <c r="L318" s="1">
+        <f>SUM($K$5:K318)</f>
+        <v>10142200</v>
+      </c>
+      <c r="M318" s="3">
+        <f t="shared" si="43"/>
+        <v>2.2160278745644599</v>
+      </c>
+      <c r="N318" s="4">
+        <f t="shared" si="44"/>
+        <v>353.38675958188151</v>
+      </c>
+      <c r="P318" s="2">
+        <v>314</v>
+      </c>
+      <c r="Q318" s="6">
+        <f t="shared" si="45"/>
+        <v>103.37</v>
+      </c>
+      <c r="R318" s="6">
+        <f t="shared" si="37"/>
+        <v>0.64600000000000046</v>
+      </c>
+      <c r="S318" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q318),2)</f>
+        <v>11140.91</v>
+      </c>
+      <c r="T318" s="5">
+        <f t="shared" si="46"/>
+        <v>224818.2</v>
+      </c>
+      <c r="U318">
+        <f t="shared" si="47"/>
+        <v>0.92812236813516413</v>
+      </c>
+    </row>
+    <row r="319" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J319" s="2">
+        <v>315</v>
+      </c>
+      <c r="K319" s="1">
+        <f t="shared" si="36"/>
+        <v>63800</v>
+      </c>
+      <c r="L319" s="1">
+        <f>SUM($K$5:K319)</f>
+        <v>10206000</v>
+      </c>
+      <c r="M319" s="3">
+        <f t="shared" si="43"/>
+        <v>2.2229965156794425</v>
+      </c>
+      <c r="N319" s="4">
+        <f t="shared" si="44"/>
+        <v>355.60975609756099</v>
+      </c>
+      <c r="P319" s="2">
+        <v>315</v>
+      </c>
+      <c r="Q319" s="6">
+        <f t="shared" si="45"/>
+        <v>104.01</v>
+      </c>
+      <c r="R319" s="6">
+        <f t="shared" si="37"/>
+        <v>0.64800000000000046</v>
+      </c>
+      <c r="S319" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q319),2)</f>
+        <v>11244.92</v>
+      </c>
+      <c r="T319" s="5">
+        <f t="shared" si="46"/>
+        <v>226898.4</v>
+      </c>
+      <c r="U319">
+        <f t="shared" si="47"/>
+        <v>0.92528096034928775</v>
+      </c>
+    </row>
+    <row r="320" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J320" s="2">
+        <v>316</v>
+      </c>
+      <c r="K320" s="1">
+        <f t="shared" si="36"/>
+        <v>64000</v>
+      </c>
+      <c r="L320" s="1">
+        <f>SUM($K$5:K320)</f>
+        <v>10270000</v>
+      </c>
+      <c r="M320" s="3">
+        <f t="shared" si="43"/>
+        <v>2.229965156794425</v>
+      </c>
+      <c r="N320" s="4">
+        <f t="shared" si="44"/>
+        <v>357.83972125435542</v>
+      </c>
+      <c r="P320" s="2">
+        <v>316</v>
+      </c>
+      <c r="Q320" s="6">
+        <f t="shared" si="45"/>
+        <v>104.66</v>
+      </c>
+      <c r="R320" s="6">
+        <f t="shared" si="37"/>
+        <v>0.65000000000000047</v>
+      </c>
+      <c r="S320" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q320),2)</f>
+        <v>11349.58</v>
+      </c>
+      <c r="T320" s="5">
+        <f t="shared" si="46"/>
+        <v>228991.6</v>
+      </c>
+      <c r="U320">
+        <f t="shared" si="47"/>
+        <v>0.92252743959411432</v>
+      </c>
+    </row>
+    <row r="321" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J321" s="2">
+        <v>317</v>
+      </c>
+      <c r="K321" s="1">
+        <f t="shared" si="36"/>
+        <v>64200</v>
+      </c>
+      <c r="L321" s="1">
+        <f>SUM($K$5:K321)</f>
+        <v>10334200</v>
+      </c>
+      <c r="M321" s="3">
+        <f t="shared" si="43"/>
+        <v>2.2369337979094075</v>
+      </c>
+      <c r="N321" s="4">
+        <f t="shared" si="44"/>
+        <v>360.07665505226481</v>
+      </c>
+      <c r="P321" s="2">
+        <v>317</v>
+      </c>
+      <c r="Q321" s="6">
+        <f t="shared" si="45"/>
+        <v>105.31</v>
+      </c>
+      <c r="R321" s="6">
+        <f t="shared" si="37"/>
+        <v>0.65200000000000047</v>
+      </c>
+      <c r="S321" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q321),2)</f>
+        <v>11454.89</v>
+      </c>
+      <c r="T321" s="5">
+        <f t="shared" si="46"/>
+        <v>231097.8</v>
+      </c>
+      <c r="U321">
+        <f t="shared" si="47"/>
+        <v>0.919771729618022</v>
+      </c>
+    </row>
+    <row r="322" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J322" s="2">
+        <v>318</v>
+      </c>
+      <c r="K322" s="1">
+        <f t="shared" si="36"/>
+        <v>64400</v>
+      </c>
+      <c r="L322" s="1">
+        <f>SUM($K$5:K322)</f>
+        <v>10398600</v>
+      </c>
+      <c r="M322" s="3">
+        <f t="shared" si="43"/>
+        <v>2.2439024390243905</v>
+      </c>
+      <c r="N322" s="4">
+        <f t="shared" si="44"/>
+        <v>362.32055749128921</v>
+      </c>
+      <c r="P322" s="2">
+        <v>318</v>
+      </c>
+      <c r="Q322" s="6">
+        <f t="shared" si="45"/>
+        <v>105.96</v>
+      </c>
+      <c r="R322" s="6">
+        <f t="shared" si="37"/>
+        <v>0.65400000000000047</v>
+      </c>
+      <c r="S322" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q322),2)</f>
+        <v>11560.85</v>
+      </c>
+      <c r="T322" s="5">
+        <f t="shared" si="46"/>
+        <v>233217</v>
+      </c>
+      <c r="U322">
+        <f t="shared" si="47"/>
+        <v>0.91701435496141093</v>
+      </c>
+    </row>
+    <row r="323" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J323" s="2">
+        <v>319</v>
+      </c>
+      <c r="K323" s="1">
+        <f t="shared" si="36"/>
+        <v>64600</v>
+      </c>
+      <c r="L323" s="1">
+        <f>SUM($K$5:K323)</f>
+        <v>10463200</v>
+      </c>
+      <c r="M323" s="3">
+        <f t="shared" si="43"/>
+        <v>2.250871080139373</v>
+      </c>
+      <c r="N323" s="4">
+        <f t="shared" si="44"/>
+        <v>364.57142857142856</v>
+      </c>
+      <c r="P323" s="2">
+        <v>319</v>
+      </c>
+      <c r="Q323" s="6">
+        <f t="shared" si="45"/>
+        <v>106.61</v>
+      </c>
+      <c r="R323" s="6">
+        <f t="shared" si="37"/>
+        <v>0.65600000000000047</v>
+      </c>
+      <c r="S323" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q323),2)</f>
+        <v>11667.46</v>
+      </c>
+      <c r="T323" s="5">
+        <f t="shared" si="46"/>
+        <v>235349.2</v>
+      </c>
+      <c r="U323">
+        <f t="shared" si="47"/>
+        <v>0.91425582183117504</v>
+      </c>
+    </row>
+    <row r="324" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J324" s="2">
+        <v>320</v>
+      </c>
+      <c r="K324" s="1">
+        <f t="shared" si="36"/>
+        <v>64800</v>
+      </c>
+      <c r="L324" s="1">
+        <f>SUM($K$5:K324)</f>
+        <v>10528000</v>
+      </c>
+      <c r="M324" s="3">
+        <f t="shared" si="43"/>
+        <v>2.2578397212543555</v>
+      </c>
+      <c r="N324" s="4">
+        <f t="shared" si="44"/>
+        <v>366.82926829268291</v>
+      </c>
+      <c r="P324" s="2">
+        <v>320</v>
+      </c>
+      <c r="Q324" s="6">
+        <f t="shared" si="45"/>
+        <v>107.26</v>
+      </c>
+      <c r="R324" s="6">
+        <f t="shared" si="37"/>
+        <v>0.65800000000000047</v>
+      </c>
+      <c r="S324" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q324),2)</f>
+        <v>11774.72</v>
+      </c>
+      <c r="T324" s="5">
+        <f t="shared" si="46"/>
+        <v>237494.39999999999</v>
+      </c>
+      <c r="U324">
+        <f t="shared" si="47"/>
+        <v>0.9114966186415685</v>
+      </c>
+    </row>
+    <row r="325" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J325" s="2">
+        <v>321</v>
+      </c>
+      <c r="K325" s="1">
+        <f t="shared" si="36"/>
+        <v>65000</v>
+      </c>
+      <c r="L325" s="1">
+        <f>SUM($K$5:K325)</f>
+        <v>10593000</v>
+      </c>
+      <c r="M325" s="3">
+        <f t="shared" si="43"/>
+        <v>2.264808362369338</v>
+      </c>
+      <c r="N325" s="4">
+        <f t="shared" si="44"/>
+        <v>369.09407665505228</v>
+      </c>
+      <c r="P325" s="2">
+        <v>321</v>
+      </c>
+      <c r="Q325" s="6">
+        <f t="shared" si="45"/>
+        <v>107.92</v>
+      </c>
+      <c r="R325" s="6">
+        <f t="shared" si="37"/>
+        <v>0.66000000000000048</v>
+      </c>
+      <c r="S325" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q325),2)</f>
+        <v>11882.64</v>
+      </c>
+      <c r="T325" s="5">
+        <f t="shared" si="46"/>
+        <v>239652.8</v>
+      </c>
+      <c r="U325">
+        <f t="shared" si="47"/>
+        <v>0.90882142905264063</v>
+      </c>
+    </row>
+    <row r="326" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J326" s="2">
+        <v>322</v>
+      </c>
+      <c r="K326" s="1">
+        <f t="shared" si="36"/>
+        <v>65200</v>
+      </c>
+      <c r="L326" s="1">
+        <f>SUM($K$5:K326)</f>
+        <v>10658200</v>
+      </c>
+      <c r="M326" s="3">
+        <f t="shared" si="43"/>
+        <v>2.2717770034843205</v>
+      </c>
+      <c r="N326" s="4">
+        <f t="shared" si="44"/>
+        <v>371.36585365853659</v>
+      </c>
+      <c r="P326" s="2">
+        <v>322</v>
+      </c>
+      <c r="Q326" s="6">
+        <f t="shared" si="45"/>
+        <v>108.58</v>
+      </c>
+      <c r="R326" s="6">
+        <f t="shared" si="37"/>
+        <v>0.66200000000000048</v>
+      </c>
+      <c r="S326" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q326),2)</f>
+        <v>11991.22</v>
+      </c>
+      <c r="T326" s="5">
+        <f t="shared" si="46"/>
+        <v>241824.4</v>
+      </c>
+      <c r="U326">
+        <f t="shared" si="47"/>
+        <v>0.90614422197445887</v>
+      </c>
+    </row>
+    <row r="327" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J327" s="2">
+        <v>323</v>
+      </c>
+      <c r="K327" s="1">
+        <f t="shared" ref="K327:K390" si="48">K326+200</f>
+        <v>65400</v>
+      </c>
+      <c r="L327" s="1">
+        <f>SUM($K$5:K327)</f>
+        <v>10723600</v>
+      </c>
+      <c r="M327" s="3">
+        <f t="shared" si="43"/>
+        <v>2.2787456445993031</v>
+      </c>
+      <c r="N327" s="4">
+        <f t="shared" si="44"/>
+        <v>373.64459930313586</v>
+      </c>
+      <c r="P327" s="2">
+        <v>323</v>
+      </c>
+      <c r="Q327" s="6">
+        <f t="shared" si="45"/>
+        <v>109.24</v>
+      </c>
+      <c r="R327" s="6">
+        <f t="shared" ref="R327:R390" si="49">R326+0.002</f>
+        <v>0.66400000000000048</v>
+      </c>
+      <c r="S327" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q327),2)</f>
+        <v>12100.46</v>
+      </c>
+      <c r="T327" s="5">
+        <f t="shared" si="46"/>
+        <v>244009.2</v>
+      </c>
+      <c r="U327">
+        <f t="shared" si="47"/>
+        <v>0.90346548983477981</v>
+      </c>
+    </row>
+    <row r="328" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J328" s="2">
+        <v>324</v>
+      </c>
+      <c r="K328" s="1">
+        <f t="shared" si="48"/>
+        <v>65600</v>
+      </c>
+      <c r="L328" s="1">
+        <f>SUM($K$5:K328)</f>
+        <v>10789200</v>
+      </c>
+      <c r="M328" s="3">
+        <f t="shared" si="43"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="N328" s="4">
+        <f t="shared" si="44"/>
+        <v>375.9303135888502</v>
+      </c>
+      <c r="P328" s="2">
+        <v>324</v>
+      </c>
+      <c r="Q328" s="6">
+        <f t="shared" si="45"/>
+        <v>109.9</v>
+      </c>
+      <c r="R328" s="6">
+        <f t="shared" si="49"/>
+        <v>0.66600000000000048</v>
+      </c>
+      <c r="S328" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q328),2)</f>
+        <v>12210.36</v>
+      </c>
+      <c r="T328" s="5">
+        <f t="shared" si="46"/>
+        <v>246207.2</v>
+      </c>
+      <c r="U328">
+        <f t="shared" si="47"/>
+        <v>0.90078570807985925</v>
+      </c>
+    </row>
+    <row r="329" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J329" s="2">
+        <v>325</v>
+      </c>
+      <c r="K329" s="1">
+        <f t="shared" si="48"/>
+        <v>65800</v>
+      </c>
+      <c r="L329" s="1">
+        <f>SUM($K$5:K329)</f>
+        <v>10855000</v>
+      </c>
+      <c r="M329" s="3">
+        <f t="shared" si="43"/>
+        <v>2.2926829268292681</v>
+      </c>
+      <c r="N329" s="4">
+        <f t="shared" si="44"/>
+        <v>378.22299651567943</v>
+      </c>
+      <c r="P329" s="2">
+        <v>325</v>
+      </c>
+      <c r="Q329" s="6">
+        <f t="shared" si="45"/>
+        <v>110.56</v>
+      </c>
+      <c r="R329" s="6">
+        <f t="shared" si="49"/>
+        <v>0.66800000000000048</v>
+      </c>
+      <c r="S329" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q329),2)</f>
+        <v>12320.92</v>
+      </c>
+      <c r="T329" s="5">
+        <f t="shared" si="46"/>
+        <v>248418.4</v>
+      </c>
+      <c r="U329">
+        <f t="shared" si="47"/>
+        <v>0.89810533566848672</v>
+      </c>
+    </row>
+    <row r="330" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J330" s="2">
+        <v>326</v>
+      </c>
+      <c r="K330" s="1">
+        <f t="shared" si="48"/>
+        <v>66000</v>
+      </c>
+      <c r="L330" s="1">
+        <f>SUM($K$5:K330)</f>
+        <v>10921000</v>
+      </c>
+      <c r="M330" s="3">
+        <f t="shared" si="43"/>
+        <v>2.2996515679442511</v>
+      </c>
+      <c r="N330" s="4">
+        <f t="shared" si="44"/>
+        <v>380.52264808362372</v>
+      </c>
+      <c r="P330" s="2">
+        <v>326</v>
+      </c>
+      <c r="Q330" s="6">
+        <f t="shared" si="45"/>
+        <v>111.23</v>
+      </c>
+      <c r="R330" s="6">
+        <f t="shared" si="49"/>
+        <v>0.67000000000000048</v>
+      </c>
+      <c r="S330" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q330),2)</f>
+        <v>12432.15</v>
+      </c>
+      <c r="T330" s="5">
+        <f t="shared" si="46"/>
+        <v>250643</v>
+      </c>
+      <c r="U330">
+        <f t="shared" si="47"/>
+        <v>0.89550532488736989</v>
+      </c>
+    </row>
+    <row r="331" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J331" s="2">
+        <v>327</v>
+      </c>
+      <c r="K331" s="1">
+        <f t="shared" si="48"/>
+        <v>66200</v>
+      </c>
+      <c r="L331" s="1">
+        <f>SUM($K$5:K331)</f>
+        <v>10987200</v>
+      </c>
+      <c r="M331" s="3">
+        <f t="shared" si="43"/>
+        <v>2.3066202090592336</v>
+      </c>
+      <c r="N331" s="4">
+        <f t="shared" si="44"/>
+        <v>382.82926829268291</v>
+      </c>
+      <c r="P331" s="2">
+        <v>327</v>
+      </c>
+      <c r="Q331" s="6">
+        <f t="shared" si="45"/>
+        <v>111.9</v>
+      </c>
+      <c r="R331" s="6">
+        <f t="shared" si="49"/>
+        <v>0.67200000000000049</v>
+      </c>
+      <c r="S331" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q331),2)</f>
+        <v>12544.05</v>
+      </c>
+      <c r="T331" s="5">
+        <f t="shared" si="46"/>
+        <v>252881</v>
+      </c>
+      <c r="U331">
+        <f t="shared" si="47"/>
+        <v>0.8929034523206314</v>
+      </c>
+    </row>
+    <row r="332" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J332" s="2">
+        <v>328</v>
+      </c>
+      <c r="K332" s="1">
+        <f t="shared" si="48"/>
+        <v>66400</v>
+      </c>
+      <c r="L332" s="1">
+        <f>SUM($K$5:K332)</f>
+        <v>11053600</v>
+      </c>
+      <c r="M332" s="3">
+        <f t="shared" si="43"/>
+        <v>2.3135888501742161</v>
+      </c>
+      <c r="N332" s="4">
+        <f t="shared" si="44"/>
+        <v>385.14285714285717</v>
+      </c>
+      <c r="P332" s="2">
+        <v>328</v>
+      </c>
+      <c r="Q332" s="6">
+        <f t="shared" si="45"/>
+        <v>112.57</v>
+      </c>
+      <c r="R332" s="6">
+        <f t="shared" si="49"/>
+        <v>0.67400000000000049</v>
+      </c>
+      <c r="S332" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q332),2)</f>
+        <v>12656.62</v>
+      </c>
+      <c r="T332" s="5">
+        <f t="shared" si="46"/>
+        <v>255132.4</v>
+      </c>
+      <c r="U332">
+        <f t="shared" si="47"/>
+        <v>0.89030018071741024</v>
+      </c>
+    </row>
+    <row r="333" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J333" s="2">
+        <v>329</v>
+      </c>
+      <c r="K333" s="1">
+        <f t="shared" si="48"/>
+        <v>66600</v>
+      </c>
+      <c r="L333" s="1">
+        <f>SUM($K$5:K333)</f>
+        <v>11120200</v>
+      </c>
+      <c r="M333" s="3">
+        <f t="shared" si="43"/>
+        <v>2.3205574912891986</v>
+      </c>
+      <c r="N333" s="4">
+        <f t="shared" si="44"/>
+        <v>387.46341463414632</v>
+      </c>
+      <c r="P333" s="2">
+        <v>329</v>
+      </c>
+      <c r="Q333" s="6">
+        <f t="shared" si="45"/>
+        <v>113.24</v>
+      </c>
+      <c r="R333" s="6">
+        <f t="shared" si="49"/>
+        <v>0.67600000000000049</v>
+      </c>
+      <c r="S333" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q333),2)</f>
+        <v>12769.86</v>
+      </c>
+      <c r="T333" s="5">
+        <f t="shared" si="46"/>
+        <v>257397.2</v>
+      </c>
+      <c r="U333">
+        <f t="shared" si="47"/>
+        <v>0.88769595707954663</v>
+      </c>
+    </row>
+    <row r="334" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J334" s="2">
+        <v>330</v>
+      </c>
+      <c r="K334" s="1">
+        <f t="shared" si="48"/>
+        <v>66800</v>
+      </c>
+      <c r="L334" s="1">
+        <f>SUM($K$5:K334)</f>
+        <v>11187000</v>
+      </c>
+      <c r="M334" s="3">
+        <f t="shared" si="43"/>
+        <v>2.3275261324041812</v>
+      </c>
+      <c r="N334" s="4">
+        <f t="shared" si="44"/>
+        <v>389.79094076655053</v>
+      </c>
+      <c r="P334" s="2">
+        <v>330</v>
+      </c>
+      <c r="Q334" s="6">
+        <f t="shared" si="45"/>
+        <v>113.91</v>
+      </c>
+      <c r="R334" s="6">
+        <f t="shared" si="49"/>
+        <v>0.67800000000000049</v>
+      </c>
+      <c r="S334" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q334),2)</f>
+        <v>12883.77</v>
+      </c>
+      <c r="T334" s="5">
+        <f t="shared" si="46"/>
+        <v>259675.4</v>
+      </c>
+      <c r="U334">
+        <f t="shared" si="47"/>
+        <v>0.88509121311342254</v>
+      </c>
+    </row>
+    <row r="335" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J335" s="2">
+        <v>331</v>
+      </c>
+      <c r="K335" s="1">
+        <f t="shared" si="48"/>
+        <v>67000</v>
+      </c>
+      <c r="L335" s="1">
+        <f>SUM($K$5:K335)</f>
+        <v>11254000</v>
+      </c>
+      <c r="M335" s="3">
+        <f t="shared" si="43"/>
+        <v>2.3344947735191637</v>
+      </c>
+      <c r="N335" s="4">
+        <f t="shared" si="44"/>
+        <v>392.1254355400697</v>
+      </c>
+      <c r="P335" s="2">
+        <v>331</v>
+      </c>
+      <c r="Q335" s="6">
+        <f t="shared" si="45"/>
+        <v>114.59</v>
+      </c>
+      <c r="R335" s="6">
+        <f t="shared" si="49"/>
+        <v>0.68000000000000049</v>
+      </c>
+      <c r="S335" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q335),2)</f>
+        <v>12998.36</v>
+      </c>
+      <c r="T335" s="5">
+        <f t="shared" si="46"/>
+        <v>261967.2</v>
+      </c>
+      <c r="U335">
+        <f t="shared" si="47"/>
+        <v>0.8825633849028508</v>
+      </c>
+    </row>
+    <row r="336" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J336" s="2">
+        <v>332</v>
+      </c>
+      <c r="K336" s="1">
+        <f t="shared" si="48"/>
+        <v>67200</v>
+      </c>
+      <c r="L336" s="1">
+        <f>SUM($K$5:K336)</f>
+        <v>11321200</v>
+      </c>
+      <c r="M336" s="3">
+        <f t="shared" si="43"/>
+        <v>2.3414634146341462</v>
+      </c>
+      <c r="N336" s="4">
+        <f t="shared" si="44"/>
+        <v>394.46689895470382</v>
+      </c>
+      <c r="P336" s="2">
+        <v>332</v>
+      </c>
+      <c r="Q336" s="6">
+        <f t="shared" si="45"/>
+        <v>115.27</v>
+      </c>
+      <c r="R336" s="6">
+        <f t="shared" si="49"/>
+        <v>0.68200000000000049</v>
+      </c>
+      <c r="S336" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q336),2)</f>
+        <v>13113.63</v>
+      </c>
+      <c r="T336" s="5">
+        <f t="shared" si="46"/>
+        <v>264272.59999999998</v>
+      </c>
+      <c r="U336">
+        <f t="shared" si="47"/>
+        <v>0.88003383629704968</v>
+      </c>
+    </row>
+    <row r="337" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J337" s="2">
+        <v>333</v>
+      </c>
+      <c r="K337" s="1">
+        <f t="shared" si="48"/>
+        <v>67400</v>
+      </c>
+      <c r="L337" s="1">
+        <f>SUM($K$5:K337)</f>
+        <v>11388600</v>
+      </c>
+      <c r="M337" s="3">
+        <f t="shared" si="43"/>
+        <v>2.3484320557491287</v>
+      </c>
+      <c r="N337" s="4">
+        <f t="shared" si="44"/>
+        <v>396.81533101045295</v>
+      </c>
+      <c r="P337" s="2">
+        <v>333</v>
+      </c>
+      <c r="Q337" s="6">
+        <f t="shared" si="45"/>
+        <v>115.95</v>
+      </c>
+      <c r="R337" s="6">
+        <f t="shared" si="49"/>
+        <v>0.6840000000000005</v>
+      </c>
+      <c r="S337" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q337),2)</f>
+        <v>13229.58</v>
+      </c>
+      <c r="T337" s="5">
+        <f t="shared" si="46"/>
+        <v>266591.59999999998</v>
+      </c>
+      <c r="U337">
+        <f t="shared" si="47"/>
+        <v>0.87750300258142544</v>
+      </c>
+    </row>
+    <row r="338" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J338" s="2">
+        <v>334</v>
+      </c>
+      <c r="K338" s="1">
+        <f t="shared" si="48"/>
+        <v>67600</v>
+      </c>
+      <c r="L338" s="1">
+        <f>SUM($K$5:K338)</f>
+        <v>11456200</v>
+      </c>
+      <c r="M338" s="3">
+        <f t="shared" si="43"/>
+        <v>2.3554006968641117</v>
+      </c>
+      <c r="N338" s="4">
+        <f t="shared" si="44"/>
+        <v>399.17073170731709</v>
+      </c>
+      <c r="P338" s="2">
+        <v>334</v>
+      </c>
+      <c r="Q338" s="6">
+        <f t="shared" si="45"/>
+        <v>116.63</v>
+      </c>
+      <c r="R338" s="6">
+        <f t="shared" si="49"/>
+        <v>0.6860000000000005</v>
+      </c>
+      <c r="S338" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q338),2)</f>
+        <v>13346.21</v>
+      </c>
+      <c r="T338" s="5">
+        <f t="shared" si="46"/>
+        <v>268924.2</v>
+      </c>
+      <c r="U338">
+        <f t="shared" si="47"/>
+        <v>0.87497130442220805</v>
+      </c>
+    </row>
+    <row r="339" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J339" s="2">
+        <v>335</v>
+      </c>
+      <c r="K339" s="1">
+        <f t="shared" si="48"/>
+        <v>67800</v>
+      </c>
+      <c r="L339" s="1">
+        <f>SUM($K$5:K339)</f>
+        <v>11524000</v>
+      </c>
+      <c r="M339" s="3">
+        <f t="shared" si="43"/>
+        <v>2.3623693379790942</v>
+      </c>
+      <c r="N339" s="4">
+        <f t="shared" si="44"/>
+        <v>401.53310104529618</v>
+      </c>
+      <c r="P339" s="2">
+        <v>335</v>
+      </c>
+      <c r="Q339" s="6">
+        <f t="shared" si="45"/>
+        <v>117.31</v>
+      </c>
+      <c r="R339" s="6">
+        <f t="shared" si="49"/>
+        <v>0.6880000000000005</v>
+      </c>
+      <c r="S339" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q339),2)</f>
+        <v>13463.52</v>
+      </c>
+      <c r="T339" s="5">
+        <f t="shared" si="46"/>
+        <v>271270.40000000002</v>
+      </c>
+      <c r="U339">
+        <f t="shared" si="47"/>
+        <v>0.87243914828044911</v>
+      </c>
+    </row>
+    <row r="340" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J340" s="2">
+        <v>336</v>
+      </c>
+      <c r="K340" s="1">
+        <f t="shared" si="48"/>
+        <v>68000</v>
+      </c>
+      <c r="L340" s="1">
+        <f>SUM($K$5:K340)</f>
+        <v>11592000</v>
+      </c>
+      <c r="M340" s="3">
+        <f t="shared" si="43"/>
+        <v>2.3693379790940767</v>
+      </c>
+      <c r="N340" s="4">
+        <f t="shared" si="44"/>
+        <v>403.90243902439022</v>
+      </c>
+      <c r="P340" s="2">
+        <v>336</v>
+      </c>
+      <c r="Q340" s="6">
+        <f t="shared" si="45"/>
+        <v>118</v>
+      </c>
+      <c r="R340" s="6">
+        <f t="shared" si="49"/>
+        <v>0.6900000000000005</v>
+      </c>
+      <c r="S340" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q340),2)</f>
+        <v>13581.52</v>
+      </c>
+      <c r="T340" s="5">
+        <f t="shared" si="46"/>
+        <v>273630.40000000002</v>
+      </c>
+      <c r="U340">
+        <f t="shared" si="47"/>
+        <v>0.86998065398952473</v>
+      </c>
+    </row>
+    <row r="341" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J341" s="2">
+        <v>337</v>
+      </c>
+      <c r="K341" s="1">
+        <f t="shared" si="48"/>
+        <v>68200</v>
+      </c>
+      <c r="L341" s="1">
+        <f>SUM($K$5:K341)</f>
+        <v>11660200</v>
+      </c>
+      <c r="M341" s="3">
+        <f t="shared" si="43"/>
+        <v>2.3763066202090593</v>
+      </c>
+      <c r="N341" s="4">
+        <f t="shared" si="44"/>
+        <v>406.27874564459933</v>
+      </c>
+      <c r="P341" s="2">
+        <v>337</v>
+      </c>
+      <c r="Q341" s="6">
+        <f t="shared" si="45"/>
+        <v>118.69</v>
+      </c>
+      <c r="R341" s="6">
+        <f t="shared" si="49"/>
+        <v>0.6920000000000005</v>
+      </c>
+      <c r="S341" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q341),2)</f>
+        <v>13700.21</v>
+      </c>
+      <c r="T341" s="5">
+        <f t="shared" si="46"/>
+        <v>276004.2</v>
+      </c>
+      <c r="U341">
+        <f t="shared" si="47"/>
+        <v>0.86752056789011311</v>
+      </c>
+    </row>
+    <row r="342" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J342" s="2">
+        <v>338</v>
+      </c>
+      <c r="K342" s="1">
+        <f t="shared" si="48"/>
+        <v>68400</v>
+      </c>
+      <c r="L342" s="1">
+        <f>SUM($K$5:K342)</f>
+        <v>11728600</v>
+      </c>
+      <c r="M342" s="3">
+        <f t="shared" si="43"/>
+        <v>2.3832752613240418</v>
+      </c>
+      <c r="N342" s="4">
+        <f t="shared" si="44"/>
+        <v>408.66202090592333</v>
+      </c>
+      <c r="P342" s="2">
+        <v>338</v>
+      </c>
+      <c r="Q342" s="6">
+        <f t="shared" si="45"/>
+        <v>119.38</v>
+      </c>
+      <c r="R342" s="6">
+        <f t="shared" si="49"/>
+        <v>0.69400000000000051</v>
+      </c>
+      <c r="S342" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q342),2)</f>
+        <v>13819.59</v>
+      </c>
+      <c r="T342" s="5">
+        <f t="shared" si="46"/>
+        <v>278391.8</v>
+      </c>
+      <c r="U342">
+        <f t="shared" si="47"/>
+        <v>0.86505929982224061</v>
+      </c>
+    </row>
+    <row r="343" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J343" s="2">
+        <v>339</v>
+      </c>
+      <c r="K343" s="1">
+        <f t="shared" si="48"/>
+        <v>68600</v>
+      </c>
+      <c r="L343" s="1">
+        <f>SUM($K$5:K343)</f>
+        <v>11797200</v>
+      </c>
+      <c r="M343" s="3">
+        <f t="shared" si="43"/>
+        <v>2.3902439024390243</v>
+      </c>
+      <c r="N343" s="4">
+        <f t="shared" si="44"/>
+        <v>411.05226480836239</v>
+      </c>
+      <c r="P343" s="2">
+        <v>339</v>
+      </c>
+      <c r="Q343" s="6">
+        <f t="shared" si="45"/>
+        <v>120.07</v>
+      </c>
+      <c r="R343" s="6">
+        <f t="shared" si="49"/>
+        <v>0.69600000000000051</v>
+      </c>
+      <c r="S343" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q343),2)</f>
+        <v>13939.66</v>
+      </c>
+      <c r="T343" s="5">
+        <f t="shared" si="46"/>
+        <v>280793.2</v>
+      </c>
+      <c r="U343">
+        <f t="shared" si="47"/>
+        <v>0.86259724603958277</v>
+      </c>
+    </row>
+    <row r="344" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J344" s="2">
+        <v>340</v>
+      </c>
+      <c r="K344" s="1">
+        <f t="shared" si="48"/>
+        <v>68800</v>
+      </c>
+      <c r="L344" s="1">
+        <f>SUM($K$5:K344)</f>
+        <v>11866000</v>
+      </c>
+      <c r="M344" s="3">
+        <f t="shared" si="43"/>
+        <v>2.3972125435540068</v>
+      </c>
+      <c r="N344" s="4">
+        <f t="shared" si="44"/>
+        <v>413.44947735191636</v>
+      </c>
+      <c r="P344" s="2">
+        <v>340</v>
+      </c>
+      <c r="Q344" s="6">
+        <f t="shared" si="45"/>
+        <v>120.76</v>
+      </c>
+      <c r="R344" s="6">
+        <f t="shared" si="49"/>
+        <v>0.69800000000000051</v>
+      </c>
+      <c r="S344" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q344),2)</f>
+        <v>14060.42</v>
+      </c>
+      <c r="T344" s="5">
+        <f t="shared" si="46"/>
+        <v>283208.40000000002</v>
+      </c>
+      <c r="U344">
+        <f t="shared" si="47"/>
+        <v>0.86013478958892575</v>
+      </c>
+    </row>
+    <row r="345" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J345" s="2">
+        <v>341</v>
+      </c>
+      <c r="K345" s="1">
+        <f t="shared" si="48"/>
+        <v>69000</v>
+      </c>
+      <c r="L345" s="1">
+        <f>SUM($K$5:K345)</f>
+        <v>11935000</v>
+      </c>
+      <c r="M345" s="3">
+        <f t="shared" si="43"/>
+        <v>2.4041811846689893</v>
+      </c>
+      <c r="N345" s="4">
+        <f t="shared" si="44"/>
+        <v>415.85365853658539</v>
+      </c>
+      <c r="P345" s="2">
+        <v>341</v>
+      </c>
+      <c r="Q345" s="6">
+        <f t="shared" si="45"/>
+        <v>121.46</v>
+      </c>
+      <c r="R345" s="6">
+        <f t="shared" si="49"/>
+        <v>0.70000000000000051</v>
+      </c>
+      <c r="S345" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q345),2)</f>
+        <v>14181.88</v>
+      </c>
+      <c r="T345" s="5">
+        <f t="shared" si="46"/>
+        <v>285637.59999999998</v>
+      </c>
+      <c r="U345">
+        <f t="shared" si="47"/>
+        <v>0.85774292005461472</v>
+      </c>
+    </row>
+    <row r="346" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J346" s="2">
+        <v>342</v>
+      </c>
+      <c r="K346" s="1">
+        <f t="shared" si="48"/>
+        <v>69200</v>
+      </c>
+      <c r="L346" s="1">
+        <f>SUM($K$5:K346)</f>
+        <v>12004200</v>
+      </c>
+      <c r="M346" s="3">
+        <f t="shared" si="43"/>
+        <v>2.4111498257839723</v>
+      </c>
+      <c r="N346" s="4">
+        <f t="shared" si="44"/>
+        <v>418.26480836236937</v>
+      </c>
+      <c r="P346" s="2">
+        <v>342</v>
+      </c>
+      <c r="Q346" s="6">
+        <f t="shared" si="45"/>
+        <v>122.16</v>
+      </c>
+      <c r="R346" s="6">
+        <f t="shared" si="49"/>
+        <v>0.70200000000000051</v>
+      </c>
+      <c r="S346" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q346),2)</f>
+        <v>14304.04</v>
+      </c>
+      <c r="T346" s="5">
+        <f t="shared" si="46"/>
+        <v>288080.8</v>
+      </c>
+      <c r="U346">
+        <f t="shared" si="47"/>
+        <v>0.85534957582615589</v>
+      </c>
+    </row>
+    <row r="347" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J347" s="2">
+        <v>343</v>
+      </c>
+      <c r="K347" s="1">
+        <f t="shared" si="48"/>
+        <v>69400</v>
+      </c>
+      <c r="L347" s="1">
+        <f>SUM($K$5:K347)</f>
+        <v>12073600</v>
+      </c>
+      <c r="M347" s="3">
+        <f t="shared" si="43"/>
+        <v>2.4181184668989548</v>
+      </c>
+      <c r="N347" s="4">
+        <f t="shared" si="44"/>
+        <v>420.6829268292683</v>
+      </c>
+      <c r="P347" s="2">
+        <v>343</v>
+      </c>
+      <c r="Q347" s="6">
+        <f t="shared" si="45"/>
+        <v>122.86</v>
+      </c>
+      <c r="R347" s="6">
+        <f t="shared" si="49"/>
+        <v>0.70400000000000051</v>
+      </c>
+      <c r="S347" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q347),2)</f>
+        <v>14426.9</v>
+      </c>
+      <c r="T347" s="5">
+        <f t="shared" si="46"/>
+        <v>290538</v>
+      </c>
+      <c r="U347">
+        <f t="shared" si="47"/>
+        <v>0.85295514314040077</v>
+      </c>
+    </row>
+    <row r="348" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J348" s="2">
+        <v>344</v>
+      </c>
+      <c r="K348" s="1">
+        <f t="shared" si="48"/>
+        <v>69600</v>
+      </c>
+      <c r="L348" s="1">
+        <f>SUM($K$5:K348)</f>
+        <v>12143200</v>
+      </c>
+      <c r="M348" s="3">
+        <f t="shared" si="43"/>
+        <v>2.4250871080139373</v>
+      </c>
+      <c r="N348" s="4">
+        <f t="shared" si="44"/>
+        <v>423.10801393728224</v>
+      </c>
+      <c r="P348" s="2">
+        <v>344</v>
+      </c>
+      <c r="Q348" s="6">
+        <f t="shared" si="45"/>
+        <v>123.56</v>
+      </c>
+      <c r="R348" s="6">
+        <f t="shared" si="49"/>
+        <v>0.70600000000000052</v>
+      </c>
+      <c r="S348" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q348),2)</f>
+        <v>14550.46</v>
+      </c>
+      <c r="T348" s="5">
+        <f t="shared" si="46"/>
+        <v>293009.2</v>
+      </c>
+      <c r="U348">
+        <f t="shared" si="47"/>
+        <v>0.85055999559438411</v>
+      </c>
+    </row>
+    <row r="349" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J349" s="2">
+        <v>345</v>
+      </c>
+      <c r="K349" s="1">
+        <f t="shared" si="48"/>
+        <v>69800</v>
+      </c>
+      <c r="L349" s="1">
+        <f>SUM($K$5:K349)</f>
+        <v>12213000</v>
+      </c>
+      <c r="M349" s="3">
+        <f t="shared" si="43"/>
+        <v>2.4320557491289199</v>
+      </c>
+      <c r="N349" s="4">
+        <f t="shared" si="44"/>
+        <v>425.54006968641113</v>
+      </c>
+      <c r="P349" s="2">
+        <v>345</v>
+      </c>
+      <c r="Q349" s="6">
+        <f t="shared" si="45"/>
+        <v>124.26</v>
+      </c>
+      <c r="R349" s="6">
+        <f t="shared" si="49"/>
+        <v>0.70800000000000052</v>
+      </c>
+      <c r="S349" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q349),2)</f>
+        <v>14674.72</v>
+      </c>
+      <c r="T349" s="5">
+        <f t="shared" si="46"/>
+        <v>295494.40000000002</v>
+      </c>
+      <c r="U349">
+        <f t="shared" si="47"/>
+        <v>0.84816449449369224</v>
+      </c>
+    </row>
+    <row r="350" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J350" s="2">
+        <v>346</v>
+      </c>
+      <c r="K350" s="1">
+        <f t="shared" si="48"/>
+        <v>70000</v>
+      </c>
+      <c r="L350" s="1">
+        <f>SUM($K$5:K350)</f>
+        <v>12283000</v>
+      </c>
+      <c r="M350" s="3">
+        <f t="shared" si="43"/>
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="N350" s="4">
+        <f t="shared" si="44"/>
+        <v>427.97909407665503</v>
+      </c>
+      <c r="P350" s="2">
+        <v>346</v>
+      </c>
+      <c r="Q350" s="6">
+        <f t="shared" si="45"/>
+        <v>124.97</v>
+      </c>
+      <c r="R350" s="6">
+        <f t="shared" si="49"/>
+        <v>0.71000000000000052</v>
+      </c>
+      <c r="S350" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q350),2)</f>
+        <v>14799.69</v>
+      </c>
+      <c r="T350" s="5">
+        <f t="shared" si="46"/>
+        <v>297993.8</v>
+      </c>
+      <c r="U350">
+        <f t="shared" si="47"/>
+        <v>0.84583667237009053</v>
+      </c>
+    </row>
+    <row r="351" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J351" s="2">
+        <v>347</v>
+      </c>
+      <c r="K351" s="1">
+        <f t="shared" si="48"/>
+        <v>70200</v>
+      </c>
+      <c r="L351" s="1">
+        <f>SUM($K$5:K351)</f>
+        <v>12353200</v>
+      </c>
+      <c r="M351" s="3">
+        <f t="shared" si="43"/>
+        <v>2.4459930313588849</v>
+      </c>
+      <c r="N351" s="4">
+        <f t="shared" si="44"/>
+        <v>430.42508710801394</v>
+      </c>
+      <c r="P351" s="2">
+        <v>347</v>
+      </c>
+      <c r="Q351" s="6">
+        <f t="shared" si="45"/>
+        <v>125.68</v>
+      </c>
+      <c r="R351" s="6">
+        <f t="shared" si="49"/>
+        <v>0.71200000000000052</v>
+      </c>
+      <c r="S351" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q351),2)</f>
+        <v>14925.37</v>
+      </c>
+      <c r="T351" s="5">
+        <f t="shared" si="46"/>
+        <v>300507.40000000002</v>
+      </c>
+      <c r="U351">
+        <f t="shared" si="47"/>
+        <v>0.84350748237045026</v>
+      </c>
+    </row>
+    <row r="352" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J352" s="2">
+        <v>348</v>
+      </c>
+      <c r="K352" s="1">
+        <f t="shared" si="48"/>
+        <v>70400</v>
+      </c>
+      <c r="L352" s="1">
+        <f>SUM($K$5:K352)</f>
+        <v>12423600</v>
+      </c>
+      <c r="M352" s="3">
+        <f t="shared" si="43"/>
+        <v>2.4529616724738674</v>
+      </c>
+      <c r="N352" s="4">
+        <f t="shared" si="44"/>
+        <v>432.8780487804878</v>
+      </c>
+      <c r="P352" s="2">
+        <v>348</v>
+      </c>
+      <c r="Q352" s="6">
+        <f t="shared" si="45"/>
+        <v>126.39</v>
+      </c>
+      <c r="R352" s="6">
+        <f t="shared" si="49"/>
+        <v>0.71400000000000052</v>
+      </c>
+      <c r="S352" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q352),2)</f>
+        <v>15051.76</v>
+      </c>
+      <c r="T352" s="5">
+        <f t="shared" si="46"/>
+        <v>303035.2</v>
+      </c>
+      <c r="U352">
+        <f t="shared" si="47"/>
+        <v>0.84117728881218501</v>
+      </c>
+    </row>
+    <row r="353" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J353" s="2">
+        <v>349</v>
+      </c>
+      <c r="K353" s="1">
+        <f t="shared" si="48"/>
+        <v>70600</v>
+      </c>
+      <c r="L353" s="1">
+        <f>SUM($K$5:K353)</f>
+        <v>12494200</v>
+      </c>
+      <c r="M353" s="3">
+        <f t="shared" si="43"/>
+        <v>2.4599303135888504</v>
+      </c>
+      <c r="N353" s="4">
+        <f t="shared" si="44"/>
+        <v>435.33797909407667</v>
+      </c>
+      <c r="P353" s="2">
+        <v>349</v>
+      </c>
+      <c r="Q353" s="6">
+        <f t="shared" si="45"/>
+        <v>127.1</v>
+      </c>
+      <c r="R353" s="6">
+        <f t="shared" si="49"/>
+        <v>0.71600000000000052</v>
+      </c>
+      <c r="S353" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q353),2)</f>
+        <v>15178.86</v>
+      </c>
+      <c r="T353" s="5">
+        <f t="shared" si="46"/>
+        <v>305577.2</v>
+      </c>
+      <c r="U353">
+        <f t="shared" si="47"/>
+        <v>0.83884644424146104</v>
+      </c>
+    </row>
+    <row r="354" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J354" s="2">
+        <v>350</v>
+      </c>
+      <c r="K354" s="1">
+        <f t="shared" si="48"/>
+        <v>70800</v>
+      </c>
+      <c r="L354" s="1">
+        <f>SUM($K$5:K354)</f>
+        <v>12565000</v>
+      </c>
+      <c r="M354" s="3">
+        <f t="shared" si="43"/>
+        <v>2.4668989547038329</v>
+      </c>
+      <c r="N354" s="4">
+        <f t="shared" si="44"/>
+        <v>437.80487804878049</v>
+      </c>
+      <c r="P354" s="2">
+        <v>350</v>
+      </c>
+      <c r="Q354" s="6">
+        <f t="shared" si="45"/>
+        <v>127.81</v>
+      </c>
+      <c r="R354" s="6">
+        <f t="shared" si="49"/>
+        <v>0.71800000000000053</v>
+      </c>
+      <c r="S354" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q354),2)</f>
+        <v>15306.67</v>
+      </c>
+      <c r="T354" s="5">
+        <f t="shared" si="46"/>
+        <v>308133.40000000002</v>
+      </c>
+      <c r="U354">
+        <f t="shared" si="47"/>
+        <v>0.83651528975329692</v>
+      </c>
+    </row>
+    <row r="355" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J355" s="2">
+        <v>351</v>
+      </c>
+      <c r="K355" s="1">
+        <f t="shared" si="48"/>
+        <v>71000</v>
+      </c>
+      <c r="L355" s="1">
+        <f>SUM($K$5:K355)</f>
+        <v>12636000</v>
+      </c>
+      <c r="M355" s="3">
+        <f t="shared" si="43"/>
+        <v>2.4738675958188154</v>
+      </c>
+      <c r="N355" s="4">
+        <f t="shared" si="44"/>
+        <v>440.27874564459933</v>
+      </c>
+      <c r="P355" s="2">
+        <v>351</v>
+      </c>
+      <c r="Q355" s="6">
+        <f t="shared" si="45"/>
+        <v>128.53</v>
+      </c>
+      <c r="R355" s="6">
+        <f t="shared" si="49"/>
+        <v>0.72000000000000053</v>
+      </c>
+      <c r="S355" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q355),2)</f>
+        <v>15435.2</v>
+      </c>
+      <c r="T355" s="5">
+        <f t="shared" si="46"/>
+        <v>310704</v>
+      </c>
+      <c r="U355">
+        <f t="shared" si="47"/>
+        <v>0.83424906225679407</v>
+      </c>
+    </row>
+    <row r="356" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J356" s="2">
+        <v>352</v>
+      </c>
+      <c r="K356" s="1">
+        <f t="shared" si="48"/>
+        <v>71200</v>
+      </c>
+      <c r="L356" s="1">
+        <f>SUM($K$5:K356)</f>
+        <v>12707200</v>
+      </c>
+      <c r="M356" s="3">
+        <f t="shared" si="43"/>
+        <v>2.480836236933798</v>
+      </c>
+      <c r="N356" s="4">
+        <f t="shared" si="44"/>
+        <v>442.75958188153311</v>
+      </c>
+      <c r="P356" s="2">
+        <v>352</v>
+      </c>
+      <c r="Q356" s="6">
+        <f t="shared" si="45"/>
+        <v>129.25</v>
+      </c>
+      <c r="R356" s="6">
+        <f t="shared" si="49"/>
+        <v>0.72200000000000053</v>
+      </c>
+      <c r="S356" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q356),2)</f>
+        <v>15564.45</v>
+      </c>
+      <c r="T356" s="5">
+        <f t="shared" si="46"/>
+        <v>313289</v>
+      </c>
+      <c r="U356">
+        <f t="shared" si="47"/>
+        <v>0.83198156444719096</v>
+      </c>
+    </row>
+    <row r="357" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J357" s="2">
+        <v>353</v>
+      </c>
+      <c r="K357" s="1">
+        <f t="shared" si="48"/>
+        <v>71400</v>
+      </c>
+      <c r="L357" s="1">
+        <f>SUM($K$5:K357)</f>
+        <v>12778600</v>
+      </c>
+      <c r="M357" s="3">
+        <f t="shared" si="43"/>
+        <v>2.4878048780487805</v>
+      </c>
+      <c r="N357" s="4">
+        <f t="shared" si="44"/>
+        <v>445.2473867595819</v>
+      </c>
+      <c r="P357" s="2">
+        <v>353</v>
+      </c>
+      <c r="Q357" s="6">
+        <f t="shared" si="45"/>
+        <v>129.97</v>
+      </c>
+      <c r="R357" s="6">
+        <f t="shared" si="49"/>
+        <v>0.72400000000000053</v>
+      </c>
+      <c r="S357" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q357),2)</f>
+        <v>15694.42</v>
+      </c>
+      <c r="T357" s="5">
+        <f t="shared" si="46"/>
+        <v>315888.40000000002</v>
+      </c>
+      <c r="U357">
+        <f t="shared" si="47"/>
+        <v>0.82971314026347032</v>
+      </c>
+    </row>
+    <row r="358" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J358" s="2">
+        <v>354</v>
+      </c>
+      <c r="K358" s="1">
+        <f t="shared" si="48"/>
+        <v>71600</v>
+      </c>
+      <c r="L358" s="1">
+        <f>SUM($K$5:K358)</f>
+        <v>12850200</v>
+      </c>
+      <c r="M358" s="3">
+        <f t="shared" si="43"/>
+        <v>2.494773519163763</v>
+      </c>
+      <c r="N358" s="4">
+        <f t="shared" si="44"/>
+        <v>447.74216027874564</v>
+      </c>
+      <c r="P358" s="2">
+        <v>354</v>
+      </c>
+      <c r="Q358" s="6">
+        <f t="shared" si="45"/>
+        <v>130.69</v>
+      </c>
+      <c r="R358" s="6">
+        <f t="shared" si="49"/>
+        <v>0.72600000000000053</v>
+      </c>
+      <c r="S358" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q358),2)</f>
+        <v>15825.11</v>
+      </c>
+      <c r="T358" s="5">
+        <f t="shared" si="46"/>
+        <v>318502.2</v>
+      </c>
+      <c r="U358">
+        <f t="shared" si="47"/>
+        <v>0.8274441226711674</v>
+      </c>
+    </row>
+    <row r="359" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J359" s="2">
+        <v>355</v>
+      </c>
+      <c r="K359" s="1">
+        <f t="shared" si="48"/>
+        <v>71800</v>
+      </c>
+      <c r="L359" s="1">
+        <f>SUM($K$5:K359)</f>
+        <v>12922000</v>
+      </c>
+      <c r="M359" s="3">
+        <f t="shared" si="43"/>
+        <v>2.5017421602787455</v>
+      </c>
+      <c r="N359" s="4">
+        <f t="shared" si="44"/>
+        <v>450.2439024390244</v>
+      </c>
+      <c r="P359" s="2">
+        <v>355</v>
+      </c>
+      <c r="Q359" s="6">
+        <f t="shared" si="45"/>
+        <v>131.41</v>
+      </c>
+      <c r="R359" s="6">
+        <f t="shared" si="49"/>
+        <v>0.72800000000000054</v>
+      </c>
+      <c r="S359" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q359),2)</f>
+        <v>15956.52</v>
+      </c>
+      <c r="T359" s="5">
+        <f t="shared" si="46"/>
+        <v>321130.40000000002</v>
+      </c>
+      <c r="U359">
+        <f t="shared" si="47"/>
+        <v>0.82517483395719449</v>
+      </c>
+    </row>
+    <row r="360" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J360" s="2">
+        <v>356</v>
+      </c>
+      <c r="K360" s="1">
+        <f t="shared" si="48"/>
+        <v>72000</v>
+      </c>
+      <c r="L360" s="1">
+        <f>SUM($K$5:K360)</f>
+        <v>12994000</v>
+      </c>
+      <c r="M360" s="3">
+        <f t="shared" si="43"/>
+        <v>2.508710801393728</v>
+      </c>
+      <c r="N360" s="4">
+        <f t="shared" si="44"/>
+        <v>452.7526132404181</v>
+      </c>
+      <c r="P360" s="2">
+        <v>356</v>
+      </c>
+      <c r="Q360" s="6">
+        <f t="shared" si="45"/>
+        <v>132.13999999999999</v>
+      </c>
+      <c r="R360" s="6">
+        <f t="shared" si="49"/>
+        <v>0.73000000000000054</v>
+      </c>
+      <c r="S360" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q360),2)</f>
+        <v>16088.66</v>
+      </c>
+      <c r="T360" s="5">
+        <f t="shared" si="46"/>
+        <v>323773.2</v>
+      </c>
+      <c r="U360">
+        <f t="shared" si="47"/>
+        <v>0.82296786601330429</v>
+      </c>
+    </row>
+    <row r="361" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J361" s="2">
+        <v>357</v>
+      </c>
+      <c r="K361" s="1">
+        <f t="shared" si="48"/>
+        <v>72200</v>
+      </c>
+      <c r="L361" s="1">
+        <f>SUM($K$5:K361)</f>
+        <v>13066200</v>
+      </c>
+      <c r="M361" s="3">
+        <f t="shared" si="43"/>
+        <v>2.515679442508711</v>
+      </c>
+      <c r="N361" s="4">
+        <f t="shared" si="44"/>
+        <v>455.26829268292681</v>
+      </c>
+      <c r="P361" s="2">
+        <v>357</v>
+      </c>
+      <c r="Q361" s="6">
+        <f t="shared" si="45"/>
+        <v>132.87</v>
+      </c>
+      <c r="R361" s="6">
+        <f t="shared" si="49"/>
+        <v>0.73200000000000054</v>
+      </c>
+      <c r="S361" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q361),2)</f>
+        <v>16221.53</v>
+      </c>
+      <c r="T361" s="5">
+        <f t="shared" si="46"/>
+        <v>326430.59999999998</v>
+      </c>
+      <c r="U361">
+        <f t="shared" si="47"/>
+        <v>0.82075971698706529</v>
+      </c>
+    </row>
+    <row r="362" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J362" s="2">
+        <v>358</v>
+      </c>
+      <c r="K362" s="1">
+        <f t="shared" si="48"/>
+        <v>72400</v>
+      </c>
+      <c r="L362" s="1">
+        <f>SUM($K$5:K362)</f>
+        <v>13138600</v>
+      </c>
+      <c r="M362" s="3">
+        <f t="shared" si="43"/>
+        <v>2.5226480836236935</v>
+      </c>
+      <c r="N362" s="4">
+        <f t="shared" si="44"/>
+        <v>457.79094076655053</v>
+      </c>
+      <c r="P362" s="2">
+        <v>358</v>
+      </c>
+      <c r="Q362" s="6">
+        <f t="shared" si="45"/>
+        <v>133.6</v>
+      </c>
+      <c r="R362" s="6">
+        <f t="shared" si="49"/>
+        <v>0.73400000000000054</v>
+      </c>
+      <c r="S362" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q362),2)</f>
+        <v>16355.13</v>
+      </c>
+      <c r="T362" s="5">
+        <f t="shared" si="46"/>
+        <v>329102.59999999998</v>
+      </c>
+      <c r="U362">
+        <f t="shared" si="47"/>
+        <v>0.81855071185115613</v>
+      </c>
+    </row>
+    <row r="363" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J363" s="2">
+        <v>359</v>
+      </c>
+      <c r="K363" s="1">
+        <f t="shared" si="48"/>
+        <v>72600</v>
+      </c>
+      <c r="L363" s="1">
+        <f>SUM($K$5:K363)</f>
+        <v>13211200</v>
+      </c>
+      <c r="M363" s="3">
+        <f t="shared" si="43"/>
+        <v>2.529616724738676</v>
+      </c>
+      <c r="N363" s="4">
+        <f t="shared" si="44"/>
+        <v>460.32055749128921</v>
+      </c>
+      <c r="P363" s="2">
+        <v>359</v>
+      </c>
+      <c r="Q363" s="6">
+        <f t="shared" si="45"/>
+        <v>134.33000000000001</v>
+      </c>
+      <c r="R363" s="6">
+        <f t="shared" si="49"/>
+        <v>0.73600000000000054</v>
+      </c>
+      <c r="S363" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q363),2)</f>
+        <v>16489.46</v>
+      </c>
+      <c r="T363" s="5">
+        <f t="shared" si="46"/>
+        <v>331789.2</v>
+      </c>
+      <c r="U363">
+        <f t="shared" si="47"/>
+        <v>0.8163411653387227</v>
+      </c>
+    </row>
+    <row r="364" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J364" s="2">
+        <v>360</v>
+      </c>
+      <c r="K364" s="1">
+        <f t="shared" si="48"/>
+        <v>72800</v>
+      </c>
+      <c r="L364" s="1">
+        <f>SUM($K$5:K364)</f>
+        <v>13284000</v>
+      </c>
+      <c r="M364" s="3">
+        <f t="shared" si="43"/>
+        <v>2.5365853658536586</v>
+      </c>
+      <c r="N364" s="4">
+        <f t="shared" si="44"/>
+        <v>462.85714285714283</v>
+      </c>
+      <c r="P364" s="2">
+        <v>360</v>
+      </c>
+      <c r="Q364" s="6">
+        <f t="shared" si="45"/>
+        <v>135.06</v>
+      </c>
+      <c r="R364" s="6">
+        <f t="shared" si="49"/>
+        <v>0.73800000000000054</v>
+      </c>
+      <c r="S364" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q364),2)</f>
+        <v>16624.52</v>
+      </c>
+      <c r="T364" s="5">
+        <f t="shared" si="46"/>
+        <v>334490.40000000002</v>
+      </c>
+      <c r="U364">
+        <f t="shared" si="47"/>
+        <v>0.81413138221497605</v>
+      </c>
+    </row>
+    <row r="365" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J365" s="2">
+        <v>361</v>
+      </c>
+      <c r="K365" s="1">
+        <f t="shared" si="48"/>
+        <v>73000</v>
+      </c>
+      <c r="L365" s="1">
+        <f>SUM($K$5:K365)</f>
+        <v>13357000</v>
+      </c>
+      <c r="M365" s="3">
+        <f t="shared" si="43"/>
+        <v>2.5435540069686411</v>
+      </c>
+      <c r="N365" s="4">
+        <f t="shared" si="44"/>
+        <v>465.40069686411152</v>
+      </c>
+      <c r="P365" s="2">
+        <v>361</v>
+      </c>
+      <c r="Q365" s="6">
+        <f t="shared" si="45"/>
+        <v>135.80000000000001</v>
+      </c>
+      <c r="R365" s="6">
+        <f t="shared" si="49"/>
+        <v>0.74000000000000055</v>
+      </c>
+      <c r="S365" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q365),2)</f>
+        <v>16760.32</v>
+      </c>
+      <c r="T365" s="5">
+        <f t="shared" si="46"/>
+        <v>337206.4</v>
+      </c>
+      <c r="U365">
+        <f t="shared" si="47"/>
+        <v>0.8119814499907918</v>
+      </c>
+    </row>
+    <row r="366" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J366" s="2">
+        <v>362</v>
+      </c>
+      <c r="K366" s="1">
+        <f t="shared" si="48"/>
+        <v>73200</v>
+      </c>
+      <c r="L366" s="1">
+        <f>SUM($K$5:K366)</f>
+        <v>13430200</v>
+      </c>
+      <c r="M366" s="3">
+        <f t="shared" si="43"/>
+        <v>2.5505226480836236</v>
+      </c>
+      <c r="N366" s="4">
+        <f t="shared" si="44"/>
+        <v>467.95121951219511</v>
+      </c>
+      <c r="P366" s="2">
+        <v>362</v>
+      </c>
+      <c r="Q366" s="6">
+        <f t="shared" si="45"/>
+        <v>136.54</v>
+      </c>
+      <c r="R366" s="6">
+        <f t="shared" si="49"/>
+        <v>0.74200000000000055</v>
+      </c>
+      <c r="S366" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q366),2)</f>
+        <v>16896.86</v>
+      </c>
+      <c r="T366" s="5">
+        <f t="shared" si="46"/>
+        <v>339937.2</v>
+      </c>
+      <c r="U366">
+        <f t="shared" si="47"/>
+        <v>0.80983041840249415</v>
+      </c>
+    </row>
+    <row r="367" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J367" s="2">
+        <v>363</v>
+      </c>
+      <c r="K367" s="1">
+        <f t="shared" si="48"/>
+        <v>73400</v>
+      </c>
+      <c r="L367" s="1">
+        <f>SUM($K$5:K367)</f>
+        <v>13503600</v>
+      </c>
+      <c r="M367" s="3">
+        <f t="shared" si="43"/>
+        <v>2.5574912891986061</v>
+      </c>
+      <c r="N367" s="4">
+        <f t="shared" si="44"/>
+        <v>470.5087108013937</v>
+      </c>
+      <c r="P367" s="2">
+        <v>363</v>
+      </c>
+      <c r="Q367" s="6">
+        <f t="shared" si="45"/>
+        <v>137.28</v>
+      </c>
+      <c r="R367" s="6">
+        <f t="shared" si="49"/>
+        <v>0.74400000000000055</v>
+      </c>
+      <c r="S367" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q367),2)</f>
+        <v>17034.14</v>
+      </c>
+      <c r="T367" s="5">
+        <f t="shared" si="46"/>
+        <v>342682.8</v>
+      </c>
+      <c r="U367">
+        <f t="shared" si="47"/>
+        <v>0.80767859475220027</v>
+      </c>
+    </row>
+    <row r="368" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J368" s="2">
+        <v>364</v>
+      </c>
+      <c r="K368" s="1">
+        <f t="shared" si="48"/>
+        <v>73600</v>
+      </c>
+      <c r="L368" s="1">
+        <f>SUM($K$5:K368)</f>
+        <v>13577200</v>
+      </c>
+      <c r="M368" s="3">
+        <f t="shared" si="43"/>
+        <v>2.5644599303135887</v>
+      </c>
+      <c r="N368" s="4">
+        <f t="shared" si="44"/>
+        <v>473.07317073170731</v>
+      </c>
+      <c r="P368" s="2">
+        <v>364</v>
+      </c>
+      <c r="Q368" s="6">
+        <f t="shared" si="45"/>
+        <v>138.02000000000001</v>
+      </c>
+      <c r="R368" s="6">
+        <f t="shared" si="49"/>
+        <v>0.74600000000000055</v>
+      </c>
+      <c r="S368" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q368),2)</f>
+        <v>17172.16</v>
+      </c>
+      <c r="T368" s="5">
+        <f t="shared" si="46"/>
+        <v>345443.2</v>
+      </c>
+      <c r="U368">
+        <f t="shared" si="47"/>
+        <v>0.80552627677841526</v>
+      </c>
+    </row>
+    <row r="369" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J369" s="2">
+        <v>365</v>
+      </c>
+      <c r="K369" s="1">
+        <f t="shared" si="48"/>
+        <v>73800</v>
+      </c>
+      <c r="L369" s="1">
+        <f>SUM($K$5:K369)</f>
+        <v>13651000</v>
+      </c>
+      <c r="M369" s="3">
+        <f t="shared" ref="M369:M404" si="50">K369/$H$94</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="N369" s="4">
+        <f t="shared" ref="N369:N404" si="51">L369/$H$94</f>
+        <v>475.64459930313586</v>
+      </c>
+      <c r="P369" s="2">
+        <v>365</v>
+      </c>
+      <c r="Q369" s="6">
+        <f t="shared" ref="Q369:Q404" si="52">ROUNDDOWN(Q368+R369,2)</f>
+        <v>138.76</v>
+      </c>
+      <c r="R369" s="6">
+        <f t="shared" si="49"/>
+        <v>0.74800000000000055</v>
+      </c>
+      <c r="S369" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q369),2)</f>
+        <v>17310.919999999998</v>
+      </c>
+      <c r="T369" s="5">
+        <f t="shared" ref="T369:T404" si="53">$T$3*(100+S369)/100</f>
+        <v>348218.4</v>
+      </c>
+      <c r="U369">
+        <f t="shared" ref="U369:U404" si="54">((T369-T368)/T368)*100</f>
+        <v>0.80337375290641455</v>
+      </c>
+    </row>
+    <row r="370" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J370" s="2">
+        <v>366</v>
+      </c>
+      <c r="K370" s="1">
+        <f t="shared" si="48"/>
+        <v>74000</v>
+      </c>
+      <c r="L370" s="1">
+        <f>SUM($K$5:K370)</f>
+        <v>13725000</v>
+      </c>
+      <c r="M370" s="3">
+        <f t="shared" si="50"/>
+        <v>2.5783972125435541</v>
+      </c>
+      <c r="N370" s="4">
+        <f t="shared" si="51"/>
+        <v>478.22299651567943</v>
+      </c>
+      <c r="P370" s="2">
+        <v>366</v>
+      </c>
+      <c r="Q370" s="6">
+        <f t="shared" si="52"/>
+        <v>139.51</v>
+      </c>
+      <c r="R370" s="6">
+        <f t="shared" si="49"/>
+        <v>0.75000000000000056</v>
+      </c>
+      <c r="S370" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q370),2)</f>
+        <v>17450.43</v>
+      </c>
+      <c r="T370" s="5">
+        <f t="shared" si="53"/>
+        <v>351008.6</v>
+      </c>
+      <c r="U370">
+        <f t="shared" si="54"/>
+        <v>0.80127873771172142</v>
+      </c>
+    </row>
+    <row r="371" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J371" s="2">
+        <v>367</v>
+      </c>
+      <c r="K371" s="1">
+        <f t="shared" si="48"/>
+        <v>74200</v>
+      </c>
+      <c r="L371" s="1">
+        <f>SUM($K$5:K371)</f>
+        <v>13799200</v>
+      </c>
+      <c r="M371" s="3">
+        <f t="shared" si="50"/>
+        <v>2.5853658536585367</v>
+      </c>
+      <c r="N371" s="4">
+        <f t="shared" si="51"/>
+        <v>480.808362369338</v>
+      </c>
+      <c r="P371" s="2">
+        <v>367</v>
+      </c>
+      <c r="Q371" s="6">
+        <f t="shared" si="52"/>
+        <v>140.26</v>
+      </c>
+      <c r="R371" s="6">
+        <f t="shared" si="49"/>
+        <v>0.75200000000000056</v>
+      </c>
+      <c r="S371" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q371),2)</f>
+        <v>17590.689999999999</v>
+      </c>
+      <c r="T371" s="5">
+        <f t="shared" si="53"/>
+        <v>353813.8</v>
+      </c>
+      <c r="U371">
+        <f t="shared" si="54"/>
+        <v>0.79918269808774245</v>
+      </c>
+    </row>
+    <row r="372" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J372" s="2">
+        <v>368</v>
+      </c>
+      <c r="K372" s="1">
+        <f t="shared" si="48"/>
+        <v>74400</v>
+      </c>
+      <c r="L372" s="1">
+        <f>SUM($K$5:K372)</f>
+        <v>13873600</v>
+      </c>
+      <c r="M372" s="3">
+        <f t="shared" si="50"/>
+        <v>2.5923344947735192</v>
+      </c>
+      <c r="N372" s="4">
+        <f t="shared" si="51"/>
+        <v>483.40069686411152</v>
+      </c>
+      <c r="P372" s="2">
+        <v>368</v>
+      </c>
+      <c r="Q372" s="6">
+        <f t="shared" si="52"/>
+        <v>141.01</v>
+      </c>
+      <c r="R372" s="6">
+        <f t="shared" si="49"/>
+        <v>0.75400000000000056</v>
+      </c>
+      <c r="S372" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q372),2)</f>
+        <v>17731.7</v>
+      </c>
+      <c r="T372" s="5">
+        <f t="shared" si="53"/>
+        <v>356634</v>
+      </c>
+      <c r="U372">
+        <f t="shared" si="54"/>
+        <v>0.79708592485652385</v>
+      </c>
+    </row>
+    <row r="373" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J373" s="2">
+        <v>369</v>
+      </c>
+      <c r="K373" s="1">
+        <f t="shared" si="48"/>
+        <v>74600</v>
+      </c>
+      <c r="L373" s="1">
+        <f>SUM($K$5:K373)</f>
+        <v>13948200</v>
+      </c>
+      <c r="M373" s="3">
+        <f t="shared" si="50"/>
+        <v>2.5993031358885017</v>
+      </c>
+      <c r="N373" s="4">
+        <f t="shared" si="51"/>
+        <v>486</v>
+      </c>
+      <c r="P373" s="2">
+        <v>369</v>
+      </c>
+      <c r="Q373" s="6">
+        <f t="shared" si="52"/>
+        <v>141.76</v>
+      </c>
+      <c r="R373" s="6">
+        <f t="shared" si="49"/>
+        <v>0.75600000000000056</v>
+      </c>
+      <c r="S373" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q373),2)</f>
+        <v>17873.46</v>
+      </c>
+      <c r="T373" s="5">
+        <f t="shared" si="53"/>
+        <v>359469.2</v>
+      </c>
+      <c r="U373">
+        <f t="shared" si="54"/>
+        <v>0.79498869989962029</v>
+      </c>
+    </row>
+    <row r="374" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J374" s="2">
+        <v>370</v>
+      </c>
+      <c r="K374" s="1">
+        <f t="shared" si="48"/>
+        <v>74800</v>
+      </c>
+      <c r="L374" s="1">
+        <f>SUM($K$5:K374)</f>
+        <v>14023000</v>
+      </c>
+      <c r="M374" s="3">
+        <f t="shared" si="50"/>
+        <v>2.6062717770034842</v>
+      </c>
+      <c r="N374" s="4">
+        <f t="shared" si="51"/>
+        <v>488.60627177700349</v>
+      </c>
+      <c r="P374" s="2">
+        <v>370</v>
+      </c>
+      <c r="Q374" s="6">
+        <f t="shared" si="52"/>
+        <v>142.51</v>
+      </c>
+      <c r="R374" s="6">
+        <f t="shared" si="49"/>
+        <v>0.75800000000000056</v>
+      </c>
+      <c r="S374" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q374),2)</f>
+        <v>18015.97</v>
+      </c>
+      <c r="T374" s="5">
+        <f t="shared" si="53"/>
+        <v>362319.4</v>
+      </c>
+      <c r="U374">
+        <f t="shared" si="54"/>
+        <v>0.79289129638923495</v>
+      </c>
+    </row>
+    <row r="375" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J375" s="2">
+        <v>371</v>
+      </c>
+      <c r="K375" s="1">
+        <f t="shared" si="48"/>
+        <v>75000</v>
+      </c>
+      <c r="L375" s="1">
+        <f>SUM($K$5:K375)</f>
+        <v>14098000</v>
+      </c>
+      <c r="M375" s="3">
+        <f t="shared" si="50"/>
+        <v>2.6132404181184667</v>
+      </c>
+      <c r="N375" s="4">
+        <f t="shared" si="51"/>
+        <v>491.21951219512198</v>
+      </c>
+      <c r="P375" s="2">
+        <v>371</v>
+      </c>
+      <c r="Q375" s="6">
+        <f t="shared" si="52"/>
+        <v>143.27000000000001</v>
+      </c>
+      <c r="R375" s="6">
+        <f t="shared" si="49"/>
+        <v>0.76000000000000056</v>
+      </c>
+      <c r="S375" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q375),2)</f>
+        <v>18159.240000000002</v>
+      </c>
+      <c r="T375" s="5">
+        <f t="shared" si="53"/>
+        <v>365184.8</v>
+      </c>
+      <c r="U375">
+        <f t="shared" si="54"/>
+        <v>0.79084917892885809</v>
+      </c>
+    </row>
+    <row r="376" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J376" s="2">
+        <v>372</v>
+      </c>
+      <c r="K376" s="1">
+        <f t="shared" si="48"/>
+        <v>75200</v>
+      </c>
+      <c r="L376" s="1">
+        <f>SUM($K$5:K376)</f>
+        <v>14173200</v>
+      </c>
+      <c r="M376" s="3">
+        <f t="shared" si="50"/>
+        <v>2.6202090592334493</v>
+      </c>
+      <c r="N376" s="4">
+        <f t="shared" si="51"/>
+        <v>493.83972125435542</v>
+      </c>
+      <c r="P376" s="2">
+        <v>372</v>
+      </c>
+      <c r="Q376" s="6">
+        <f t="shared" si="52"/>
+        <v>144.03</v>
+      </c>
+      <c r="R376" s="6">
+        <f t="shared" si="49"/>
+        <v>0.76200000000000057</v>
+      </c>
+      <c r="S376" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q376),2)</f>
+        <v>18303.27</v>
+      </c>
+      <c r="T376" s="5">
+        <f t="shared" si="53"/>
+        <v>368065.4</v>
+      </c>
+      <c r="U376">
+        <f t="shared" si="54"/>
+        <v>0.78880610584012123</v>
+      </c>
+    </row>
+    <row r="377" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J377" s="2">
+        <v>373</v>
+      </c>
+      <c r="K377" s="1">
+        <f t="shared" si="48"/>
+        <v>75400</v>
+      </c>
+      <c r="L377" s="1">
+        <f>SUM($K$5:K377)</f>
+        <v>14248600</v>
+      </c>
+      <c r="M377" s="3">
+        <f t="shared" si="50"/>
+        <v>2.6271777003484322</v>
+      </c>
+      <c r="N377" s="4">
+        <f t="shared" si="51"/>
+        <v>496.46689895470382</v>
+      </c>
+      <c r="P377" s="2">
+        <v>373</v>
+      </c>
+      <c r="Q377" s="6">
+        <f t="shared" si="52"/>
+        <v>144.79</v>
+      </c>
+      <c r="R377" s="6">
+        <f t="shared" si="49"/>
+        <v>0.76400000000000057</v>
+      </c>
+      <c r="S377" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q377),2)</f>
+        <v>18448.060000000001</v>
+      </c>
+      <c r="T377" s="5">
+        <f t="shared" si="53"/>
+        <v>370961.2</v>
+      </c>
+      <c r="U377">
+        <f t="shared" si="54"/>
+        <v>0.78676235256016691</v>
+      </c>
+    </row>
+    <row r="378" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J378" s="2">
+        <v>374</v>
+      </c>
+      <c r="K378" s="1">
+        <f t="shared" si="48"/>
+        <v>75600</v>
+      </c>
+      <c r="L378" s="1">
+        <f>SUM($K$5:K378)</f>
+        <v>14324200</v>
+      </c>
+      <c r="M378" s="3">
+        <f t="shared" si="50"/>
+        <v>2.6341463414634148</v>
+      </c>
+      <c r="N378" s="4">
+        <f t="shared" si="51"/>
+        <v>499.10104529616723</v>
+      </c>
+      <c r="P378" s="2">
+        <v>374</v>
+      </c>
+      <c r="Q378" s="6">
+        <f t="shared" si="52"/>
+        <v>145.55000000000001</v>
+      </c>
+      <c r="R378" s="6">
+        <f t="shared" si="49"/>
+        <v>0.76600000000000057</v>
+      </c>
+      <c r="S378" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q378),2)</f>
+        <v>18593.61</v>
+      </c>
+      <c r="T378" s="5">
+        <f t="shared" si="53"/>
+        <v>373872.2</v>
+      </c>
+      <c r="U378">
+        <f t="shared" si="54"/>
+        <v>0.78471818616070899</v>
+      </c>
+    </row>
+    <row r="379" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J379" s="2">
+        <v>375</v>
+      </c>
+      <c r="K379" s="1">
+        <f t="shared" si="48"/>
+        <v>75800</v>
+      </c>
+      <c r="L379" s="1">
+        <f>SUM($K$5:K379)</f>
+        <v>14400000</v>
+      </c>
+      <c r="M379" s="3">
+        <f t="shared" si="50"/>
+        <v>2.6411149825783973</v>
+      </c>
+      <c r="N379" s="4">
+        <f t="shared" si="51"/>
+        <v>501.74216027874564</v>
+      </c>
+      <c r="P379" s="2">
+        <v>375</v>
+      </c>
+      <c r="Q379" s="6">
+        <f t="shared" si="52"/>
+        <v>146.31</v>
+      </c>
+      <c r="R379" s="6">
+        <f t="shared" si="49"/>
+        <v>0.76800000000000057</v>
+      </c>
+      <c r="S379" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q379),2)</f>
+        <v>18739.919999999998</v>
+      </c>
+      <c r="T379" s="5">
+        <f t="shared" si="53"/>
+        <v>376798.4</v>
+      </c>
+      <c r="U379">
+        <f t="shared" si="54"/>
+        <v>0.78267386556155061</v>
+      </c>
+    </row>
+    <row r="380" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J380" s="2">
+        <v>376</v>
+      </c>
+      <c r="K380" s="1">
+        <f t="shared" si="48"/>
+        <v>76000</v>
+      </c>
+      <c r="L380" s="1">
+        <f>SUM($K$5:K380)</f>
+        <v>14476000</v>
+      </c>
+      <c r="M380" s="3">
+        <f t="shared" si="50"/>
+        <v>2.6480836236933798</v>
+      </c>
+      <c r="N380" s="4">
+        <f t="shared" si="51"/>
+        <v>504.39024390243901</v>
+      </c>
+      <c r="P380" s="2">
+        <v>376</v>
+      </c>
+      <c r="Q380" s="6">
+        <f t="shared" si="52"/>
+        <v>147.08000000000001</v>
+      </c>
+      <c r="R380" s="6">
+        <f t="shared" si="49"/>
+        <v>0.77000000000000057</v>
+      </c>
+      <c r="S380" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q380),2)</f>
+        <v>18887</v>
+      </c>
+      <c r="T380" s="5">
+        <f t="shared" si="53"/>
+        <v>379740</v>
+      </c>
+      <c r="U380">
+        <f t="shared" si="54"/>
+        <v>0.78068272052109999</v>
+      </c>
+    </row>
+    <row r="381" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J381" s="2">
+        <v>377</v>
+      </c>
+      <c r="K381" s="1">
+        <f t="shared" si="48"/>
+        <v>76200</v>
+      </c>
+      <c r="L381" s="1">
+        <f>SUM($K$5:K381)</f>
+        <v>14552200</v>
+      </c>
+      <c r="M381" s="3">
+        <f t="shared" si="50"/>
+        <v>2.6550522648083623</v>
+      </c>
+      <c r="N381" s="4">
+        <f t="shared" si="51"/>
+        <v>507.04529616724739</v>
+      </c>
+      <c r="P381" s="2">
+        <v>377</v>
+      </c>
+      <c r="Q381" s="6">
+        <f t="shared" si="52"/>
+        <v>147.85</v>
+      </c>
+      <c r="R381" s="6">
+        <f t="shared" si="49"/>
+        <v>0.77200000000000057</v>
+      </c>
+      <c r="S381" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q381),2)</f>
+        <v>19034.849999999999</v>
+      </c>
+      <c r="T381" s="5">
+        <f t="shared" si="53"/>
+        <v>382697</v>
+      </c>
+      <c r="U381">
+        <f t="shared" si="54"/>
+        <v>0.7786906830989625</v>
+      </c>
+    </row>
+    <row r="382" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J382" s="2">
+        <v>378</v>
+      </c>
+      <c r="K382" s="1">
+        <f t="shared" si="48"/>
+        <v>76400</v>
+      </c>
+      <c r="L382" s="1">
+        <f>SUM($K$5:K382)</f>
+        <v>14628600</v>
+      </c>
+      <c r="M382" s="3">
+        <f t="shared" si="50"/>
+        <v>2.6620209059233448</v>
+      </c>
+      <c r="N382" s="4">
+        <f t="shared" si="51"/>
+        <v>509.70731707317071</v>
+      </c>
+      <c r="P382" s="2">
+        <v>378</v>
+      </c>
+      <c r="Q382" s="6">
+        <f t="shared" si="52"/>
+        <v>148.62</v>
+      </c>
+      <c r="R382" s="6">
+        <f t="shared" si="49"/>
+        <v>0.77400000000000058</v>
+      </c>
+      <c r="S382" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q382),2)</f>
+        <v>19183.47</v>
+      </c>
+      <c r="T382" s="5">
+        <f t="shared" si="53"/>
+        <v>385669.4</v>
+      </c>
+      <c r="U382">
+        <f t="shared" si="54"/>
+        <v>0.77669801435601094</v>
+      </c>
+    </row>
+    <row r="383" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J383" s="2">
+        <v>379</v>
+      </c>
+      <c r="K383" s="1">
+        <f t="shared" si="48"/>
+        <v>76600</v>
+      </c>
+      <c r="L383" s="1">
+        <f>SUM($K$5:K383)</f>
+        <v>14705200</v>
+      </c>
+      <c r="M383" s="3">
+        <f t="shared" si="50"/>
+        <v>2.6689895470383274</v>
+      </c>
+      <c r="N383" s="4">
+        <f t="shared" si="51"/>
+        <v>512.37630662020911</v>
+      </c>
+      <c r="P383" s="2">
+        <v>379</v>
+      </c>
+      <c r="Q383" s="6">
+        <f t="shared" si="52"/>
+        <v>149.38999999999999</v>
+      </c>
+      <c r="R383" s="6">
+        <f t="shared" si="49"/>
+        <v>0.77600000000000058</v>
+      </c>
+      <c r="S383" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q383),2)</f>
+        <v>19332.86</v>
+      </c>
+      <c r="T383" s="5">
+        <f t="shared" si="53"/>
+        <v>388657.2</v>
+      </c>
+      <c r="U383">
+        <f t="shared" si="54"/>
+        <v>0.77470496751880968</v>
+      </c>
+    </row>
+    <row r="384" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J384" s="2">
+        <v>380</v>
+      </c>
+      <c r="K384" s="1">
+        <f t="shared" si="48"/>
+        <v>76800</v>
+      </c>
+      <c r="L384" s="1">
+        <f>SUM($K$5:K384)</f>
+        <v>14782000</v>
+      </c>
+      <c r="M384" s="3">
+        <f t="shared" si="50"/>
+        <v>2.6759581881533103</v>
+      </c>
+      <c r="N384" s="4">
+        <f t="shared" si="51"/>
+        <v>515.05226480836234</v>
+      </c>
+      <c r="P384" s="2">
+        <v>380</v>
+      </c>
+      <c r="Q384" s="6">
+        <f t="shared" si="52"/>
+        <v>150.16</v>
+      </c>
+      <c r="R384" s="6">
+        <f t="shared" si="49"/>
+        <v>0.77800000000000058</v>
+      </c>
+      <c r="S384" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q384),2)</f>
+        <v>19483.02</v>
+      </c>
+      <c r="T384" s="5">
+        <f t="shared" si="53"/>
+        <v>391660.4</v>
+      </c>
+      <c r="U384">
+        <f t="shared" si="54"/>
+        <v>0.77271178817734798</v>
+      </c>
+    </row>
+    <row r="385" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J385" s="2">
+        <v>381</v>
+      </c>
+      <c r="K385" s="1">
+        <f t="shared" si="48"/>
+        <v>77000</v>
+      </c>
+      <c r="L385" s="1">
+        <f>SUM($K$5:K385)</f>
+        <v>14859000</v>
+      </c>
+      <c r="M385" s="3">
+        <f t="shared" si="50"/>
+        <v>2.6829268292682928</v>
+      </c>
+      <c r="N385" s="4">
+        <f t="shared" si="51"/>
+        <v>517.73519163763069</v>
+      </c>
+      <c r="P385" s="2">
+        <v>381</v>
+      </c>
+      <c r="Q385" s="6">
+        <f t="shared" si="52"/>
+        <v>150.94</v>
+      </c>
+      <c r="R385" s="6">
+        <f t="shared" si="49"/>
+        <v>0.78000000000000058</v>
+      </c>
+      <c r="S385" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q385),2)</f>
+        <v>19633.96</v>
+      </c>
+      <c r="T385" s="5">
+        <f t="shared" si="53"/>
+        <v>394679.2</v>
+      </c>
+      <c r="U385">
+        <f t="shared" si="54"/>
+        <v>0.77076977912497358</v>
+      </c>
+    </row>
+    <row r="386" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J386" s="2">
+        <v>382</v>
+      </c>
+      <c r="K386" s="1">
+        <f t="shared" si="48"/>
+        <v>77200</v>
+      </c>
+      <c r="L386" s="1">
+        <f>SUM($K$5:K386)</f>
+        <v>14936200</v>
+      </c>
+      <c r="M386" s="3">
+        <f t="shared" si="50"/>
+        <v>2.6898954703832754</v>
+      </c>
+      <c r="N386" s="4">
+        <f t="shared" si="51"/>
+        <v>520.42508710801394</v>
+      </c>
+      <c r="P386" s="2">
+        <v>382</v>
+      </c>
+      <c r="Q386" s="6">
+        <f t="shared" si="52"/>
+        <v>151.72</v>
+      </c>
+      <c r="R386" s="6">
+        <f t="shared" si="49"/>
+        <v>0.78200000000000058</v>
+      </c>
+      <c r="S386" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q386),2)</f>
+        <v>19785.68</v>
+      </c>
+      <c r="T386" s="5">
+        <f t="shared" si="53"/>
+        <v>397713.6</v>
+      </c>
+      <c r="U386">
+        <f t="shared" si="54"/>
+        <v>0.76882693590135098</v>
+      </c>
+    </row>
+    <row r="387" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J387" s="2">
+        <v>383</v>
+      </c>
+      <c r="K387" s="1">
+        <f t="shared" si="48"/>
+        <v>77400</v>
+      </c>
+      <c r="L387" s="1">
+        <f>SUM($K$5:K387)</f>
+        <v>15013600</v>
+      </c>
+      <c r="M387" s="3">
+        <f t="shared" si="50"/>
+        <v>2.6968641114982579</v>
+      </c>
+      <c r="N387" s="4">
+        <f t="shared" si="51"/>
+        <v>523.1219512195122</v>
+      </c>
+      <c r="P387" s="2">
+        <v>383</v>
+      </c>
+      <c r="Q387" s="6">
+        <f t="shared" si="52"/>
+        <v>152.5</v>
+      </c>
+      <c r="R387" s="6">
+        <f t="shared" si="49"/>
+        <v>0.78400000000000059</v>
+      </c>
+      <c r="S387" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q387),2)</f>
+        <v>19938.18</v>
+      </c>
+      <c r="T387" s="5">
+        <f t="shared" si="53"/>
+        <v>400763.6</v>
+      </c>
+      <c r="U387">
+        <f t="shared" si="54"/>
+        <v>0.76688350612098766</v>
+      </c>
+    </row>
+    <row r="388" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J388" s="2">
+        <v>384</v>
+      </c>
+      <c r="K388" s="1">
+        <f t="shared" si="48"/>
+        <v>77600</v>
+      </c>
+      <c r="L388" s="1">
+        <f>SUM($K$5:K388)</f>
+        <v>15091200</v>
+      </c>
+      <c r="M388" s="3">
+        <f t="shared" si="50"/>
+        <v>2.7038327526132404</v>
+      </c>
+      <c r="N388" s="4">
+        <f t="shared" si="51"/>
+        <v>525.82578397212546</v>
+      </c>
+      <c r="P388" s="2">
+        <v>384</v>
+      </c>
+      <c r="Q388" s="6">
+        <f t="shared" si="52"/>
+        <v>153.28</v>
+      </c>
+      <c r="R388" s="6">
+        <f t="shared" si="49"/>
+        <v>0.78600000000000059</v>
+      </c>
+      <c r="S388" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q388),2)</f>
+        <v>20091.46</v>
+      </c>
+      <c r="T388" s="5">
+        <f t="shared" si="53"/>
+        <v>403829.2</v>
+      </c>
+      <c r="U388">
+        <f t="shared" si="54"/>
+        <v>0.76493973005533322</v>
+      </c>
+    </row>
+    <row r="389" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J389" s="2">
+        <v>385</v>
+      </c>
+      <c r="K389" s="1">
+        <f t="shared" si="48"/>
+        <v>77800</v>
+      </c>
+      <c r="L389" s="1">
+        <f>SUM($K$5:K389)</f>
+        <v>15169000</v>
+      </c>
+      <c r="M389" s="3">
+        <f t="shared" si="50"/>
+        <v>2.7108013937282229</v>
+      </c>
+      <c r="N389" s="4">
+        <f t="shared" si="51"/>
+        <v>528.53658536585363</v>
+      </c>
+      <c r="P389" s="2">
+        <v>385</v>
+      </c>
+      <c r="Q389" s="6">
+        <f t="shared" si="52"/>
+        <v>154.06</v>
+      </c>
+      <c r="R389" s="6">
+        <f t="shared" si="49"/>
+        <v>0.78800000000000059</v>
+      </c>
+      <c r="S389" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q389),2)</f>
+        <v>20245.52</v>
+      </c>
+      <c r="T389" s="5">
+        <f t="shared" si="53"/>
+        <v>406910.4</v>
+      </c>
+      <c r="U389">
+        <f t="shared" si="54"/>
+        <v>0.76299584081587257</v>
+      </c>
+    </row>
+    <row r="390" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J390" s="2">
+        <v>386</v>
+      </c>
+      <c r="K390" s="1">
+        <f t="shared" si="48"/>
+        <v>78000</v>
+      </c>
+      <c r="L390" s="1">
+        <f>SUM($K$5:K390)</f>
+        <v>15247000</v>
+      </c>
+      <c r="M390" s="3">
+        <f t="shared" si="50"/>
+        <v>2.7177700348432055</v>
+      </c>
+      <c r="N390" s="4">
+        <f t="shared" si="51"/>
+        <v>531.25435540069691</v>
+      </c>
+      <c r="P390" s="2">
+        <v>386</v>
+      </c>
+      <c r="Q390" s="6">
+        <f t="shared" si="52"/>
+        <v>154.85</v>
+      </c>
+      <c r="R390" s="6">
+        <f t="shared" si="49"/>
+        <v>0.79000000000000059</v>
+      </c>
+      <c r="S390" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q390),2)</f>
+        <v>20400.37</v>
+      </c>
+      <c r="T390" s="5">
+        <f t="shared" si="53"/>
+        <v>410007.4</v>
+      </c>
+      <c r="U390">
+        <f t="shared" si="54"/>
+        <v>0.76110121540270281</v>
+      </c>
+    </row>
+    <row r="391" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J391" s="2">
+        <v>387</v>
+      </c>
+      <c r="K391" s="1">
+        <f t="shared" ref="K391:K404" si="55">K390+200</f>
+        <v>78200</v>
+      </c>
+      <c r="L391" s="1">
+        <f>SUM($K$5:K391)</f>
+        <v>15325200</v>
+      </c>
+      <c r="M391" s="3">
+        <f t="shared" si="50"/>
+        <v>2.724738675958188</v>
+      </c>
+      <c r="N391" s="4">
+        <f t="shared" si="51"/>
+        <v>533.97909407665509</v>
+      </c>
+      <c r="P391" s="2">
+        <v>387</v>
+      </c>
+      <c r="Q391" s="6">
+        <f t="shared" si="52"/>
+        <v>155.63999999999999</v>
+      </c>
+      <c r="R391" s="6">
+        <f t="shared" ref="R391:R404" si="56">R390+0.002</f>
+        <v>0.79200000000000059</v>
+      </c>
+      <c r="S391" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q391),2)</f>
+        <v>20556.009999999998</v>
+      </c>
+      <c r="T391" s="5">
+        <f t="shared" si="53"/>
+        <v>413120.2</v>
+      </c>
+      <c r="U391">
+        <f t="shared" si="54"/>
+        <v>0.75920580945611915</v>
+      </c>
+    </row>
+    <row r="392" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J392" s="2">
+        <v>388</v>
+      </c>
+      <c r="K392" s="1">
+        <f t="shared" si="55"/>
+        <v>78400</v>
+      </c>
+      <c r="L392" s="1">
+        <f>SUM($K$5:K392)</f>
+        <v>15403600</v>
+      </c>
+      <c r="M392" s="3">
+        <f t="shared" si="50"/>
+        <v>2.7317073170731709</v>
+      </c>
+      <c r="N392" s="4">
+        <f t="shared" si="51"/>
+        <v>536.71080139372827</v>
+      </c>
+      <c r="P392" s="2">
+        <v>388</v>
+      </c>
+      <c r="Q392" s="6">
+        <f t="shared" si="52"/>
+        <v>156.43</v>
+      </c>
+      <c r="R392" s="6">
+        <f t="shared" si="56"/>
+        <v>0.79400000000000059</v>
+      </c>
+      <c r="S392" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q392),2)</f>
+        <v>20712.439999999999</v>
+      </c>
+      <c r="T392" s="5">
+        <f t="shared" si="53"/>
+        <v>416248.8</v>
+      </c>
+      <c r="U392">
+        <f t="shared" si="54"/>
+        <v>0.75730985800258055</v>
+      </c>
+    </row>
+    <row r="393" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J393" s="2">
+        <v>389</v>
+      </c>
+      <c r="K393" s="1">
+        <f t="shared" si="55"/>
+        <v>78600</v>
+      </c>
+      <c r="L393" s="1">
+        <f>SUM($K$5:K393)</f>
+        <v>15482200</v>
+      </c>
+      <c r="M393" s="3">
+        <f t="shared" si="50"/>
+        <v>2.7386759581881535</v>
+      </c>
+      <c r="N393" s="4">
+        <f t="shared" si="51"/>
+        <v>539.44947735191636</v>
+      </c>
+      <c r="P393" s="2">
+        <v>389</v>
+      </c>
+      <c r="Q393" s="6">
+        <f t="shared" si="52"/>
+        <v>157.22</v>
+      </c>
+      <c r="R393" s="6">
+        <f t="shared" si="56"/>
+        <v>0.7960000000000006</v>
+      </c>
+      <c r="S393" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q393),2)</f>
+        <v>20869.66</v>
+      </c>
+      <c r="T393" s="5">
+        <f t="shared" si="53"/>
+        <v>419393.2</v>
+      </c>
+      <c r="U393">
+        <f t="shared" si="54"/>
+        <v>0.75541358918032275</v>
+      </c>
+    </row>
+    <row r="394" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J394" s="2">
+        <v>390</v>
+      </c>
+      <c r="K394" s="1">
+        <f t="shared" si="55"/>
+        <v>78800</v>
+      </c>
+      <c r="L394" s="1">
+        <f>SUM($K$5:K394)</f>
+        <v>15561000</v>
+      </c>
+      <c r="M394" s="3">
+        <f t="shared" si="50"/>
+        <v>2.745644599303136</v>
+      </c>
+      <c r="N394" s="4">
+        <f t="shared" si="51"/>
+        <v>542.19512195121956</v>
+      </c>
+      <c r="P394" s="2">
+        <v>390</v>
+      </c>
+      <c r="Q394" s="6">
+        <f t="shared" si="52"/>
+        <v>158.01</v>
+      </c>
+      <c r="R394" s="6">
+        <f t="shared" si="56"/>
+        <v>0.7980000000000006</v>
+      </c>
+      <c r="S394" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q394),2)</f>
+        <v>21027.67</v>
+      </c>
+      <c r="T394" s="5">
+        <f t="shared" si="53"/>
+        <v>422553.4</v>
+      </c>
+      <c r="U394">
+        <f t="shared" si="54"/>
+        <v>0.75351722440898217</v>
+      </c>
+    </row>
+    <row r="395" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J395" s="2">
+        <v>391</v>
+      </c>
+      <c r="K395" s="1">
+        <f t="shared" si="55"/>
+        <v>79000</v>
+      </c>
+      <c r="L395" s="1">
+        <f>SUM($K$5:K395)</f>
+        <v>15640000</v>
+      </c>
+      <c r="M395" s="3">
+        <f t="shared" si="50"/>
+        <v>2.7526132404181185</v>
+      </c>
+      <c r="N395" s="4">
+        <f t="shared" si="51"/>
+        <v>544.94773519163766</v>
+      </c>
+      <c r="P395" s="2">
+        <v>391</v>
+      </c>
+      <c r="Q395" s="6">
+        <f t="shared" si="52"/>
+        <v>158.81</v>
+      </c>
+      <c r="R395" s="6">
+        <f t="shared" si="56"/>
+        <v>0.8000000000000006</v>
+      </c>
+      <c r="S395" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q395),2)</f>
+        <v>21186.48</v>
+      </c>
+      <c r="T395" s="5">
+        <f t="shared" si="53"/>
+        <v>425729.6</v>
+      </c>
+      <c r="U395">
+        <f t="shared" si="54"/>
+        <v>0.75166830985147748</v>
+      </c>
+    </row>
+    <row r="396" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J396" s="2">
+        <v>392</v>
+      </c>
+      <c r="K396" s="1">
+        <f t="shared" si="55"/>
+        <v>79200</v>
+      </c>
+      <c r="L396" s="1">
+        <f>SUM($K$5:K396)</f>
+        <v>15719200</v>
+      </c>
+      <c r="M396" s="3">
+        <f t="shared" si="50"/>
+        <v>2.759581881533101</v>
+      </c>
+      <c r="N396" s="4">
+        <f t="shared" si="51"/>
+        <v>547.70731707317077</v>
+      </c>
+      <c r="P396" s="2">
+        <v>392</v>
+      </c>
+      <c r="Q396" s="6">
+        <f t="shared" si="52"/>
+        <v>159.61000000000001</v>
+      </c>
+      <c r="R396" s="6">
+        <f t="shared" si="56"/>
+        <v>0.8020000000000006</v>
+      </c>
+      <c r="S396" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q396),2)</f>
+        <v>21346.09</v>
+      </c>
+      <c r="T396" s="5">
+        <f t="shared" si="53"/>
+        <v>428921.8</v>
+      </c>
+      <c r="U396">
+        <f t="shared" si="54"/>
+        <v>0.7498186642413428</v>
+      </c>
+    </row>
+    <row r="397" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J397" s="2">
+        <v>393</v>
+      </c>
+      <c r="K397" s="1">
+        <f t="shared" si="55"/>
+        <v>79400</v>
+      </c>
+      <c r="L397" s="1">
+        <f>SUM($K$5:K397)</f>
+        <v>15798600</v>
+      </c>
+      <c r="M397" s="3">
+        <f t="shared" si="50"/>
+        <v>2.7665505226480835</v>
+      </c>
+      <c r="N397" s="4">
+        <f t="shared" si="51"/>
+        <v>550.47386759581877</v>
+      </c>
+      <c r="P397" s="2">
+        <v>393</v>
+      </c>
+      <c r="Q397" s="6">
+        <f t="shared" si="52"/>
+        <v>160.41</v>
+      </c>
+      <c r="R397" s="6">
+        <f t="shared" si="56"/>
+        <v>0.8040000000000006</v>
+      </c>
+      <c r="S397" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q397),2)</f>
+        <v>21506.5</v>
+      </c>
+      <c r="T397" s="5">
+        <f t="shared" si="53"/>
+        <v>432130</v>
+      </c>
+      <c r="U397">
+        <f t="shared" si="54"/>
+        <v>0.74796851081013171</v>
+      </c>
+    </row>
+    <row r="398" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J398" s="2">
+        <v>394</v>
+      </c>
+      <c r="K398" s="1">
+        <f t="shared" si="55"/>
+        <v>79600</v>
+      </c>
+      <c r="L398" s="1">
+        <f>SUM($K$5:K398)</f>
+        <v>15878200</v>
+      </c>
+      <c r="M398" s="3">
+        <f t="shared" si="50"/>
+        <v>2.7735191637630661</v>
+      </c>
+      <c r="N398" s="4">
+        <f t="shared" si="51"/>
+        <v>553.2473867595819</v>
+      </c>
+      <c r="P398" s="2">
+        <v>394</v>
+      </c>
+      <c r="Q398" s="6">
+        <f t="shared" si="52"/>
+        <v>161.21</v>
+      </c>
+      <c r="R398" s="6">
+        <f t="shared" si="56"/>
+        <v>0.8060000000000006</v>
+      </c>
+      <c r="S398" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q398),2)</f>
+        <v>21667.71</v>
+      </c>
+      <c r="T398" s="5">
+        <f t="shared" si="53"/>
+        <v>435354.2</v>
+      </c>
+      <c r="U398">
+        <f t="shared" si="54"/>
+        <v>0.74611806632263711</v>
+      </c>
+    </row>
+    <row r="399" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J399" s="2">
+        <v>395</v>
+      </c>
+      <c r="K399" s="1">
+        <f t="shared" si="55"/>
+        <v>79800</v>
+      </c>
+      <c r="L399" s="1">
+        <f>SUM($K$5:K399)</f>
+        <v>15958000</v>
+      </c>
+      <c r="M399" s="3">
+        <f t="shared" si="50"/>
+        <v>2.7804878048780486</v>
+      </c>
+      <c r="N399" s="4">
+        <f t="shared" si="51"/>
+        <v>556.02787456445992</v>
+      </c>
+      <c r="P399" s="2">
+        <v>395</v>
+      </c>
+      <c r="Q399" s="6">
+        <f t="shared" si="52"/>
+        <v>162.01</v>
+      </c>
+      <c r="R399" s="6">
+        <f t="shared" si="56"/>
+        <v>0.80800000000000061</v>
+      </c>
+      <c r="S399" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q399),2)</f>
+        <v>21829.72</v>
+      </c>
+      <c r="T399" s="5">
+        <f t="shared" si="53"/>
+        <v>438594.4</v>
+      </c>
+      <c r="U399">
+        <f t="shared" si="54"/>
+        <v>0.74426754123424366</v>
+      </c>
+    </row>
+    <row r="400" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J400" s="2">
+        <v>396</v>
+      </c>
+      <c r="K400" s="1">
+        <f t="shared" si="55"/>
+        <v>80000</v>
+      </c>
+      <c r="L400" s="1">
+        <f>SUM($K$5:K400)</f>
+        <v>16038000</v>
+      </c>
+      <c r="M400" s="3">
+        <f t="shared" si="50"/>
+        <v>2.7874564459930316</v>
+      </c>
+      <c r="N400" s="4">
+        <f t="shared" si="51"/>
+        <v>558.81533101045295</v>
+      </c>
+      <c r="P400" s="2">
+        <v>396</v>
+      </c>
+      <c r="Q400" s="6">
+        <f t="shared" si="52"/>
+        <v>162.82</v>
+      </c>
+      <c r="R400" s="6">
+        <f t="shared" si="56"/>
+        <v>0.81000000000000061</v>
+      </c>
+      <c r="S400" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q400),2)</f>
+        <v>21992.54</v>
+      </c>
+      <c r="T400" s="5">
+        <f t="shared" si="53"/>
+        <v>441850.8</v>
+      </c>
+      <c r="U400">
+        <f t="shared" si="54"/>
+        <v>0.7424627400623367</v>
+      </c>
+    </row>
+    <row r="401" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J401" s="2">
+        <v>397</v>
+      </c>
+      <c r="K401" s="1">
+        <f t="shared" si="55"/>
+        <v>80200</v>
+      </c>
+      <c r="L401" s="1">
+        <f>SUM($K$5:K401)</f>
+        <v>16118200</v>
+      </c>
+      <c r="M401" s="3">
+        <f t="shared" si="50"/>
+        <v>2.7944250871080141</v>
+      </c>
+      <c r="N401" s="4">
+        <f t="shared" si="51"/>
+        <v>561.60975609756099</v>
+      </c>
+      <c r="P401" s="2">
+        <v>397</v>
+      </c>
+      <c r="Q401" s="6">
+        <f t="shared" si="52"/>
+        <v>163.63</v>
+      </c>
+      <c r="R401" s="6">
+        <f t="shared" si="56"/>
+        <v>0.81200000000000061</v>
+      </c>
+      <c r="S401" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q401),2)</f>
+        <v>22156.17</v>
+      </c>
+      <c r="T401" s="5">
+        <f t="shared" si="53"/>
+        <v>445123.4</v>
+      </c>
+      <c r="U401">
+        <f t="shared" si="54"/>
+        <v>0.74065725353445888</v>
+      </c>
+    </row>
+    <row r="402" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J402" s="2">
+        <v>398</v>
+      </c>
+      <c r="K402" s="1">
+        <f t="shared" si="55"/>
+        <v>80400</v>
+      </c>
+      <c r="L402" s="1">
+        <f>SUM($K$5:K402)</f>
+        <v>16198600</v>
+      </c>
+      <c r="M402" s="3">
+        <f t="shared" si="50"/>
+        <v>2.8013937282229966</v>
+      </c>
+      <c r="N402" s="4">
+        <f t="shared" si="51"/>
+        <v>564.41114982578392</v>
+      </c>
+      <c r="P402" s="2">
+        <v>398</v>
+      </c>
+      <c r="Q402" s="6">
+        <f t="shared" si="52"/>
+        <v>164.44</v>
+      </c>
+      <c r="R402" s="6">
+        <f t="shared" si="56"/>
+        <v>0.81400000000000061</v>
+      </c>
+      <c r="S402" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q402),2)</f>
+        <v>22320.61</v>
+      </c>
+      <c r="T402" s="5">
+        <f t="shared" si="53"/>
+        <v>448412.2</v>
+      </c>
+      <c r="U402">
+        <f t="shared" si="54"/>
+        <v>0.73885129382099168</v>
+      </c>
+    </row>
+    <row r="403" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J403" s="2">
+        <v>399</v>
+      </c>
+      <c r="K403" s="1">
+        <f t="shared" si="55"/>
+        <v>80600</v>
+      </c>
+      <c r="L403" s="1">
+        <f>SUM($K$5:K403)</f>
+        <v>16279200</v>
+      </c>
+      <c r="M403" s="3">
+        <f t="shared" si="50"/>
+        <v>2.8083623693379791</v>
+      </c>
+      <c r="N403" s="4">
+        <f t="shared" si="51"/>
+        <v>567.21951219512198</v>
+      </c>
+      <c r="P403" s="2">
+        <v>399</v>
+      </c>
+      <c r="Q403" s="6">
+        <f t="shared" si="52"/>
+        <v>165.25</v>
+      </c>
+      <c r="R403" s="6">
+        <f t="shared" si="56"/>
+        <v>0.81600000000000061</v>
+      </c>
+      <c r="S403" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q403),2)</f>
+        <v>22485.86</v>
+      </c>
+      <c r="T403" s="5">
+        <f t="shared" si="53"/>
+        <v>451717.2</v>
+      </c>
+      <c r="U403">
+        <f t="shared" si="54"/>
+        <v>0.73704506701646388</v>
+      </c>
+    </row>
+    <row r="404" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J404" s="2">
+        <v>400</v>
+      </c>
+      <c r="K404" s="1">
+        <f t="shared" si="55"/>
+        <v>80800</v>
+      </c>
+      <c r="L404" s="1">
+        <f>SUM($K$5:K404)</f>
+        <v>16360000</v>
+      </c>
+      <c r="M404" s="3">
+        <f t="shared" si="50"/>
+        <v>2.8153310104529616</v>
+      </c>
+      <c r="N404" s="4">
+        <f t="shared" si="51"/>
+        <v>570.03484320557493</v>
+      </c>
+      <c r="P404" s="2">
+        <v>400</v>
+      </c>
+      <c r="Q404" s="6">
+        <f t="shared" si="52"/>
+        <v>166.06</v>
+      </c>
+      <c r="R404" s="6">
+        <f t="shared" si="56"/>
+        <v>0.81800000000000062</v>
+      </c>
+      <c r="S404" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q404),2)</f>
+        <v>22651.919999999998</v>
+      </c>
+      <c r="T404" s="5">
+        <f t="shared" si="53"/>
+        <v>455038.4</v>
+      </c>
+      <c r="U404">
+        <f t="shared" si="54"/>
+        <v>0.73523877328558929</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TaegeukSimbeop.xlsx
+++ b/Assets/06.Table/TaegeukSimbeop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A8E65A-A0C1-4AAB-9BF6-025FBF3F8EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C92BC59-CB78-478C-8C1A-9307581F2D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -529,11 +529,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:E601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C414" sqref="C414"/>
+      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B596" sqref="B596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9711,7 +9711,7 @@
         <v>92400</v>
       </c>
       <c r="D459">
-        <f t="shared" ref="D459:D501" si="8">D458</f>
+        <f t="shared" ref="D459:D522" si="8">D458</f>
         <v>90</v>
       </c>
       <c r="E459">
@@ -10557,6 +10557,2006 @@
       <c r="E501">
         <f>(VLOOKUP(A501+1,Balance!P:S,4,FALSE)/100)</f>
         <v>437.12419999999997</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>9048</v>
+      </c>
+      <c r="C502" s="1">
+        <f>VLOOKUP(A502+1,Balance!J:K,2,FALSE)</f>
+        <v>101000</v>
+      </c>
+      <c r="D502">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E502">
+        <f>(VLOOKUP(A502+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>439.71</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>9048</v>
+      </c>
+      <c r="C503" s="1">
+        <f>VLOOKUP(A503+1,Balance!J:K,2,FALSE)</f>
+        <v>101200</v>
+      </c>
+      <c r="D503">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E503">
+        <f>(VLOOKUP(A503+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>442.30599999999998</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>9048</v>
+      </c>
+      <c r="C504" s="1">
+        <f>VLOOKUP(A504+1,Balance!J:K,2,FALSE)</f>
+        <v>101400</v>
+      </c>
+      <c r="D504">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E504">
+        <f>(VLOOKUP(A504+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>444.91219999999998</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>9048</v>
+      </c>
+      <c r="C505" s="1">
+        <f>VLOOKUP(A505+1,Balance!J:K,2,FALSE)</f>
+        <v>101600</v>
+      </c>
+      <c r="D505">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E505">
+        <f>(VLOOKUP(A505+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>447.52859999999998</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>9048</v>
+      </c>
+      <c r="C506" s="1">
+        <f>VLOOKUP(A506+1,Balance!J:K,2,FALSE)</f>
+        <v>101800</v>
+      </c>
+      <c r="D506">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E506">
+        <f>(VLOOKUP(A506+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>450.15519999999998</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>9048</v>
+      </c>
+      <c r="C507" s="1">
+        <f>VLOOKUP(A507+1,Balance!J:K,2,FALSE)</f>
+        <v>102000</v>
+      </c>
+      <c r="D507">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E507">
+        <f>(VLOOKUP(A507+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>452.7921</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>9048</v>
+      </c>
+      <c r="C508" s="1">
+        <f>VLOOKUP(A508+1,Balance!J:K,2,FALSE)</f>
+        <v>102200</v>
+      </c>
+      <c r="D508">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E508">
+        <f>(VLOOKUP(A508+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>455.4393</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>9048</v>
+      </c>
+      <c r="C509" s="1">
+        <f>VLOOKUP(A509+1,Balance!J:K,2,FALSE)</f>
+        <v>102400</v>
+      </c>
+      <c r="D509">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E509">
+        <f>(VLOOKUP(A509+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>458.09680000000003</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>9048</v>
+      </c>
+      <c r="C510" s="1">
+        <f>VLOOKUP(A510+1,Balance!J:K,2,FALSE)</f>
+        <v>102600</v>
+      </c>
+      <c r="D510">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E510">
+        <f>(VLOOKUP(A510+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>460.76459999999997</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>9048</v>
+      </c>
+      <c r="C511" s="1">
+        <f>VLOOKUP(A511+1,Balance!J:K,2,FALSE)</f>
+        <v>102800</v>
+      </c>
+      <c r="D511">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E511">
+        <f>(VLOOKUP(A511+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>463.44269999999995</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>9048</v>
+      </c>
+      <c r="C512" s="1">
+        <f>VLOOKUP(A512+1,Balance!J:K,2,FALSE)</f>
+        <v>103000</v>
+      </c>
+      <c r="D512">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E512">
+        <f>(VLOOKUP(A512+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>466.13120000000004</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>9048</v>
+      </c>
+      <c r="C513" s="1">
+        <f>VLOOKUP(A513+1,Balance!J:K,2,FALSE)</f>
+        <v>103200</v>
+      </c>
+      <c r="D513">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E513">
+        <f>(VLOOKUP(A513+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>468.83010000000002</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>9048</v>
+      </c>
+      <c r="C514" s="1">
+        <f>VLOOKUP(A514+1,Balance!J:K,2,FALSE)</f>
+        <v>103400</v>
+      </c>
+      <c r="D514">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E514">
+        <f>(VLOOKUP(A514+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>471.5394</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>9048</v>
+      </c>
+      <c r="C515" s="1">
+        <f>VLOOKUP(A515+1,Balance!J:K,2,FALSE)</f>
+        <v>103600</v>
+      </c>
+      <c r="D515">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E515">
+        <f>(VLOOKUP(A515+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>474.25910000000005</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>9048</v>
+      </c>
+      <c r="C516" s="1">
+        <f>VLOOKUP(A516+1,Balance!J:K,2,FALSE)</f>
+        <v>103800</v>
+      </c>
+      <c r="D516">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E516">
+        <f>(VLOOKUP(A516+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>476.98919999999998</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>9048</v>
+      </c>
+      <c r="C517" s="1">
+        <f>VLOOKUP(A517+1,Balance!J:K,2,FALSE)</f>
+        <v>104000</v>
+      </c>
+      <c r="D517">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E517">
+        <f>(VLOOKUP(A517+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>479.72980000000001</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>9048</v>
+      </c>
+      <c r="C518" s="1">
+        <f>VLOOKUP(A518+1,Balance!J:K,2,FALSE)</f>
+        <v>104200</v>
+      </c>
+      <c r="D518">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E518">
+        <f>(VLOOKUP(A518+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>482.48089999999996</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>9048</v>
+      </c>
+      <c r="C519" s="1">
+        <f>VLOOKUP(A519+1,Balance!J:K,2,FALSE)</f>
+        <v>104400</v>
+      </c>
+      <c r="D519">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E519">
+        <f>(VLOOKUP(A519+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>485.24250000000001</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>9048</v>
+      </c>
+      <c r="C520" s="1">
+        <f>VLOOKUP(A520+1,Balance!J:K,2,FALSE)</f>
+        <v>104600</v>
+      </c>
+      <c r="D520">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E520">
+        <f>(VLOOKUP(A520+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>488.01459999999997</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>9048</v>
+      </c>
+      <c r="C521" s="1">
+        <f>VLOOKUP(A521+1,Balance!J:K,2,FALSE)</f>
+        <v>104800</v>
+      </c>
+      <c r="D521">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E521">
+        <f>(VLOOKUP(A521+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>490.79720000000003</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>9048</v>
+      </c>
+      <c r="C522" s="1">
+        <f>VLOOKUP(A522+1,Balance!J:K,2,FALSE)</f>
+        <v>105000</v>
+      </c>
+      <c r="D522">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="E522">
+        <f>(VLOOKUP(A522+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>493.59039999999999</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>9048</v>
+      </c>
+      <c r="C523" s="1">
+        <f>VLOOKUP(A523+1,Balance!J:K,2,FALSE)</f>
+        <v>105200</v>
+      </c>
+      <c r="D523">
+        <f t="shared" ref="D523:D586" si="9">D522</f>
+        <v>90</v>
+      </c>
+      <c r="E523">
+        <f>(VLOOKUP(A523+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>496.39419999999996</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>9048</v>
+      </c>
+      <c r="C524" s="1">
+        <f>VLOOKUP(A524+1,Balance!J:K,2,FALSE)</f>
+        <v>105400</v>
+      </c>
+      <c r="D524">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E524">
+        <f>(VLOOKUP(A524+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>499.20859999999999</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>9048</v>
+      </c>
+      <c r="C525" s="1">
+        <f>VLOOKUP(A525+1,Balance!J:K,2,FALSE)</f>
+        <v>105600</v>
+      </c>
+      <c r="D525">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E525">
+        <f>(VLOOKUP(A525+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>502.03359999999998</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>9048</v>
+      </c>
+      <c r="C526" s="1">
+        <f>VLOOKUP(A526+1,Balance!J:K,2,FALSE)</f>
+        <v>105800</v>
+      </c>
+      <c r="D526">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E526">
+        <f>(VLOOKUP(A526+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>504.86919999999998</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>9048</v>
+      </c>
+      <c r="C527" s="1">
+        <f>VLOOKUP(A527+1,Balance!J:K,2,FALSE)</f>
+        <v>106000</v>
+      </c>
+      <c r="D527">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E527">
+        <f>(VLOOKUP(A527+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>507.71550000000002</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>9048</v>
+      </c>
+      <c r="C528" s="1">
+        <f>VLOOKUP(A528+1,Balance!J:K,2,FALSE)</f>
+        <v>106200</v>
+      </c>
+      <c r="D528">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E528">
+        <f>(VLOOKUP(A528+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>510.57249999999999</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>9048</v>
+      </c>
+      <c r="C529" s="1">
+        <f>VLOOKUP(A529+1,Balance!J:K,2,FALSE)</f>
+        <v>106400</v>
+      </c>
+      <c r="D529">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E529">
+        <f>(VLOOKUP(A529+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>513.4402</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>9048</v>
+      </c>
+      <c r="C530" s="1">
+        <f>VLOOKUP(A530+1,Balance!J:K,2,FALSE)</f>
+        <v>106600</v>
+      </c>
+      <c r="D530">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E530">
+        <f>(VLOOKUP(A530+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>516.31860000000006</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>9048</v>
+      </c>
+      <c r="C531" s="1">
+        <f>VLOOKUP(A531+1,Balance!J:K,2,FALSE)</f>
+        <v>106800</v>
+      </c>
+      <c r="D531">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E531">
+        <f>(VLOOKUP(A531+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>519.20769999999993</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>9048</v>
+      </c>
+      <c r="C532" s="1">
+        <f>VLOOKUP(A532+1,Balance!J:K,2,FALSE)</f>
+        <v>107000</v>
+      </c>
+      <c r="D532">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E532">
+        <f>(VLOOKUP(A532+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>522.10760000000005</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>9048</v>
+      </c>
+      <c r="C533" s="1">
+        <f>VLOOKUP(A533+1,Balance!J:K,2,FALSE)</f>
+        <v>107200</v>
+      </c>
+      <c r="D533">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E533">
+        <f>(VLOOKUP(A533+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>525.01830000000007</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>9048</v>
+      </c>
+      <c r="C534" s="1">
+        <f>VLOOKUP(A534+1,Balance!J:K,2,FALSE)</f>
+        <v>107400</v>
+      </c>
+      <c r="D534">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E534">
+        <f>(VLOOKUP(A534+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>527.93979999999999</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>9048</v>
+      </c>
+      <c r="C535" s="1">
+        <f>VLOOKUP(A535+1,Balance!J:K,2,FALSE)</f>
+        <v>107600</v>
+      </c>
+      <c r="D535">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E535">
+        <f>(VLOOKUP(A535+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>530.87210000000005</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>9048</v>
+      </c>
+      <c r="C536" s="1">
+        <f>VLOOKUP(A536+1,Balance!J:K,2,FALSE)</f>
+        <v>107800</v>
+      </c>
+      <c r="D536">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E536">
+        <f>(VLOOKUP(A536+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>533.8152</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>9048</v>
+      </c>
+      <c r="C537" s="1">
+        <f>VLOOKUP(A537+1,Balance!J:K,2,FALSE)</f>
+        <v>108000</v>
+      </c>
+      <c r="D537">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E537">
+        <f>(VLOOKUP(A537+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>536.76919999999996</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>9048</v>
+      </c>
+      <c r="C538" s="1">
+        <f>VLOOKUP(A538+1,Balance!J:K,2,FALSE)</f>
+        <v>108200</v>
+      </c>
+      <c r="D538">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E538">
+        <f>(VLOOKUP(A538+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>539.73410000000001</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>9048</v>
+      </c>
+      <c r="C539" s="1">
+        <f>VLOOKUP(A539+1,Balance!J:K,2,FALSE)</f>
+        <v>108400</v>
+      </c>
+      <c r="D539">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E539">
+        <f>(VLOOKUP(A539+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>542.70989999999995</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>9048</v>
+      </c>
+      <c r="C540" s="1">
+        <f>VLOOKUP(A540+1,Balance!J:K,2,FALSE)</f>
+        <v>108600</v>
+      </c>
+      <c r="D540">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E540">
+        <f>(VLOOKUP(A540+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>545.69659999999999</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>9048</v>
+      </c>
+      <c r="C541" s="1">
+        <f>VLOOKUP(A541+1,Balance!J:K,2,FALSE)</f>
+        <v>108800</v>
+      </c>
+      <c r="D541">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E541">
+        <f>(VLOOKUP(A541+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>548.69420000000002</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>9048</v>
+      </c>
+      <c r="C542" s="1">
+        <f>VLOOKUP(A542+1,Balance!J:K,2,FALSE)</f>
+        <v>109000</v>
+      </c>
+      <c r="D542">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E542">
+        <f>(VLOOKUP(A542+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>551.70280000000002</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>9048</v>
+      </c>
+      <c r="C543" s="1">
+        <f>VLOOKUP(A543+1,Balance!J:K,2,FALSE)</f>
+        <v>109200</v>
+      </c>
+      <c r="D543">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E543">
+        <f>(VLOOKUP(A543+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>554.72239999999999</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>9048</v>
+      </c>
+      <c r="C544" s="1">
+        <f>VLOOKUP(A544+1,Balance!J:K,2,FALSE)</f>
+        <v>109400</v>
+      </c>
+      <c r="D544">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E544">
+        <f>(VLOOKUP(A544+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>557.75300000000004</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>9048</v>
+      </c>
+      <c r="C545" s="1">
+        <f>VLOOKUP(A545+1,Balance!J:K,2,FALSE)</f>
+        <v>109600</v>
+      </c>
+      <c r="D545">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E545">
+        <f>(VLOOKUP(A545+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>560.79459999999995</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>9048</v>
+      </c>
+      <c r="C546" s="1">
+        <f>VLOOKUP(A546+1,Balance!J:K,2,FALSE)</f>
+        <v>109800</v>
+      </c>
+      <c r="D546">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E546">
+        <f>(VLOOKUP(A546+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>563.84720000000004</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>9048</v>
+      </c>
+      <c r="C547" s="1">
+        <f>VLOOKUP(A547+1,Balance!J:K,2,FALSE)</f>
+        <v>110000</v>
+      </c>
+      <c r="D547">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E547">
+        <f>(VLOOKUP(A547+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>566.91089999999997</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>9048</v>
+      </c>
+      <c r="C548" s="1">
+        <f>VLOOKUP(A548+1,Balance!J:K,2,FALSE)</f>
+        <v>110200</v>
+      </c>
+      <c r="D548">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E548">
+        <f>(VLOOKUP(A548+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>569.98569999999995</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>9048</v>
+      </c>
+      <c r="C549" s="1">
+        <f>VLOOKUP(A549+1,Balance!J:K,2,FALSE)</f>
+        <v>110400</v>
+      </c>
+      <c r="D549">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E549">
+        <f>(VLOOKUP(A549+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>573.07159999999999</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>9048</v>
+      </c>
+      <c r="C550" s="1">
+        <f>VLOOKUP(A550+1,Balance!J:K,2,FALSE)</f>
+        <v>110600</v>
+      </c>
+      <c r="D550">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E550">
+        <f>(VLOOKUP(A550+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>576.16859999999997</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>9048</v>
+      </c>
+      <c r="C551" s="1">
+        <f>VLOOKUP(A551+1,Balance!J:K,2,FALSE)</f>
+        <v>110800</v>
+      </c>
+      <c r="D551">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E551">
+        <f>(VLOOKUP(A551+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>579.27670000000001</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>9048</v>
+      </c>
+      <c r="C552" s="1">
+        <f>VLOOKUP(A552+1,Balance!J:K,2,FALSE)</f>
+        <v>111000</v>
+      </c>
+      <c r="D552">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E552">
+        <f>(VLOOKUP(A552+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>582.39599999999996</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>9048</v>
+      </c>
+      <c r="C553" s="1">
+        <f>VLOOKUP(A553+1,Balance!J:K,2,FALSE)</f>
+        <v>111200</v>
+      </c>
+      <c r="D553">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E553">
+        <f>(VLOOKUP(A553+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>585.52650000000006</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>9048</v>
+      </c>
+      <c r="C554" s="1">
+        <f>VLOOKUP(A554+1,Balance!J:K,2,FALSE)</f>
+        <v>111400</v>
+      </c>
+      <c r="D554">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E554">
+        <f>(VLOOKUP(A554+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>588.66819999999996</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>9048</v>
+      </c>
+      <c r="C555" s="1">
+        <f>VLOOKUP(A555+1,Balance!J:K,2,FALSE)</f>
+        <v>111600</v>
+      </c>
+      <c r="D555">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E555">
+        <f>(VLOOKUP(A555+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>591.8211</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <v>9048</v>
+      </c>
+      <c r="C556" s="1">
+        <f>VLOOKUP(A556+1,Balance!J:K,2,FALSE)</f>
+        <v>111800</v>
+      </c>
+      <c r="D556">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E556">
+        <f>(VLOOKUP(A556+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>594.98519999999996</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <v>9048</v>
+      </c>
+      <c r="C557" s="1">
+        <f>VLOOKUP(A557+1,Balance!J:K,2,FALSE)</f>
+        <v>112000</v>
+      </c>
+      <c r="D557">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E557">
+        <f>(VLOOKUP(A557+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>598.16059999999993</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <v>9048</v>
+      </c>
+      <c r="C558" s="1">
+        <f>VLOOKUP(A558+1,Balance!J:K,2,FALSE)</f>
+        <v>112200</v>
+      </c>
+      <c r="D558">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E558">
+        <f>(VLOOKUP(A558+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>601.34730000000002</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>9048</v>
+      </c>
+      <c r="C559" s="1">
+        <f>VLOOKUP(A559+1,Balance!J:K,2,FALSE)</f>
+        <v>112400</v>
+      </c>
+      <c r="D559">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E559">
+        <f>(VLOOKUP(A559+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>604.5453</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>9048</v>
+      </c>
+      <c r="C560" s="1">
+        <f>VLOOKUP(A560+1,Balance!J:K,2,FALSE)</f>
+        <v>112600</v>
+      </c>
+      <c r="D560">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E560">
+        <f>(VLOOKUP(A560+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>607.75459999999998</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>9048</v>
+      </c>
+      <c r="C561" s="1">
+        <f>VLOOKUP(A561+1,Balance!J:K,2,FALSE)</f>
+        <v>112800</v>
+      </c>
+      <c r="D561">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E561">
+        <f>(VLOOKUP(A561+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>610.97519999999997</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>9048</v>
+      </c>
+      <c r="C562" s="1">
+        <f>VLOOKUP(A562+1,Balance!J:K,2,FALSE)</f>
+        <v>113000</v>
+      </c>
+      <c r="D562">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E562">
+        <f>(VLOOKUP(A562+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>614.20720000000006</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>9048</v>
+      </c>
+      <c r="C563" s="1">
+        <f>VLOOKUP(A563+1,Balance!J:K,2,FALSE)</f>
+        <v>113200</v>
+      </c>
+      <c r="D563">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E563">
+        <f>(VLOOKUP(A563+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>617.45060000000001</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>9048</v>
+      </c>
+      <c r="C564" s="1">
+        <f>VLOOKUP(A564+1,Balance!J:K,2,FALSE)</f>
+        <v>113400</v>
+      </c>
+      <c r="D564">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E564">
+        <f>(VLOOKUP(A564+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>620.70540000000005</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>9048</v>
+      </c>
+      <c r="C565" s="1">
+        <f>VLOOKUP(A565+1,Balance!J:K,2,FALSE)</f>
+        <v>113600</v>
+      </c>
+      <c r="D565">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E565">
+        <f>(VLOOKUP(A565+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>623.97160000000008</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>9048</v>
+      </c>
+      <c r="C566" s="1">
+        <f>VLOOKUP(A566+1,Balance!J:K,2,FALSE)</f>
+        <v>113800</v>
+      </c>
+      <c r="D566">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E566">
+        <f>(VLOOKUP(A566+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>627.24919999999997</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>9048</v>
+      </c>
+      <c r="C567" s="1">
+        <f>VLOOKUP(A567+1,Balance!J:K,2,FALSE)</f>
+        <v>114000</v>
+      </c>
+      <c r="D567">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E567">
+        <f>(VLOOKUP(A567+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>630.53830000000005</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>9048</v>
+      </c>
+      <c r="C568" s="1">
+        <f>VLOOKUP(A568+1,Balance!J:K,2,FALSE)</f>
+        <v>114200</v>
+      </c>
+      <c r="D568">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E568">
+        <f>(VLOOKUP(A568+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>633.83889999999997</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>9048</v>
+      </c>
+      <c r="C569" s="1">
+        <f>VLOOKUP(A569+1,Balance!J:K,2,FALSE)</f>
+        <v>114400</v>
+      </c>
+      <c r="D569">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E569">
+        <f>(VLOOKUP(A569+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>637.15099999999995</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>9048</v>
+      </c>
+      <c r="C570" s="1">
+        <f>VLOOKUP(A570+1,Balance!J:K,2,FALSE)</f>
+        <v>114600</v>
+      </c>
+      <c r="D570">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E570">
+        <f>(VLOOKUP(A570+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>640.47460000000001</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>9048</v>
+      </c>
+      <c r="C571" s="1">
+        <f>VLOOKUP(A571+1,Balance!J:K,2,FALSE)</f>
+        <v>114800</v>
+      </c>
+      <c r="D571">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E571">
+        <f>(VLOOKUP(A571+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>643.80970000000002</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>9048</v>
+      </c>
+      <c r="C572" s="1">
+        <f>VLOOKUP(A572+1,Balance!J:K,2,FALSE)</f>
+        <v>115000</v>
+      </c>
+      <c r="D572">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E572">
+        <f>(VLOOKUP(A572+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>647.15639999999996</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>9048</v>
+      </c>
+      <c r="C573" s="1">
+        <f>VLOOKUP(A573+1,Balance!J:K,2,FALSE)</f>
+        <v>115200</v>
+      </c>
+      <c r="D573">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E573">
+        <f>(VLOOKUP(A573+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>650.51470000000006</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>9048</v>
+      </c>
+      <c r="C574" s="1">
+        <f>VLOOKUP(A574+1,Balance!J:K,2,FALSE)</f>
+        <v>115400</v>
+      </c>
+      <c r="D574">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E574">
+        <f>(VLOOKUP(A574+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>653.88459999999998</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>9048</v>
+      </c>
+      <c r="C575" s="1">
+        <f>VLOOKUP(A575+1,Balance!J:K,2,FALSE)</f>
+        <v>115600</v>
+      </c>
+      <c r="D575">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E575">
+        <f>(VLOOKUP(A575+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>657.26610000000005</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>9048</v>
+      </c>
+      <c r="C576" s="1">
+        <f>VLOOKUP(A576+1,Balance!J:K,2,FALSE)</f>
+        <v>115800</v>
+      </c>
+      <c r="D576">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E576">
+        <f>(VLOOKUP(A576+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>660.65919999999994</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>9048</v>
+      </c>
+      <c r="C577" s="1">
+        <f>VLOOKUP(A577+1,Balance!J:K,2,FALSE)</f>
+        <v>116000</v>
+      </c>
+      <c r="D577">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E577">
+        <f>(VLOOKUP(A577+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>664.06399999999996</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>9048</v>
+      </c>
+      <c r="C578" s="1">
+        <f>VLOOKUP(A578+1,Balance!J:K,2,FALSE)</f>
+        <v>116200</v>
+      </c>
+      <c r="D578">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E578">
+        <f>(VLOOKUP(A578+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>667.48050000000001</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>9048</v>
+      </c>
+      <c r="C579" s="1">
+        <f>VLOOKUP(A579+1,Balance!J:K,2,FALSE)</f>
+        <v>116400</v>
+      </c>
+      <c r="D579">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E579">
+        <f>(VLOOKUP(A579+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>670.90869999999995</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <v>9048</v>
+      </c>
+      <c r="C580" s="1">
+        <f>VLOOKUP(A580+1,Balance!J:K,2,FALSE)</f>
+        <v>116600</v>
+      </c>
+      <c r="D580">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E580">
+        <f>(VLOOKUP(A580+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>674.34860000000003</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <v>9048</v>
+      </c>
+      <c r="C581" s="1">
+        <f>VLOOKUP(A581+1,Balance!J:K,2,FALSE)</f>
+        <v>116800</v>
+      </c>
+      <c r="D581">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E581">
+        <f>(VLOOKUP(A581+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>677.80020000000002</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <v>9048</v>
+      </c>
+      <c r="C582" s="1">
+        <f>VLOOKUP(A582+1,Balance!J:K,2,FALSE)</f>
+        <v>117000</v>
+      </c>
+      <c r="D582">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E582">
+        <f>(VLOOKUP(A582+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>681.2636</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <v>9048</v>
+      </c>
+      <c r="C583" s="1">
+        <f>VLOOKUP(A583+1,Balance!J:K,2,FALSE)</f>
+        <v>117200</v>
+      </c>
+      <c r="D583">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E583">
+        <f>(VLOOKUP(A583+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>684.73880000000008</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <v>9048</v>
+      </c>
+      <c r="C584" s="1">
+        <f>VLOOKUP(A584+1,Balance!J:K,2,FALSE)</f>
+        <v>117400</v>
+      </c>
+      <c r="D584">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E584">
+        <f>(VLOOKUP(A584+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>688.22580000000005</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <v>9048</v>
+      </c>
+      <c r="C585" s="1">
+        <f>VLOOKUP(A585+1,Balance!J:K,2,FALSE)</f>
+        <v>117600</v>
+      </c>
+      <c r="D585">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E585">
+        <f>(VLOOKUP(A585+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>691.72460000000001</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>584</v>
+      </c>
+      <c r="B586">
+        <v>9048</v>
+      </c>
+      <c r="C586" s="1">
+        <f>VLOOKUP(A586+1,Balance!J:K,2,FALSE)</f>
+        <v>117800</v>
+      </c>
+      <c r="D586">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="E586">
+        <f>(VLOOKUP(A586+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>695.23520000000008</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <v>9048</v>
+      </c>
+      <c r="C587" s="1">
+        <f>VLOOKUP(A587+1,Balance!J:K,2,FALSE)</f>
+        <v>118000</v>
+      </c>
+      <c r="D587">
+        <f t="shared" ref="D587:D601" si="10">D586</f>
+        <v>90</v>
+      </c>
+      <c r="E587">
+        <f>(VLOOKUP(A587+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>698.7577</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <v>9048</v>
+      </c>
+      <c r="C588" s="1">
+        <f>VLOOKUP(A588+1,Balance!J:K,2,FALSE)</f>
+        <v>118200</v>
+      </c>
+      <c r="D588">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E588">
+        <f>(VLOOKUP(A588+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>702.29210000000012</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <v>9048</v>
+      </c>
+      <c r="C589" s="1">
+        <f>VLOOKUP(A589+1,Balance!J:K,2,FALSE)</f>
+        <v>118400</v>
+      </c>
+      <c r="D589">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E589">
+        <f>(VLOOKUP(A589+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>705.83839999999998</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <v>9048</v>
+      </c>
+      <c r="C590" s="1">
+        <f>VLOOKUP(A590+1,Balance!J:K,2,FALSE)</f>
+        <v>118600</v>
+      </c>
+      <c r="D590">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E590">
+        <f>(VLOOKUP(A590+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>709.39660000000003</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <v>9048</v>
+      </c>
+      <c r="C591" s="1">
+        <f>VLOOKUP(A591+1,Balance!J:K,2,FALSE)</f>
+        <v>118800</v>
+      </c>
+      <c r="D591">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E591">
+        <f>(VLOOKUP(A591+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>712.96669999999995</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <v>9048</v>
+      </c>
+      <c r="C592" s="1">
+        <f>VLOOKUP(A592+1,Balance!J:K,2,FALSE)</f>
+        <v>119000</v>
+      </c>
+      <c r="D592">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E592">
+        <f>(VLOOKUP(A592+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>716.54880000000003</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <v>9048</v>
+      </c>
+      <c r="C593" s="1">
+        <f>VLOOKUP(A593+1,Balance!J:K,2,FALSE)</f>
+        <v>119200</v>
+      </c>
+      <c r="D593">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E593">
+        <f>(VLOOKUP(A593+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>720.14289999999994</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <v>9048</v>
+      </c>
+      <c r="C594" s="1">
+        <f>VLOOKUP(A594+1,Balance!J:K,2,FALSE)</f>
+        <v>119400</v>
+      </c>
+      <c r="D594">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E594">
+        <f>(VLOOKUP(A594+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>723.74899999999991</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <v>9048</v>
+      </c>
+      <c r="C595" s="1">
+        <f>VLOOKUP(A595+1,Balance!J:K,2,FALSE)</f>
+        <v>119600</v>
+      </c>
+      <c r="D595">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E595">
+        <f>(VLOOKUP(A595+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>727.36710000000005</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <v>9048</v>
+      </c>
+      <c r="C596" s="1">
+        <f>VLOOKUP(A596+1,Balance!J:K,2,FALSE)</f>
+        <v>119800</v>
+      </c>
+      <c r="D596">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E596">
+        <f>(VLOOKUP(A596+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>730.99720000000002</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>9048</v>
+      </c>
+      <c r="C597" s="1">
+        <f>VLOOKUP(A597+1,Balance!J:K,2,FALSE)</f>
+        <v>120000</v>
+      </c>
+      <c r="D597">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E597">
+        <f>(VLOOKUP(A597+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>734.63940000000002</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>9048</v>
+      </c>
+      <c r="C598" s="1">
+        <f>VLOOKUP(A598+1,Balance!J:K,2,FALSE)</f>
+        <v>120200</v>
+      </c>
+      <c r="D598">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E598">
+        <f>(VLOOKUP(A598+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>738.29369999999994</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>9048</v>
+      </c>
+      <c r="C599" s="1">
+        <f>VLOOKUP(A599+1,Balance!J:K,2,FALSE)</f>
+        <v>120400</v>
+      </c>
+      <c r="D599">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E599">
+        <f>(VLOOKUP(A599+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>741.9600999999999</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>9048</v>
+      </c>
+      <c r="C600" s="1">
+        <f>VLOOKUP(A600+1,Balance!J:K,2,FALSE)</f>
+        <v>120600</v>
+      </c>
+      <c r="D600">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E600">
+        <f>(VLOOKUP(A600+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>745.6386</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>9048</v>
+      </c>
+      <c r="C601" s="1">
+        <f>VLOOKUP(A601+1,Balance!J:K,2,FALSE)</f>
+        <v>120800</v>
+      </c>
+      <c r="D601">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="E601">
+        <f>(VLOOKUP(A601+1,Balance!P:S,4,FALSE)/100)</f>
+        <v>749.32920000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10573,10 +12573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:U604"/>
+  <dimension ref="A1:U704"/>
   <sheetViews>
-    <sheetView topLeftCell="B564" workbookViewId="0">
-      <selection activeCell="K578" sqref="K578"/>
+    <sheetView topLeftCell="B675" workbookViewId="0">
+      <selection activeCell="R699" sqref="R699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -37137,7 +39137,7 @@
         <v>579</v>
       </c>
       <c r="K583" s="1">
-        <f t="shared" ref="K583:K604" si="76">K582+200</f>
+        <f t="shared" ref="K583:K646" si="76">K582+200</f>
         <v>116600</v>
       </c>
       <c r="L583" s="1">
@@ -37160,7 +39160,7 @@
         <v>343.99</v>
       </c>
       <c r="R583" s="6">
-        <f t="shared" ref="R583:R604" si="77">R582+0.002</f>
+        <f t="shared" ref="R583:R646" si="77">R582+0.002</f>
         <v>1.1760000000000008</v>
       </c>
       <c r="S583" s="5">
@@ -38098,6 +40098,4406 @@
       <c r="U604">
         <f t="shared" si="75"/>
         <v>0.49429536592401951</v>
+      </c>
+    </row>
+    <row r="605" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J605" s="2">
+        <v>601</v>
+      </c>
+      <c r="K605" s="1">
+        <f t="shared" si="76"/>
+        <v>121000</v>
+      </c>
+      <c r="L605" s="1">
+        <f>SUM($K$5:K605)</f>
+        <v>36661000</v>
+      </c>
+      <c r="M605" s="3">
+        <f t="shared" ref="M605:M668" si="78">K605/$H$94</f>
+        <v>4.2160278745644595</v>
+      </c>
+      <c r="N605" s="4">
+        <f t="shared" ref="N605:N668" si="79">L605/$H$94</f>
+        <v>1277.3867595818815</v>
+      </c>
+      <c r="P605" s="2">
+        <v>601</v>
+      </c>
+      <c r="Q605" s="6">
+        <f t="shared" ref="Q605:Q668" si="80">ROUNDDOWN(Q604+R605,2)</f>
+        <v>370.28</v>
+      </c>
+      <c r="R605" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2200000000000009</v>
+      </c>
+      <c r="S605" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q605),2)</f>
+        <v>75303.199999999997</v>
+      </c>
+      <c r="T605" s="5">
+        <f t="shared" ref="T605:T668" si="81">$T$3*(100+S605)/100</f>
+        <v>1508064</v>
+      </c>
+      <c r="U605">
+        <f t="shared" ref="U605:U668" si="82">((T605-T604)/T604)*100</f>
+        <v>0.49349005743079793</v>
+      </c>
+    </row>
+    <row r="606" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J606" s="2">
+        <v>602</v>
+      </c>
+      <c r="K606" s="1">
+        <f t="shared" si="76"/>
+        <v>121200</v>
+      </c>
+      <c r="L606" s="1">
+        <f>SUM($K$5:K606)</f>
+        <v>36782200</v>
+      </c>
+      <c r="M606" s="3">
+        <f t="shared" si="78"/>
+        <v>4.2229965156794425</v>
+      </c>
+      <c r="N606" s="4">
+        <f t="shared" si="79"/>
+        <v>1281.6097560975609</v>
+      </c>
+      <c r="P606" s="2">
+        <v>602</v>
+      </c>
+      <c r="Q606" s="6">
+        <f t="shared" si="80"/>
+        <v>371.5</v>
+      </c>
+      <c r="R606" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2220000000000009</v>
+      </c>
+      <c r="S606" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q606),2)</f>
+        <v>75674.7</v>
+      </c>
+      <c r="T606" s="5">
+        <f t="shared" si="81"/>
+        <v>1515494</v>
+      </c>
+      <c r="U606">
+        <f t="shared" si="82"/>
+        <v>0.49268466059795873</v>
+      </c>
+    </row>
+    <row r="607" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J607" s="2">
+        <v>603</v>
+      </c>
+      <c r="K607" s="1">
+        <f t="shared" si="76"/>
+        <v>121400</v>
+      </c>
+      <c r="L607" s="1">
+        <f>SUM($K$5:K607)</f>
+        <v>36903600</v>
+      </c>
+      <c r="M607" s="3">
+        <f t="shared" si="78"/>
+        <v>4.2299651567944254</v>
+      </c>
+      <c r="N607" s="4">
+        <f t="shared" si="79"/>
+        <v>1285.8397212543555</v>
+      </c>
+      <c r="P607" s="2">
+        <v>603</v>
+      </c>
+      <c r="Q607" s="6">
+        <f t="shared" si="80"/>
+        <v>372.72</v>
+      </c>
+      <c r="R607" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2240000000000009</v>
+      </c>
+      <c r="S607" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q607),2)</f>
+        <v>76047.42</v>
+      </c>
+      <c r="T607" s="5">
+        <f t="shared" si="81"/>
+        <v>1522948.4</v>
+      </c>
+      <c r="U607">
+        <f t="shared" si="82"/>
+        <v>0.49187921562209469</v>
+      </c>
+    </row>
+    <row r="608" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J608" s="2">
+        <v>604</v>
+      </c>
+      <c r="K608" s="1">
+        <f t="shared" si="76"/>
+        <v>121600</v>
+      </c>
+      <c r="L608" s="1">
+        <f>SUM($K$5:K608)</f>
+        <v>37025200</v>
+      </c>
+      <c r="M608" s="3">
+        <f t="shared" si="78"/>
+        <v>4.2369337979094075</v>
+      </c>
+      <c r="N608" s="4">
+        <f t="shared" si="79"/>
+        <v>1290.0766550522649</v>
+      </c>
+      <c r="P608" s="2">
+        <v>604</v>
+      </c>
+      <c r="Q608" s="6">
+        <f t="shared" si="80"/>
+        <v>373.94</v>
+      </c>
+      <c r="R608" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2260000000000009</v>
+      </c>
+      <c r="S608" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q608),2)</f>
+        <v>76421.36</v>
+      </c>
+      <c r="T608" s="5">
+        <f t="shared" si="81"/>
+        <v>1530427.2</v>
+      </c>
+      <c r="U608">
+        <f t="shared" si="82"/>
+        <v>0.49107376192128688</v>
+      </c>
+    </row>
+    <row r="609" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J609" s="2">
+        <v>605</v>
+      </c>
+      <c r="K609" s="1">
+        <f t="shared" si="76"/>
+        <v>121800</v>
+      </c>
+      <c r="L609" s="1">
+        <f>SUM($K$5:K609)</f>
+        <v>37147000</v>
+      </c>
+      <c r="M609" s="3">
+        <f t="shared" si="78"/>
+        <v>4.2439024390243905</v>
+      </c>
+      <c r="N609" s="4">
+        <f t="shared" si="79"/>
+        <v>1294.3205574912893</v>
+      </c>
+      <c r="P609" s="2">
+        <v>605</v>
+      </c>
+      <c r="Q609" s="6">
+        <f t="shared" si="80"/>
+        <v>375.16</v>
+      </c>
+      <c r="R609" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2280000000000009</v>
+      </c>
+      <c r="S609" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q609),2)</f>
+        <v>76796.52</v>
+      </c>
+      <c r="T609" s="5">
+        <f t="shared" si="81"/>
+        <v>1537930.4</v>
+      </c>
+      <c r="U609">
+        <f t="shared" si="82"/>
+        <v>0.49026833814767234</v>
+      </c>
+    </row>
+    <row r="610" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J610" s="2">
+        <v>606</v>
+      </c>
+      <c r="K610" s="1">
+        <f t="shared" si="76"/>
+        <v>122000</v>
+      </c>
+      <c r="L610" s="1">
+        <f>SUM($K$5:K610)</f>
+        <v>37269000</v>
+      </c>
+      <c r="M610" s="3">
+        <f t="shared" si="78"/>
+        <v>4.2508710801393725</v>
+      </c>
+      <c r="N610" s="4">
+        <f t="shared" si="79"/>
+        <v>1298.5714285714287</v>
+      </c>
+      <c r="P610" s="2">
+        <v>606</v>
+      </c>
+      <c r="Q610" s="6">
+        <f t="shared" si="80"/>
+        <v>376.39</v>
+      </c>
+      <c r="R610" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2300000000000009</v>
+      </c>
+      <c r="S610" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q610),2)</f>
+        <v>77172.91</v>
+      </c>
+      <c r="T610" s="5">
+        <f t="shared" si="81"/>
+        <v>1545458.2</v>
+      </c>
+      <c r="U610">
+        <f t="shared" si="82"/>
+        <v>0.48947598668964776</v>
+      </c>
+    </row>
+    <row r="611" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J611" s="2">
+        <v>607</v>
+      </c>
+      <c r="K611" s="1">
+        <f t="shared" si="76"/>
+        <v>122200</v>
+      </c>
+      <c r="L611" s="1">
+        <f>SUM($K$5:K611)</f>
+        <v>37391200</v>
+      </c>
+      <c r="M611" s="3">
+        <f t="shared" si="78"/>
+        <v>4.2578397212543555</v>
+      </c>
+      <c r="N611" s="4">
+        <f t="shared" si="79"/>
+        <v>1302.8292682926829</v>
+      </c>
+      <c r="P611" s="2">
+        <v>607</v>
+      </c>
+      <c r="Q611" s="6">
+        <f t="shared" si="80"/>
+        <v>377.62</v>
+      </c>
+      <c r="R611" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2320000000000009</v>
+      </c>
+      <c r="S611" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q611),2)</f>
+        <v>77550.53</v>
+      </c>
+      <c r="T611" s="5">
+        <f t="shared" si="81"/>
+        <v>1553010.6</v>
+      </c>
+      <c r="U611">
+        <f t="shared" si="82"/>
+        <v>0.488683550289496</v>
+      </c>
+    </row>
+    <row r="612" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J612" s="2">
+        <v>608</v>
+      </c>
+      <c r="K612" s="1">
+        <f t="shared" si="76"/>
+        <v>122400</v>
+      </c>
+      <c r="L612" s="1">
+        <f>SUM($K$5:K612)</f>
+        <v>37513600</v>
+      </c>
+      <c r="M612" s="3">
+        <f t="shared" si="78"/>
+        <v>4.2648083623693376</v>
+      </c>
+      <c r="N612" s="4">
+        <f t="shared" si="79"/>
+        <v>1307.0940766550523</v>
+      </c>
+      <c r="P612" s="2">
+        <v>608</v>
+      </c>
+      <c r="Q612" s="6">
+        <f t="shared" si="80"/>
+        <v>378.85</v>
+      </c>
+      <c r="R612" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2340000000000009</v>
+      </c>
+      <c r="S612" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q612),2)</f>
+        <v>77929.38</v>
+      </c>
+      <c r="T612" s="5">
+        <f t="shared" si="81"/>
+        <v>1560587.6</v>
+      </c>
+      <c r="U612">
+        <f t="shared" si="82"/>
+        <v>0.48789106783945968</v>
+      </c>
+    </row>
+    <row r="613" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J613" s="2">
+        <v>609</v>
+      </c>
+      <c r="K613" s="1">
+        <f t="shared" si="76"/>
+        <v>122600</v>
+      </c>
+      <c r="L613" s="1">
+        <f>SUM($K$5:K613)</f>
+        <v>37636200</v>
+      </c>
+      <c r="M613" s="3">
+        <f t="shared" si="78"/>
+        <v>4.2717770034843205</v>
+      </c>
+      <c r="N613" s="4">
+        <f t="shared" si="79"/>
+        <v>1311.3658536585365</v>
+      </c>
+      <c r="P613" s="2">
+        <v>609</v>
+      </c>
+      <c r="Q613" s="6">
+        <f t="shared" si="80"/>
+        <v>380.08</v>
+      </c>
+      <c r="R613" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2360000000000009</v>
+      </c>
+      <c r="S613" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q613),2)</f>
+        <v>78309.460000000006</v>
+      </c>
+      <c r="T613" s="5">
+        <f t="shared" si="81"/>
+        <v>1568189.2</v>
+      </c>
+      <c r="U613">
+        <f t="shared" si="82"/>
+        <v>0.48709857748452312</v>
+      </c>
+    </row>
+    <row r="614" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J614" s="2">
+        <v>610</v>
+      </c>
+      <c r="K614" s="1">
+        <f t="shared" si="76"/>
+        <v>122800</v>
+      </c>
+      <c r="L614" s="1">
+        <f>SUM($K$5:K614)</f>
+        <v>37759000</v>
+      </c>
+      <c r="M614" s="3">
+        <f t="shared" si="78"/>
+        <v>4.2787456445993035</v>
+      </c>
+      <c r="N614" s="4">
+        <f t="shared" si="79"/>
+        <v>1315.6445993031359</v>
+      </c>
+      <c r="P614" s="2">
+        <v>610</v>
+      </c>
+      <c r="Q614" s="6">
+        <f t="shared" si="80"/>
+        <v>381.31</v>
+      </c>
+      <c r="R614" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2380000000000009</v>
+      </c>
+      <c r="S614" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q614),2)</f>
+        <v>78690.77</v>
+      </c>
+      <c r="T614" s="5">
+        <f t="shared" si="81"/>
+        <v>1575815.4</v>
+      </c>
+      <c r="U614">
+        <f t="shared" si="82"/>
+        <v>0.48630611663439294</v>
+      </c>
+    </row>
+    <row r="615" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J615" s="2">
+        <v>611</v>
+      </c>
+      <c r="K615" s="1">
+        <f t="shared" si="76"/>
+        <v>123000</v>
+      </c>
+      <c r="L615" s="1">
+        <f>SUM($K$5:K615)</f>
+        <v>37882000</v>
+      </c>
+      <c r="M615" s="3">
+        <f t="shared" si="78"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="N615" s="4">
+        <f t="shared" si="79"/>
+        <v>1319.9303135888501</v>
+      </c>
+      <c r="P615" s="2">
+        <v>611</v>
+      </c>
+      <c r="Q615" s="6">
+        <f t="shared" si="80"/>
+        <v>382.55</v>
+      </c>
+      <c r="R615" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2400000000000009</v>
+      </c>
+      <c r="S615" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q615),2)</f>
+        <v>79073.320000000007</v>
+      </c>
+      <c r="T615" s="5">
+        <f t="shared" si="81"/>
+        <v>1583466.4</v>
+      </c>
+      <c r="U615">
+        <f t="shared" si="82"/>
+        <v>0.48552641381725298</v>
+      </c>
+    </row>
+    <row r="616" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J616" s="2">
+        <v>612</v>
+      </c>
+      <c r="K616" s="1">
+        <f t="shared" si="76"/>
+        <v>123200</v>
+      </c>
+      <c r="L616" s="1">
+        <f>SUM($K$5:K616)</f>
+        <v>38005200</v>
+      </c>
+      <c r="M616" s="3">
+        <f t="shared" si="78"/>
+        <v>4.2926829268292686</v>
+      </c>
+      <c r="N616" s="4">
+        <f t="shared" si="79"/>
+        <v>1324.2229965156794</v>
+      </c>
+      <c r="P616" s="2">
+        <v>612</v>
+      </c>
+      <c r="Q616" s="6">
+        <f t="shared" si="80"/>
+        <v>383.79</v>
+      </c>
+      <c r="R616" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2420000000000009</v>
+      </c>
+      <c r="S616" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q616),2)</f>
+        <v>79457.11</v>
+      </c>
+      <c r="T616" s="5">
+        <f t="shared" si="81"/>
+        <v>1591142.2</v>
+      </c>
+      <c r="U616">
+        <f t="shared" si="82"/>
+        <v>0.48474662929381052</v>
+      </c>
+    </row>
+    <row r="617" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J617" s="2">
+        <v>613</v>
+      </c>
+      <c r="K617" s="1">
+        <f t="shared" si="76"/>
+        <v>123400</v>
+      </c>
+      <c r="L617" s="1">
+        <f>SUM($K$5:K617)</f>
+        <v>38128600</v>
+      </c>
+      <c r="M617" s="3">
+        <f t="shared" si="78"/>
+        <v>4.2996515679442506</v>
+      </c>
+      <c r="N617" s="4">
+        <f t="shared" si="79"/>
+        <v>1328.5226480836236</v>
+      </c>
+      <c r="P617" s="2">
+        <v>613</v>
+      </c>
+      <c r="Q617" s="6">
+        <f t="shared" si="80"/>
+        <v>385.03</v>
+      </c>
+      <c r="R617" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2440000000000009</v>
+      </c>
+      <c r="S617" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q617),2)</f>
+        <v>79842.14</v>
+      </c>
+      <c r="T617" s="5">
+        <f t="shared" si="81"/>
+        <v>1598842.8</v>
+      </c>
+      <c r="U617">
+        <f t="shared" si="82"/>
+        <v>0.48396680070455639</v>
+      </c>
+    </row>
+    <row r="618" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J618" s="2">
+        <v>614</v>
+      </c>
+      <c r="K618" s="1">
+        <f t="shared" si="76"/>
+        <v>123600</v>
+      </c>
+      <c r="L618" s="1">
+        <f>SUM($K$5:K618)</f>
+        <v>38252200</v>
+      </c>
+      <c r="M618" s="3">
+        <f t="shared" si="78"/>
+        <v>4.3066202090592336</v>
+      </c>
+      <c r="N618" s="4">
+        <f t="shared" si="79"/>
+        <v>1332.8292682926829</v>
+      </c>
+      <c r="P618" s="2">
+        <v>614</v>
+      </c>
+      <c r="Q618" s="6">
+        <f t="shared" si="80"/>
+        <v>386.27</v>
+      </c>
+      <c r="R618" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2460000000000009</v>
+      </c>
+      <c r="S618" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q618),2)</f>
+        <v>80228.41</v>
+      </c>
+      <c r="T618" s="5">
+        <f t="shared" si="81"/>
+        <v>1606568.2</v>
+      </c>
+      <c r="U618">
+        <f t="shared" si="82"/>
+        <v>0.48318696497241043</v>
+      </c>
+    </row>
+    <row r="619" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J619" s="2">
+        <v>615</v>
+      </c>
+      <c r="K619" s="1">
+        <f t="shared" si="76"/>
+        <v>123800</v>
+      </c>
+      <c r="L619" s="1">
+        <f>SUM($K$5:K619)</f>
+        <v>38376000</v>
+      </c>
+      <c r="M619" s="3">
+        <f t="shared" si="78"/>
+        <v>4.3135888501742157</v>
+      </c>
+      <c r="N619" s="4">
+        <f t="shared" si="79"/>
+        <v>1337.1428571428571</v>
+      </c>
+      <c r="P619" s="2">
+        <v>615</v>
+      </c>
+      <c r="Q619" s="6">
+        <f t="shared" si="80"/>
+        <v>387.51</v>
+      </c>
+      <c r="R619" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2480000000000009</v>
+      </c>
+      <c r="S619" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q619),2)</f>
+        <v>80615.92</v>
+      </c>
+      <c r="T619" s="5">
+        <f t="shared" si="81"/>
+        <v>1614318.4</v>
+      </c>
+      <c r="U619">
+        <f t="shared" si="82"/>
+        <v>0.48240715831422248</v>
+      </c>
+    </row>
+    <row r="620" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J620" s="2">
+        <v>616</v>
+      </c>
+      <c r="K620" s="1">
+        <f t="shared" si="76"/>
+        <v>124000</v>
+      </c>
+      <c r="L620" s="1">
+        <f>SUM($K$5:K620)</f>
+        <v>38500000</v>
+      </c>
+      <c r="M620" s="3">
+        <f t="shared" si="78"/>
+        <v>4.3205574912891986</v>
+      </c>
+      <c r="N620" s="4">
+        <f t="shared" si="79"/>
+        <v>1341.4634146341464</v>
+      </c>
+      <c r="P620" s="2">
+        <v>616</v>
+      </c>
+      <c r="Q620" s="6">
+        <f t="shared" si="80"/>
+        <v>388.76</v>
+      </c>
+      <c r="R620" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2500000000000009</v>
+      </c>
+      <c r="S620" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q620),2)</f>
+        <v>81004.679999999993</v>
+      </c>
+      <c r="T620" s="5">
+        <f t="shared" si="81"/>
+        <v>1622093.6</v>
+      </c>
+      <c r="U620">
+        <f t="shared" si="82"/>
+        <v>0.48163980538165124</v>
+      </c>
+    </row>
+    <row r="621" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J621" s="2">
+        <v>617</v>
+      </c>
+      <c r="K621" s="1">
+        <f t="shared" si="76"/>
+        <v>124200</v>
+      </c>
+      <c r="L621" s="1">
+        <f>SUM($K$5:K621)</f>
+        <v>38624200</v>
+      </c>
+      <c r="M621" s="3">
+        <f t="shared" si="78"/>
+        <v>4.3275261324041816</v>
+      </c>
+      <c r="N621" s="4">
+        <f t="shared" si="79"/>
+        <v>1345.7909407665504</v>
+      </c>
+      <c r="P621" s="2">
+        <v>617</v>
+      </c>
+      <c r="Q621" s="6">
+        <f t="shared" si="80"/>
+        <v>390.01</v>
+      </c>
+      <c r="R621" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2520000000000009</v>
+      </c>
+      <c r="S621" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q621),2)</f>
+        <v>81394.69</v>
+      </c>
+      <c r="T621" s="5">
+        <f t="shared" si="81"/>
+        <v>1629893.8</v>
+      </c>
+      <c r="U621">
+        <f t="shared" si="82"/>
+        <v>0.48087237382602049</v>
+      </c>
+    </row>
+    <row r="622" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J622" s="2">
+        <v>618</v>
+      </c>
+      <c r="K622" s="1">
+        <f t="shared" si="76"/>
+        <v>124400</v>
+      </c>
+      <c r="L622" s="1">
+        <f>SUM($K$5:K622)</f>
+        <v>38748600</v>
+      </c>
+      <c r="M622" s="3">
+        <f t="shared" si="78"/>
+        <v>4.3344947735191637</v>
+      </c>
+      <c r="N622" s="4">
+        <f t="shared" si="79"/>
+        <v>1350.1254355400697</v>
+      </c>
+      <c r="P622" s="2">
+        <v>618</v>
+      </c>
+      <c r="Q622" s="6">
+        <f t="shared" si="80"/>
+        <v>391.26</v>
+      </c>
+      <c r="R622" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2540000000000009</v>
+      </c>
+      <c r="S622" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q622),2)</f>
+        <v>81785.95</v>
+      </c>
+      <c r="T622" s="5">
+        <f t="shared" si="81"/>
+        <v>1637719</v>
+      </c>
+      <c r="U622">
+        <f t="shared" si="82"/>
+        <v>0.48010490008612544</v>
+      </c>
+    </row>
+    <row r="623" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J623" s="2">
+        <v>619</v>
+      </c>
+      <c r="K623" s="1">
+        <f t="shared" si="76"/>
+        <v>124600</v>
+      </c>
+      <c r="L623" s="1">
+        <f>SUM($K$5:K623)</f>
+        <v>38873200</v>
+      </c>
+      <c r="M623" s="3">
+        <f t="shared" si="78"/>
+        <v>4.3414634146341466</v>
+      </c>
+      <c r="N623" s="4">
+        <f t="shared" si="79"/>
+        <v>1354.4668989547038</v>
+      </c>
+      <c r="P623" s="2">
+        <v>619</v>
+      </c>
+      <c r="Q623" s="6">
+        <f t="shared" si="80"/>
+        <v>392.51</v>
+      </c>
+      <c r="R623" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2560000000000009</v>
+      </c>
+      <c r="S623" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q623),2)</f>
+        <v>82178.460000000006</v>
+      </c>
+      <c r="T623" s="5">
+        <f t="shared" si="81"/>
+        <v>1645569.2</v>
+      </c>
+      <c r="U623">
+        <f t="shared" si="82"/>
+        <v>0.47933741991147155</v>
+      </c>
+    </row>
+    <row r="624" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J624" s="2">
+        <v>620</v>
+      </c>
+      <c r="K624" s="1">
+        <f t="shared" si="76"/>
+        <v>124800</v>
+      </c>
+      <c r="L624" s="1">
+        <f>SUM($K$5:K624)</f>
+        <v>38998000</v>
+      </c>
+      <c r="M624" s="3">
+        <f t="shared" si="78"/>
+        <v>4.3484320557491287</v>
+      </c>
+      <c r="N624" s="4">
+        <f t="shared" si="79"/>
+        <v>1358.8153310104531</v>
+      </c>
+      <c r="P624" s="2">
+        <v>620</v>
+      </c>
+      <c r="Q624" s="6">
+        <f t="shared" si="80"/>
+        <v>393.76</v>
+      </c>
+      <c r="R624" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2580000000000009</v>
+      </c>
+      <c r="S624" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q624),2)</f>
+        <v>82572.22</v>
+      </c>
+      <c r="T624" s="5">
+        <f t="shared" si="81"/>
+        <v>1653444.4</v>
+      </c>
+      <c r="U624">
+        <f t="shared" si="82"/>
+        <v>0.47856996837325066</v>
+      </c>
+    </row>
+    <row r="625" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J625" s="2">
+        <v>621</v>
+      </c>
+      <c r="K625" s="1">
+        <f t="shared" si="76"/>
+        <v>125000</v>
+      </c>
+      <c r="L625" s="1">
+        <f>SUM($K$5:K625)</f>
+        <v>39123000</v>
+      </c>
+      <c r="M625" s="3">
+        <f t="shared" si="78"/>
+        <v>4.3554006968641117</v>
+      </c>
+      <c r="N625" s="4">
+        <f t="shared" si="79"/>
+        <v>1363.1707317073171</v>
+      </c>
+      <c r="P625" s="2">
+        <v>621</v>
+      </c>
+      <c r="Q625" s="6">
+        <f t="shared" si="80"/>
+        <v>395.02</v>
+      </c>
+      <c r="R625" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2600000000000009</v>
+      </c>
+      <c r="S625" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q625),2)</f>
+        <v>82967.240000000005</v>
+      </c>
+      <c r="T625" s="5">
+        <f t="shared" si="81"/>
+        <v>1661344.8</v>
+      </c>
+      <c r="U625">
+        <f t="shared" si="82"/>
+        <v>0.47781467583670434</v>
+      </c>
+    </row>
+    <row r="626" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J626" s="2">
+        <v>622</v>
+      </c>
+      <c r="K626" s="1">
+        <f t="shared" si="76"/>
+        <v>125200</v>
+      </c>
+      <c r="L626" s="1">
+        <f>SUM($K$5:K626)</f>
+        <v>39248200</v>
+      </c>
+      <c r="M626" s="3">
+        <f t="shared" si="78"/>
+        <v>4.3623693379790938</v>
+      </c>
+      <c r="N626" s="4">
+        <f t="shared" si="79"/>
+        <v>1367.5331010452962</v>
+      </c>
+      <c r="P626" s="2">
+        <v>622</v>
+      </c>
+      <c r="Q626" s="6">
+        <f t="shared" si="80"/>
+        <v>396.28</v>
+      </c>
+      <c r="R626" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2620000000000009</v>
+      </c>
+      <c r="S626" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q626),2)</f>
+        <v>83363.520000000004</v>
+      </c>
+      <c r="T626" s="5">
+        <f t="shared" si="81"/>
+        <v>1669270.4</v>
+      </c>
+      <c r="U626">
+        <f t="shared" si="82"/>
+        <v>0.47705930761632748</v>
+      </c>
+    </row>
+    <row r="627" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J627" s="2">
+        <v>623</v>
+      </c>
+      <c r="K627" s="1">
+        <f t="shared" si="76"/>
+        <v>125400</v>
+      </c>
+      <c r="L627" s="1">
+        <f>SUM($K$5:K627)</f>
+        <v>39373600</v>
+      </c>
+      <c r="M627" s="3">
+        <f t="shared" si="78"/>
+        <v>4.3693379790940767</v>
+      </c>
+      <c r="N627" s="4">
+        <f t="shared" si="79"/>
+        <v>1371.9024390243903</v>
+      </c>
+      <c r="P627" s="2">
+        <v>623</v>
+      </c>
+      <c r="Q627" s="6">
+        <f t="shared" si="80"/>
+        <v>397.54</v>
+      </c>
+      <c r="R627" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2640000000000009</v>
+      </c>
+      <c r="S627" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q627),2)</f>
+        <v>83761.06</v>
+      </c>
+      <c r="T627" s="5">
+        <f t="shared" si="81"/>
+        <v>1677221.2</v>
+      </c>
+      <c r="U627">
+        <f t="shared" si="82"/>
+        <v>0.47630389899683395</v>
+      </c>
+    </row>
+    <row r="628" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J628" s="2">
+        <v>624</v>
+      </c>
+      <c r="K628" s="1">
+        <f t="shared" si="76"/>
+        <v>125600</v>
+      </c>
+      <c r="L628" s="1">
+        <f>SUM($K$5:K628)</f>
+        <v>39499200</v>
+      </c>
+      <c r="M628" s="3">
+        <f t="shared" si="78"/>
+        <v>4.3763066202090588</v>
+      </c>
+      <c r="N628" s="4">
+        <f t="shared" si="79"/>
+        <v>1376.2787456445992</v>
+      </c>
+      <c r="P628" s="2">
+        <v>624</v>
+      </c>
+      <c r="Q628" s="6">
+        <f t="shared" si="80"/>
+        <v>398.8</v>
+      </c>
+      <c r="R628" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2660000000000009</v>
+      </c>
+      <c r="S628" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q628),2)</f>
+        <v>84159.86</v>
+      </c>
+      <c r="T628" s="5">
+        <f t="shared" si="81"/>
+        <v>1685197.2</v>
+      </c>
+      <c r="U628">
+        <f t="shared" si="82"/>
+        <v>0.47554848460060012</v>
+      </c>
+    </row>
+    <row r="629" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J629" s="2">
+        <v>625</v>
+      </c>
+      <c r="K629" s="1">
+        <f t="shared" si="76"/>
+        <v>125800</v>
+      </c>
+      <c r="L629" s="1">
+        <f>SUM($K$5:K629)</f>
+        <v>39625000</v>
+      </c>
+      <c r="M629" s="3">
+        <f t="shared" si="78"/>
+        <v>4.3832752613240418</v>
+      </c>
+      <c r="N629" s="4">
+        <f t="shared" si="79"/>
+        <v>1380.6620209059233</v>
+      </c>
+      <c r="P629" s="2">
+        <v>625</v>
+      </c>
+      <c r="Q629" s="6">
+        <f t="shared" si="80"/>
+        <v>400.06</v>
+      </c>
+      <c r="R629" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2680000000000009</v>
+      </c>
+      <c r="S629" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q629),2)</f>
+        <v>84559.92</v>
+      </c>
+      <c r="T629" s="5">
+        <f t="shared" si="81"/>
+        <v>1693198.4</v>
+      </c>
+      <c r="U629">
+        <f t="shared" si="82"/>
+        <v>0.47479309839821443</v>
+      </c>
+    </row>
+    <row r="630" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J630" s="2">
+        <v>626</v>
+      </c>
+      <c r="K630" s="1">
+        <f t="shared" si="76"/>
+        <v>126000</v>
+      </c>
+      <c r="L630" s="1">
+        <f>SUM($K$5:K630)</f>
+        <v>39751000</v>
+      </c>
+      <c r="M630" s="3">
+        <f t="shared" si="78"/>
+        <v>4.3902439024390247</v>
+      </c>
+      <c r="N630" s="4">
+        <f t="shared" si="79"/>
+        <v>1385.0522648083625</v>
+      </c>
+      <c r="P630" s="2">
+        <v>626</v>
+      </c>
+      <c r="Q630" s="6">
+        <f t="shared" si="80"/>
+        <v>401.33</v>
+      </c>
+      <c r="R630" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2700000000000009</v>
+      </c>
+      <c r="S630" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q630),2)</f>
+        <v>84961.25</v>
+      </c>
+      <c r="T630" s="5">
+        <f t="shared" si="81"/>
+        <v>1701225</v>
+      </c>
+      <c r="U630">
+        <f t="shared" si="82"/>
+        <v>0.47404958568352618</v>
+      </c>
+    </row>
+    <row r="631" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J631" s="2">
+        <v>627</v>
+      </c>
+      <c r="K631" s="1">
+        <f t="shared" si="76"/>
+        <v>126200</v>
+      </c>
+      <c r="L631" s="1">
+        <f>SUM($K$5:K631)</f>
+        <v>39877200</v>
+      </c>
+      <c r="M631" s="3">
+        <f t="shared" si="78"/>
+        <v>4.3972125435540068</v>
+      </c>
+      <c r="N631" s="4">
+        <f t="shared" si="79"/>
+        <v>1389.4494773519164</v>
+      </c>
+      <c r="P631" s="2">
+        <v>627</v>
+      </c>
+      <c r="Q631" s="6">
+        <f t="shared" si="80"/>
+        <v>402.6</v>
+      </c>
+      <c r="R631" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2720000000000009</v>
+      </c>
+      <c r="S631" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q631),2)</f>
+        <v>85363.85</v>
+      </c>
+      <c r="T631" s="5">
+        <f t="shared" si="81"/>
+        <v>1709277</v>
+      </c>
+      <c r="U631">
+        <f t="shared" si="82"/>
+        <v>0.47330600008817175</v>
+      </c>
+    </row>
+    <row r="632" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J632" s="2">
+        <v>628</v>
+      </c>
+      <c r="K632" s="1">
+        <f t="shared" si="76"/>
+        <v>126400</v>
+      </c>
+      <c r="L632" s="1">
+        <f>SUM($K$5:K632)</f>
+        <v>40003600</v>
+      </c>
+      <c r="M632" s="3">
+        <f t="shared" si="78"/>
+        <v>4.4041811846689898</v>
+      </c>
+      <c r="N632" s="4">
+        <f t="shared" si="79"/>
+        <v>1393.8536585365853</v>
+      </c>
+      <c r="P632" s="2">
+        <v>628</v>
+      </c>
+      <c r="Q632" s="6">
+        <f t="shared" si="80"/>
+        <v>403.87</v>
+      </c>
+      <c r="R632" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2740000000000009</v>
+      </c>
+      <c r="S632" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q632),2)</f>
+        <v>85767.72</v>
+      </c>
+      <c r="T632" s="5">
+        <f t="shared" si="81"/>
+        <v>1717354.4</v>
+      </c>
+      <c r="U632">
+        <f t="shared" si="82"/>
+        <v>0.47256237578812016</v>
+      </c>
+    </row>
+    <row r="633" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J633" s="2">
+        <v>629</v>
+      </c>
+      <c r="K633" s="1">
+        <f t="shared" si="76"/>
+        <v>126600</v>
+      </c>
+      <c r="L633" s="1">
+        <f>SUM($K$5:K633)</f>
+        <v>40130200</v>
+      </c>
+      <c r="M633" s="3">
+        <f t="shared" si="78"/>
+        <v>4.4111498257839719</v>
+      </c>
+      <c r="N633" s="4">
+        <f t="shared" si="79"/>
+        <v>1398.2648083623694</v>
+      </c>
+      <c r="P633" s="2">
+        <v>629</v>
+      </c>
+      <c r="Q633" s="6">
+        <f t="shared" si="80"/>
+        <v>405.14</v>
+      </c>
+      <c r="R633" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2760000000000009</v>
+      </c>
+      <c r="S633" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q633),2)</f>
+        <v>86172.86</v>
+      </c>
+      <c r="T633" s="5">
+        <f t="shared" si="81"/>
+        <v>1725457.2</v>
+      </c>
+      <c r="U633">
+        <f t="shared" si="82"/>
+        <v>0.4718187463228351</v>
+      </c>
+    </row>
+    <row r="634" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J634" s="2">
+        <v>630</v>
+      </c>
+      <c r="K634" s="1">
+        <f t="shared" si="76"/>
+        <v>126800</v>
+      </c>
+      <c r="L634" s="1">
+        <f>SUM($K$5:K634)</f>
+        <v>40257000</v>
+      </c>
+      <c r="M634" s="3">
+        <f t="shared" si="78"/>
+        <v>4.4181184668989548</v>
+      </c>
+      <c r="N634" s="4">
+        <f t="shared" si="79"/>
+        <v>1402.6829268292684</v>
+      </c>
+      <c r="P634" s="2">
+        <v>630</v>
+      </c>
+      <c r="Q634" s="6">
+        <f t="shared" si="80"/>
+        <v>406.41</v>
+      </c>
+      <c r="R634" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2780000000000009</v>
+      </c>
+      <c r="S634" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q634),2)</f>
+        <v>86579.27</v>
+      </c>
+      <c r="T634" s="5">
+        <f t="shared" si="81"/>
+        <v>1733585.4</v>
+      </c>
+      <c r="U634">
+        <f t="shared" si="82"/>
+        <v>0.47107514460514893</v>
+      </c>
+    </row>
+    <row r="635" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J635" s="2">
+        <v>631</v>
+      </c>
+      <c r="K635" s="1">
+        <f t="shared" si="76"/>
+        <v>127000</v>
+      </c>
+      <c r="L635" s="1">
+        <f>SUM($K$5:K635)</f>
+        <v>40384000</v>
+      </c>
+      <c r="M635" s="3">
+        <f t="shared" si="78"/>
+        <v>4.4250871080139369</v>
+      </c>
+      <c r="N635" s="4">
+        <f t="shared" si="79"/>
+        <v>1407.1080139372823</v>
+      </c>
+      <c r="P635" s="2">
+        <v>631</v>
+      </c>
+      <c r="Q635" s="6">
+        <f t="shared" si="80"/>
+        <v>407.69</v>
+      </c>
+      <c r="R635" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2800000000000009</v>
+      </c>
+      <c r="S635" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q635),2)</f>
+        <v>86986.96</v>
+      </c>
+      <c r="T635" s="5">
+        <f t="shared" si="81"/>
+        <v>1741739.2</v>
+      </c>
+      <c r="U635">
+        <f t="shared" si="82"/>
+        <v>0.47034313971495417</v>
+      </c>
+    </row>
+    <row r="636" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J636" s="2">
+        <v>632</v>
+      </c>
+      <c r="K636" s="1">
+        <f t="shared" si="76"/>
+        <v>127200</v>
+      </c>
+      <c r="L636" s="1">
+        <f>SUM($K$5:K636)</f>
+        <v>40511200</v>
+      </c>
+      <c r="M636" s="3">
+        <f t="shared" si="78"/>
+        <v>4.4320557491289199</v>
+      </c>
+      <c r="N636" s="4">
+        <f t="shared" si="79"/>
+        <v>1411.5400696864112</v>
+      </c>
+      <c r="P636" s="2">
+        <v>632</v>
+      </c>
+      <c r="Q636" s="6">
+        <f t="shared" si="80"/>
+        <v>408.97</v>
+      </c>
+      <c r="R636" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2820000000000009</v>
+      </c>
+      <c r="S636" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q636),2)</f>
+        <v>87395.93</v>
+      </c>
+      <c r="T636" s="5">
+        <f t="shared" si="81"/>
+        <v>1749918.6</v>
+      </c>
+      <c r="U636">
+        <f t="shared" si="82"/>
+        <v>0.4696110646186375</v>
+      </c>
+    </row>
+    <row r="637" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J637" s="2">
+        <v>633</v>
+      </c>
+      <c r="K637" s="1">
+        <f t="shared" si="76"/>
+        <v>127400</v>
+      </c>
+      <c r="L637" s="1">
+        <f>SUM($K$5:K637)</f>
+        <v>40638600</v>
+      </c>
+      <c r="M637" s="3">
+        <f t="shared" si="78"/>
+        <v>4.4390243902439028</v>
+      </c>
+      <c r="N637" s="4">
+        <f t="shared" si="79"/>
+        <v>1415.979094076655</v>
+      </c>
+      <c r="P637" s="2">
+        <v>633</v>
+      </c>
+      <c r="Q637" s="6">
+        <f t="shared" si="80"/>
+        <v>410.25</v>
+      </c>
+      <c r="R637" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2840000000000009</v>
+      </c>
+      <c r="S637" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q637),2)</f>
+        <v>87806.18</v>
+      </c>
+      <c r="T637" s="5">
+        <f t="shared" si="81"/>
+        <v>1758123.6</v>
+      </c>
+      <c r="U637">
+        <f t="shared" si="82"/>
+        <v>0.46887895242670141</v>
+      </c>
+    </row>
+    <row r="638" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J638" s="2">
+        <v>634</v>
+      </c>
+      <c r="K638" s="1">
+        <f t="shared" si="76"/>
+        <v>127600</v>
+      </c>
+      <c r="L638" s="1">
+        <f>SUM($K$5:K638)</f>
+        <v>40766200</v>
+      </c>
+      <c r="M638" s="3">
+        <f t="shared" si="78"/>
+        <v>4.4459930313588849</v>
+      </c>
+      <c r="N638" s="4">
+        <f t="shared" si="79"/>
+        <v>1420.4250871080139</v>
+      </c>
+      <c r="P638" s="2">
+        <v>634</v>
+      </c>
+      <c r="Q638" s="6">
+        <f t="shared" si="80"/>
+        <v>411.53</v>
+      </c>
+      <c r="R638" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2860000000000009</v>
+      </c>
+      <c r="S638" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q638),2)</f>
+        <v>88217.71</v>
+      </c>
+      <c r="T638" s="5">
+        <f t="shared" si="81"/>
+        <v>1766354.2</v>
+      </c>
+      <c r="U638">
+        <f t="shared" si="82"/>
+        <v>0.46814683563771398</v>
+      </c>
+    </row>
+    <row r="639" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J639" s="2">
+        <v>635</v>
+      </c>
+      <c r="K639" s="1">
+        <f t="shared" si="76"/>
+        <v>127800</v>
+      </c>
+      <c r="L639" s="1">
+        <f>SUM($K$5:K639)</f>
+        <v>40894000</v>
+      </c>
+      <c r="M639" s="3">
+        <f t="shared" si="78"/>
+        <v>4.4529616724738679</v>
+      </c>
+      <c r="N639" s="4">
+        <f t="shared" si="79"/>
+        <v>1424.8780487804879</v>
+      </c>
+      <c r="P639" s="2">
+        <v>635</v>
+      </c>
+      <c r="Q639" s="6">
+        <f t="shared" si="80"/>
+        <v>412.81</v>
+      </c>
+      <c r="R639" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2880000000000009</v>
+      </c>
+      <c r="S639" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q639),2)</f>
+        <v>88630.52</v>
+      </c>
+      <c r="T639" s="5">
+        <f t="shared" si="81"/>
+        <v>1774610.4</v>
+      </c>
+      <c r="U639">
+        <f t="shared" si="82"/>
+        <v>0.46741474614774059</v>
+      </c>
+    </row>
+    <row r="640" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J640" s="2">
+        <v>636</v>
+      </c>
+      <c r="K640" s="1">
+        <f t="shared" si="76"/>
+        <v>128000</v>
+      </c>
+      <c r="L640" s="1">
+        <f>SUM($K$5:K640)</f>
+        <v>41022000</v>
+      </c>
+      <c r="M640" s="3">
+        <f t="shared" si="78"/>
+        <v>4.4599303135888499</v>
+      </c>
+      <c r="N640" s="4">
+        <f t="shared" si="79"/>
+        <v>1429.3379790940767</v>
+      </c>
+      <c r="P640" s="2">
+        <v>636</v>
+      </c>
+      <c r="Q640" s="6">
+        <f t="shared" si="80"/>
+        <v>414.1</v>
+      </c>
+      <c r="R640" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2900000000000009</v>
+      </c>
+      <c r="S640" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q640),2)</f>
+        <v>89044.62</v>
+      </c>
+      <c r="T640" s="5">
+        <f t="shared" si="81"/>
+        <v>1782892.4</v>
+      </c>
+      <c r="U640">
+        <f t="shared" si="82"/>
+        <v>0.46669398533897921</v>
+      </c>
+    </row>
+    <row r="641" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J641" s="2">
+        <v>637</v>
+      </c>
+      <c r="K641" s="1">
+        <f t="shared" si="76"/>
+        <v>128200</v>
+      </c>
+      <c r="L641" s="1">
+        <f>SUM($K$5:K641)</f>
+        <v>41150200</v>
+      </c>
+      <c r="M641" s="3">
+        <f t="shared" si="78"/>
+        <v>4.4668989547038329</v>
+      </c>
+      <c r="N641" s="4">
+        <f t="shared" si="79"/>
+        <v>1433.8048780487804</v>
+      </c>
+      <c r="P641" s="2">
+        <v>637</v>
+      </c>
+      <c r="Q641" s="6">
+        <f t="shared" si="80"/>
+        <v>415.39</v>
+      </c>
+      <c r="R641" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2920000000000009</v>
+      </c>
+      <c r="S641" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q641),2)</f>
+        <v>89460.01</v>
+      </c>
+      <c r="T641" s="5">
+        <f t="shared" si="81"/>
+        <v>1791200.2</v>
+      </c>
+      <c r="U641">
+        <f t="shared" si="82"/>
+        <v>0.46597315687699647</v>
+      </c>
+    </row>
+    <row r="642" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J642" s="2">
+        <v>638</v>
+      </c>
+      <c r="K642" s="1">
+        <f t="shared" si="76"/>
+        <v>128400</v>
+      </c>
+      <c r="L642" s="1">
+        <f>SUM($K$5:K642)</f>
+        <v>41278600</v>
+      </c>
+      <c r="M642" s="3">
+        <f t="shared" si="78"/>
+        <v>4.473867595818815</v>
+      </c>
+      <c r="N642" s="4">
+        <f t="shared" si="79"/>
+        <v>1438.2787456445992</v>
+      </c>
+      <c r="P642" s="2">
+        <v>638</v>
+      </c>
+      <c r="Q642" s="6">
+        <f t="shared" si="80"/>
+        <v>416.68</v>
+      </c>
+      <c r="R642" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2940000000000009</v>
+      </c>
+      <c r="S642" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q642),2)</f>
+        <v>89876.69</v>
+      </c>
+      <c r="T642" s="5">
+        <f t="shared" si="81"/>
+        <v>1799533.8</v>
+      </c>
+      <c r="U642">
+        <f t="shared" si="82"/>
+        <v>0.46525229284811903</v>
+      </c>
+    </row>
+    <row r="643" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J643" s="2">
+        <v>639</v>
+      </c>
+      <c r="K643" s="1">
+        <f t="shared" si="76"/>
+        <v>128600</v>
+      </c>
+      <c r="L643" s="1">
+        <f>SUM($K$5:K643)</f>
+        <v>41407200</v>
+      </c>
+      <c r="M643" s="3">
+        <f t="shared" si="78"/>
+        <v>4.480836236933798</v>
+      </c>
+      <c r="N643" s="4">
+        <f t="shared" si="79"/>
+        <v>1442.759581881533</v>
+      </c>
+      <c r="P643" s="2">
+        <v>639</v>
+      </c>
+      <c r="Q643" s="6">
+        <f t="shared" si="80"/>
+        <v>417.97</v>
+      </c>
+      <c r="R643" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2960000000000009</v>
+      </c>
+      <c r="S643" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q643),2)</f>
+        <v>90294.66</v>
+      </c>
+      <c r="T643" s="5">
+        <f t="shared" si="81"/>
+        <v>1807893.2</v>
+      </c>
+      <c r="U643">
+        <f t="shared" si="82"/>
+        <v>0.46453142475011622</v>
+      </c>
+    </row>
+    <row r="644" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J644" s="2">
+        <v>640</v>
+      </c>
+      <c r="K644" s="1">
+        <f t="shared" si="76"/>
+        <v>128800</v>
+      </c>
+      <c r="L644" s="1">
+        <f>SUM($K$5:K644)</f>
+        <v>41536000</v>
+      </c>
+      <c r="M644" s="3">
+        <f t="shared" si="78"/>
+        <v>4.4878048780487809</v>
+      </c>
+      <c r="N644" s="4">
+        <f t="shared" si="79"/>
+        <v>1447.2473867595818</v>
+      </c>
+      <c r="P644" s="2">
+        <v>640</v>
+      </c>
+      <c r="Q644" s="6">
+        <f t="shared" si="80"/>
+        <v>419.26</v>
+      </c>
+      <c r="R644" s="6">
+        <f t="shared" si="77"/>
+        <v>1.2980000000000009</v>
+      </c>
+      <c r="S644" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q644),2)</f>
+        <v>90713.919999999998</v>
+      </c>
+      <c r="T644" s="5">
+        <f t="shared" si="81"/>
+        <v>1816278.4</v>
+      </c>
+      <c r="U644">
+        <f t="shared" si="82"/>
+        <v>0.46381058350127952</v>
+      </c>
+    </row>
+    <row r="645" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J645" s="2">
+        <v>641</v>
+      </c>
+      <c r="K645" s="1">
+        <f t="shared" si="76"/>
+        <v>129000</v>
+      </c>
+      <c r="L645" s="1">
+        <f>SUM($K$5:K645)</f>
+        <v>41665000</v>
+      </c>
+      <c r="M645" s="3">
+        <f t="shared" si="78"/>
+        <v>4.494773519163763</v>
+      </c>
+      <c r="N645" s="4">
+        <f t="shared" si="79"/>
+        <v>1451.7421602787456</v>
+      </c>
+      <c r="P645" s="2">
+        <v>641</v>
+      </c>
+      <c r="Q645" s="6">
+        <f t="shared" si="80"/>
+        <v>420.56</v>
+      </c>
+      <c r="R645" s="6">
+        <f t="shared" si="77"/>
+        <v>1.3000000000000009</v>
+      </c>
+      <c r="S645" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q645),2)</f>
+        <v>91134.48</v>
+      </c>
+      <c r="T645" s="5">
+        <f t="shared" si="81"/>
+        <v>1824689.6</v>
+      </c>
+      <c r="U645">
+        <f t="shared" si="82"/>
+        <v>0.46310081097700589</v>
+      </c>
+    </row>
+    <row r="646" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J646" s="2">
+        <v>642</v>
+      </c>
+      <c r="K646" s="1">
+        <f t="shared" si="76"/>
+        <v>129200</v>
+      </c>
+      <c r="L646" s="1">
+        <f>SUM($K$5:K646)</f>
+        <v>41794200</v>
+      </c>
+      <c r="M646" s="3">
+        <f t="shared" si="78"/>
+        <v>4.501742160278746</v>
+      </c>
+      <c r="N646" s="4">
+        <f t="shared" si="79"/>
+        <v>1456.2439024390244</v>
+      </c>
+      <c r="P646" s="2">
+        <v>642</v>
+      </c>
+      <c r="Q646" s="6">
+        <f t="shared" si="80"/>
+        <v>421.86</v>
+      </c>
+      <c r="R646" s="6">
+        <f t="shared" si="77"/>
+        <v>1.3020000000000009</v>
+      </c>
+      <c r="S646" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q646),2)</f>
+        <v>91556.34</v>
+      </c>
+      <c r="T646" s="5">
+        <f t="shared" si="81"/>
+        <v>1833126.8</v>
+      </c>
+      <c r="U646">
+        <f t="shared" si="82"/>
+        <v>0.46239097323730854</v>
+      </c>
+    </row>
+    <row r="647" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J647" s="2">
+        <v>643</v>
+      </c>
+      <c r="K647" s="1">
+        <f t="shared" ref="K647:K704" si="83">K646+200</f>
+        <v>129400</v>
+      </c>
+      <c r="L647" s="1">
+        <f>SUM($K$5:K647)</f>
+        <v>41923600</v>
+      </c>
+      <c r="M647" s="3">
+        <f t="shared" si="78"/>
+        <v>4.508710801393728</v>
+      </c>
+      <c r="N647" s="4">
+        <f t="shared" si="79"/>
+        <v>1460.7526132404182</v>
+      </c>
+      <c r="P647" s="2">
+        <v>643</v>
+      </c>
+      <c r="Q647" s="6">
+        <f t="shared" si="80"/>
+        <v>423.16</v>
+      </c>
+      <c r="R647" s="6">
+        <f t="shared" ref="R647:R704" si="84">R646+0.002</f>
+        <v>1.3040000000000009</v>
+      </c>
+      <c r="S647" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q647),2)</f>
+        <v>91979.5</v>
+      </c>
+      <c r="T647" s="5">
+        <f t="shared" si="81"/>
+        <v>1841590</v>
+      </c>
+      <c r="U647">
+        <f t="shared" si="82"/>
+        <v>0.46168110138370966</v>
+      </c>
+    </row>
+    <row r="648" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J648" s="2">
+        <v>644</v>
+      </c>
+      <c r="K648" s="1">
+        <f t="shared" si="83"/>
+        <v>129600</v>
+      </c>
+      <c r="L648" s="1">
+        <f>SUM($K$5:K648)</f>
+        <v>42053200</v>
+      </c>
+      <c r="M648" s="3">
+        <f t="shared" si="78"/>
+        <v>4.515679442508711</v>
+      </c>
+      <c r="N648" s="4">
+        <f t="shared" si="79"/>
+        <v>1465.2682926829268</v>
+      </c>
+      <c r="P648" s="2">
+        <v>644</v>
+      </c>
+      <c r="Q648" s="6">
+        <f t="shared" si="80"/>
+        <v>424.46</v>
+      </c>
+      <c r="R648" s="6">
+        <f t="shared" si="84"/>
+        <v>1.3060000000000009</v>
+      </c>
+      <c r="S648" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q648),2)</f>
+        <v>92403.96</v>
+      </c>
+      <c r="T648" s="5">
+        <f t="shared" si="81"/>
+        <v>1850079.2</v>
+      </c>
+      <c r="U648">
+        <f t="shared" si="82"/>
+        <v>0.4609712259514851</v>
+      </c>
+    </row>
+    <row r="649" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J649" s="2">
+        <v>645</v>
+      </c>
+      <c r="K649" s="1">
+        <f t="shared" si="83"/>
+        <v>129800</v>
+      </c>
+      <c r="L649" s="1">
+        <f>SUM($K$5:K649)</f>
+        <v>42183000</v>
+      </c>
+      <c r="M649" s="3">
+        <f t="shared" si="78"/>
+        <v>4.5226480836236931</v>
+      </c>
+      <c r="N649" s="4">
+        <f t="shared" si="79"/>
+        <v>1469.7909407665504</v>
+      </c>
+      <c r="P649" s="2">
+        <v>645</v>
+      </c>
+      <c r="Q649" s="6">
+        <f t="shared" si="80"/>
+        <v>425.76</v>
+      </c>
+      <c r="R649" s="6">
+        <f t="shared" si="84"/>
+        <v>1.3080000000000009</v>
+      </c>
+      <c r="S649" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q649),2)</f>
+        <v>92829.72</v>
+      </c>
+      <c r="T649" s="5">
+        <f t="shared" si="81"/>
+        <v>1858594.4</v>
+      </c>
+      <c r="U649">
+        <f t="shared" si="82"/>
+        <v>0.46026137691834784</v>
+      </c>
+    </row>
+    <row r="650" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J650" s="2">
+        <v>646</v>
+      </c>
+      <c r="K650" s="1">
+        <f t="shared" si="83"/>
+        <v>130000</v>
+      </c>
+      <c r="L650" s="1">
+        <f>SUM($K$5:K650)</f>
+        <v>42313000</v>
+      </c>
+      <c r="M650" s="3">
+        <f t="shared" si="78"/>
+        <v>4.529616724738676</v>
+      </c>
+      <c r="N650" s="4">
+        <f t="shared" si="79"/>
+        <v>1474.3205574912893</v>
+      </c>
+      <c r="P650" s="2">
+        <v>646</v>
+      </c>
+      <c r="Q650" s="6">
+        <f t="shared" si="80"/>
+        <v>427.07</v>
+      </c>
+      <c r="R650" s="6">
+        <f t="shared" si="84"/>
+        <v>1.3100000000000009</v>
+      </c>
+      <c r="S650" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q650),2)</f>
+        <v>93256.79</v>
+      </c>
+      <c r="T650" s="5">
+        <f t="shared" si="81"/>
+        <v>1867135.8</v>
+      </c>
+      <c r="U650">
+        <f t="shared" si="82"/>
+        <v>0.45956234453305894</v>
+      </c>
+    </row>
+    <row r="651" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J651" s="2">
+        <v>647</v>
+      </c>
+      <c r="K651" s="1">
+        <f t="shared" si="83"/>
+        <v>130200</v>
+      </c>
+      <c r="L651" s="1">
+        <f>SUM($K$5:K651)</f>
+        <v>42443200</v>
+      </c>
+      <c r="M651" s="3">
+        <f t="shared" si="78"/>
+        <v>4.5365853658536581</v>
+      </c>
+      <c r="N651" s="4">
+        <f t="shared" si="79"/>
+        <v>1478.8571428571429</v>
+      </c>
+      <c r="P651" s="2">
+        <v>647</v>
+      </c>
+      <c r="Q651" s="6">
+        <f t="shared" si="80"/>
+        <v>428.38</v>
+      </c>
+      <c r="R651" s="6">
+        <f t="shared" si="84"/>
+        <v>1.3120000000000009</v>
+      </c>
+      <c r="S651" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q651),2)</f>
+        <v>93685.17</v>
+      </c>
+      <c r="T651" s="5">
+        <f t="shared" si="81"/>
+        <v>1875703.4</v>
+      </c>
+      <c r="U651">
+        <f t="shared" si="82"/>
+        <v>0.45886324926124072</v>
+      </c>
+    </row>
+    <row r="652" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J652" s="2">
+        <v>648</v>
+      </c>
+      <c r="K652" s="1">
+        <f t="shared" si="83"/>
+        <v>130400</v>
+      </c>
+      <c r="L652" s="1">
+        <f>SUM($K$5:K652)</f>
+        <v>42573600</v>
+      </c>
+      <c r="M652" s="3">
+        <f t="shared" si="78"/>
+        <v>4.5435540069686411</v>
+      </c>
+      <c r="N652" s="4">
+        <f t="shared" si="79"/>
+        <v>1483.4006968641115</v>
+      </c>
+      <c r="P652" s="2">
+        <v>648</v>
+      </c>
+      <c r="Q652" s="6">
+        <f t="shared" si="80"/>
+        <v>429.69</v>
+      </c>
+      <c r="R652" s="6">
+        <f t="shared" si="84"/>
+        <v>1.3140000000000009</v>
+      </c>
+      <c r="S652" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q652),2)</f>
+        <v>94114.86</v>
+      </c>
+      <c r="T652" s="5">
+        <f t="shared" si="81"/>
+        <v>1884297.2</v>
+      </c>
+      <c r="U652">
+        <f t="shared" si="82"/>
+        <v>0.45816412125712663</v>
+      </c>
+    </row>
+    <row r="653" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J653" s="2">
+        <v>649</v>
+      </c>
+      <c r="K653" s="1">
+        <f t="shared" si="83"/>
+        <v>130600</v>
+      </c>
+      <c r="L653" s="1">
+        <f>SUM($K$5:K653)</f>
+        <v>42704200</v>
+      </c>
+      <c r="M653" s="3">
+        <f t="shared" si="78"/>
+        <v>4.5505226480836241</v>
+      </c>
+      <c r="N653" s="4">
+        <f t="shared" si="79"/>
+        <v>1487.9512195121952</v>
+      </c>
+      <c r="P653" s="2">
+        <v>649</v>
+      </c>
+      <c r="Q653" s="6">
+        <f t="shared" si="80"/>
+        <v>431</v>
+      </c>
+      <c r="R653" s="6">
+        <f t="shared" si="84"/>
+        <v>1.3160000000000009</v>
+      </c>
+      <c r="S653" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q653),2)</f>
+        <v>94545.86</v>
+      </c>
+      <c r="T653" s="5">
+        <f t="shared" si="81"/>
+        <v>1892917.2</v>
+      </c>
+      <c r="U653">
+        <f t="shared" si="82"/>
+        <v>0.45746499013000713</v>
+      </c>
+    </row>
+    <row r="654" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J654" s="2">
+        <v>650</v>
+      </c>
+      <c r="K654" s="1">
+        <f t="shared" si="83"/>
+        <v>130800</v>
+      </c>
+      <c r="L654" s="1">
+        <f>SUM($K$5:K654)</f>
+        <v>42835000</v>
+      </c>
+      <c r="M654" s="3">
+        <f t="shared" si="78"/>
+        <v>4.5574912891986061</v>
+      </c>
+      <c r="N654" s="4">
+        <f t="shared" si="79"/>
+        <v>1492.5087108013938</v>
+      </c>
+      <c r="P654" s="2">
+        <v>650</v>
+      </c>
+      <c r="Q654" s="6">
+        <f t="shared" si="80"/>
+        <v>432.31</v>
+      </c>
+      <c r="R654" s="6">
+        <f t="shared" si="84"/>
+        <v>1.3180000000000009</v>
+      </c>
+      <c r="S654" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q654),2)</f>
+        <v>94978.17</v>
+      </c>
+      <c r="T654" s="5">
+        <f t="shared" si="81"/>
+        <v>1901563.4</v>
+      </c>
+      <c r="U654">
+        <f t="shared" si="82"/>
+        <v>0.45676588495259873</v>
+      </c>
+    </row>
+    <row r="655" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J655" s="2">
+        <v>651</v>
+      </c>
+      <c r="K655" s="1">
+        <f t="shared" si="83"/>
+        <v>131000</v>
+      </c>
+      <c r="L655" s="1">
+        <f>SUM($K$5:K655)</f>
+        <v>42966000</v>
+      </c>
+      <c r="M655" s="3">
+        <f t="shared" si="78"/>
+        <v>4.5644599303135891</v>
+      </c>
+      <c r="N655" s="4">
+        <f t="shared" si="79"/>
+        <v>1497.0731707317073</v>
+      </c>
+      <c r="P655" s="2">
+        <v>651</v>
+      </c>
+      <c r="Q655" s="6">
+        <f t="shared" si="80"/>
+        <v>433.63</v>
+      </c>
+      <c r="R655" s="6">
+        <f t="shared" si="84"/>
+        <v>1.320000000000001</v>
+      </c>
+      <c r="S655" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q655),2)</f>
+        <v>95411.8</v>
+      </c>
+      <c r="T655" s="5">
+        <f t="shared" si="81"/>
+        <v>1910236</v>
+      </c>
+      <c r="U655">
+        <f t="shared" si="82"/>
+        <v>0.45607735193052695</v>
+      </c>
+    </row>
+    <row r="656" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J656" s="2">
+        <v>652</v>
+      </c>
+      <c r="K656" s="1">
+        <f t="shared" si="83"/>
+        <v>131200</v>
+      </c>
+      <c r="L656" s="1">
+        <f>SUM($K$5:K656)</f>
+        <v>43097200</v>
+      </c>
+      <c r="M656" s="3">
+        <f t="shared" si="78"/>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="N656" s="4">
+        <f t="shared" si="79"/>
+        <v>1501.6445993031359</v>
+      </c>
+      <c r="P656" s="2">
+        <v>652</v>
+      </c>
+      <c r="Q656" s="6">
+        <f t="shared" si="80"/>
+        <v>434.95</v>
+      </c>
+      <c r="R656" s="6">
+        <f t="shared" si="84"/>
+        <v>1.322000000000001</v>
+      </c>
+      <c r="S656" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q656),2)</f>
+        <v>95846.75</v>
+      </c>
+      <c r="T656" s="5">
+        <f t="shared" si="81"/>
+        <v>1918935</v>
+      </c>
+      <c r="U656">
+        <f t="shared" si="82"/>
+        <v>0.455388758247672</v>
+      </c>
+    </row>
+    <row r="657" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J657" s="2">
+        <v>653</v>
+      </c>
+      <c r="K657" s="1">
+        <f t="shared" si="83"/>
+        <v>131400</v>
+      </c>
+      <c r="L657" s="1">
+        <f>SUM($K$5:K657)</f>
+        <v>43228600</v>
+      </c>
+      <c r="M657" s="3">
+        <f t="shared" si="78"/>
+        <v>4.5783972125435541</v>
+      </c>
+      <c r="N657" s="4">
+        <f t="shared" si="79"/>
+        <v>1506.2229965156794</v>
+      </c>
+      <c r="P657" s="2">
+        <v>653</v>
+      </c>
+      <c r="Q657" s="6">
+        <f t="shared" si="80"/>
+        <v>436.27</v>
+      </c>
+      <c r="R657" s="6">
+        <f t="shared" si="84"/>
+        <v>1.324000000000001</v>
+      </c>
+      <c r="S657" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q657),2)</f>
+        <v>96283.02</v>
+      </c>
+      <c r="T657" s="5">
+        <f t="shared" si="81"/>
+        <v>1927660.4</v>
+      </c>
+      <c r="U657">
+        <f t="shared" si="82"/>
+        <v>0.45470013314676666</v>
+      </c>
+    </row>
+    <row r="658" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J658" s="2">
+        <v>654</v>
+      </c>
+      <c r="K658" s="1">
+        <f t="shared" si="83"/>
+        <v>131600</v>
+      </c>
+      <c r="L658" s="1">
+        <f>SUM($K$5:K658)</f>
+        <v>43360200</v>
+      </c>
+      <c r="M658" s="3">
+        <f t="shared" si="78"/>
+        <v>4.5853658536585362</v>
+      </c>
+      <c r="N658" s="4">
+        <f t="shared" si="79"/>
+        <v>1510.8083623693381</v>
+      </c>
+      <c r="P658" s="2">
+        <v>654</v>
+      </c>
+      <c r="Q658" s="6">
+        <f t="shared" si="80"/>
+        <v>437.59</v>
+      </c>
+      <c r="R658" s="6">
+        <f t="shared" si="84"/>
+        <v>1.326000000000001</v>
+      </c>
+      <c r="S658" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q658),2)</f>
+        <v>96720.61</v>
+      </c>
+      <c r="T658" s="5">
+        <f t="shared" si="81"/>
+        <v>1936412.2</v>
+      </c>
+      <c r="U658">
+        <f t="shared" si="82"/>
+        <v>0.45401150534606854</v>
+      </c>
+    </row>
+    <row r="659" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J659" s="2">
+        <v>655</v>
+      </c>
+      <c r="K659" s="1">
+        <f t="shared" si="83"/>
+        <v>131800</v>
+      </c>
+      <c r="L659" s="1">
+        <f>SUM($K$5:K659)</f>
+        <v>43492000</v>
+      </c>
+      <c r="M659" s="3">
+        <f t="shared" si="78"/>
+        <v>4.5923344947735192</v>
+      </c>
+      <c r="N659" s="4">
+        <f t="shared" si="79"/>
+        <v>1515.4006968641115</v>
+      </c>
+      <c r="P659" s="2">
+        <v>655</v>
+      </c>
+      <c r="Q659" s="6">
+        <f t="shared" si="80"/>
+        <v>438.91</v>
+      </c>
+      <c r="R659" s="6">
+        <f t="shared" si="84"/>
+        <v>1.328000000000001</v>
+      </c>
+      <c r="S659" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q659),2)</f>
+        <v>97159.52</v>
+      </c>
+      <c r="T659" s="5">
+        <f t="shared" si="81"/>
+        <v>1945190.3999999999</v>
+      </c>
+      <c r="U659">
+        <f t="shared" si="82"/>
+        <v>0.45332290304718975</v>
+      </c>
+    </row>
+    <row r="660" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J660" s="2">
+        <v>656</v>
+      </c>
+      <c r="K660" s="1">
+        <f t="shared" si="83"/>
+        <v>132000</v>
+      </c>
+      <c r="L660" s="1">
+        <f>SUM($K$5:K660)</f>
+        <v>43624000</v>
+      </c>
+      <c r="M660" s="3">
+        <f t="shared" si="78"/>
+        <v>4.5993031358885021</v>
+      </c>
+      <c r="N660" s="4">
+        <f t="shared" si="79"/>
+        <v>1520</v>
+      </c>
+      <c r="P660" s="2">
+        <v>656</v>
+      </c>
+      <c r="Q660" s="6">
+        <f t="shared" si="80"/>
+        <v>440.24</v>
+      </c>
+      <c r="R660" s="6">
+        <f t="shared" si="84"/>
+        <v>1.330000000000001</v>
+      </c>
+      <c r="S660" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q660),2)</f>
+        <v>97599.76</v>
+      </c>
+      <c r="T660" s="5">
+        <f t="shared" si="81"/>
+        <v>1953995.2</v>
+      </c>
+      <c r="U660">
+        <f t="shared" si="82"/>
+        <v>0.45264463571278402</v>
+      </c>
+    </row>
+    <row r="661" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J661" s="2">
+        <v>657</v>
+      </c>
+      <c r="K661" s="1">
+        <f t="shared" si="83"/>
+        <v>132200</v>
+      </c>
+      <c r="L661" s="1">
+        <f>SUM($K$5:K661)</f>
+        <v>43756200</v>
+      </c>
+      <c r="M661" s="3">
+        <f t="shared" si="78"/>
+        <v>4.6062717770034842</v>
+      </c>
+      <c r="N661" s="4">
+        <f t="shared" si="79"/>
+        <v>1524.6062717770035</v>
+      </c>
+      <c r="P661" s="2">
+        <v>657</v>
+      </c>
+      <c r="Q661" s="6">
+        <f t="shared" si="80"/>
+        <v>441.57</v>
+      </c>
+      <c r="R661" s="6">
+        <f t="shared" si="84"/>
+        <v>1.332000000000001</v>
+      </c>
+      <c r="S661" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q661),2)</f>
+        <v>98041.33</v>
+      </c>
+      <c r="T661" s="5">
+        <f t="shared" si="81"/>
+        <v>1962826.6</v>
+      </c>
+      <c r="U661">
+        <f t="shared" si="82"/>
+        <v>0.45196630984559943</v>
+      </c>
+    </row>
+    <row r="662" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J662" s="2">
+        <v>658</v>
+      </c>
+      <c r="K662" s="1">
+        <f t="shared" si="83"/>
+        <v>132400</v>
+      </c>
+      <c r="L662" s="1">
+        <f>SUM($K$5:K662)</f>
+        <v>43888600</v>
+      </c>
+      <c r="M662" s="3">
+        <f t="shared" si="78"/>
+        <v>4.6132404181184672</v>
+      </c>
+      <c r="N662" s="4">
+        <f t="shared" si="79"/>
+        <v>1529.219512195122</v>
+      </c>
+      <c r="P662" s="2">
+        <v>658</v>
+      </c>
+      <c r="Q662" s="6">
+        <f t="shared" si="80"/>
+        <v>442.9</v>
+      </c>
+      <c r="R662" s="6">
+        <f t="shared" si="84"/>
+        <v>1.334000000000001</v>
+      </c>
+      <c r="S662" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q662),2)</f>
+        <v>98484.23</v>
+      </c>
+      <c r="T662" s="5">
+        <f t="shared" si="81"/>
+        <v>1971684.6</v>
+      </c>
+      <c r="U662">
+        <f t="shared" si="82"/>
+        <v>0.45128795381110082</v>
+      </c>
+    </row>
+    <row r="663" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J663" s="2">
+        <v>659</v>
+      </c>
+      <c r="K663" s="1">
+        <f t="shared" si="83"/>
+        <v>132600</v>
+      </c>
+      <c r="L663" s="1">
+        <f>SUM($K$5:K663)</f>
+        <v>44021200</v>
+      </c>
+      <c r="M663" s="3">
+        <f t="shared" si="78"/>
+        <v>4.6202090592334493</v>
+      </c>
+      <c r="N663" s="4">
+        <f t="shared" si="79"/>
+        <v>1533.8397212543555</v>
+      </c>
+      <c r="P663" s="2">
+        <v>659</v>
+      </c>
+      <c r="Q663" s="6">
+        <f t="shared" si="80"/>
+        <v>444.23</v>
+      </c>
+      <c r="R663" s="6">
+        <f t="shared" si="84"/>
+        <v>1.336000000000001</v>
+      </c>
+      <c r="S663" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q663),2)</f>
+        <v>98928.46</v>
+      </c>
+      <c r="T663" s="5">
+        <f t="shared" si="81"/>
+        <v>1980569.2</v>
+      </c>
+      <c r="U663">
+        <f t="shared" si="82"/>
+        <v>0.45060959546977547</v>
+      </c>
+    </row>
+    <row r="664" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J664" s="2">
+        <v>660</v>
+      </c>
+      <c r="K664" s="1">
+        <f t="shared" si="83"/>
+        <v>132800</v>
+      </c>
+      <c r="L664" s="1">
+        <f>SUM($K$5:K664)</f>
+        <v>44154000</v>
+      </c>
+      <c r="M664" s="3">
+        <f t="shared" si="78"/>
+        <v>4.6271777003484322</v>
+      </c>
+      <c r="N664" s="4">
+        <f t="shared" si="79"/>
+        <v>1538.4668989547038</v>
+      </c>
+      <c r="P664" s="2">
+        <v>660</v>
+      </c>
+      <c r="Q664" s="6">
+        <f t="shared" si="80"/>
+        <v>445.56</v>
+      </c>
+      <c r="R664" s="6">
+        <f t="shared" si="84"/>
+        <v>1.338000000000001</v>
+      </c>
+      <c r="S664" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q664),2)</f>
+        <v>99374.02</v>
+      </c>
+      <c r="T664" s="5">
+        <f t="shared" si="81"/>
+        <v>1989480.4</v>
+      </c>
+      <c r="U664">
+        <f t="shared" si="82"/>
+        <v>0.4499312621846262</v>
+      </c>
+    </row>
+    <row r="665" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J665" s="2">
+        <v>661</v>
+      </c>
+      <c r="K665" s="1">
+        <f t="shared" si="83"/>
+        <v>133000</v>
+      </c>
+      <c r="L665" s="1">
+        <f>SUM($K$5:K665)</f>
+        <v>44287000</v>
+      </c>
+      <c r="M665" s="3">
+        <f t="shared" si="78"/>
+        <v>4.6341463414634143</v>
+      </c>
+      <c r="N665" s="4">
+        <f t="shared" si="79"/>
+        <v>1543.1010452961673</v>
+      </c>
+      <c r="P665" s="2">
+        <v>661</v>
+      </c>
+      <c r="Q665" s="6">
+        <f t="shared" si="80"/>
+        <v>446.9</v>
+      </c>
+      <c r="R665" s="6">
+        <f t="shared" si="84"/>
+        <v>1.340000000000001</v>
+      </c>
+      <c r="S665" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q665),2)</f>
+        <v>99820.92</v>
+      </c>
+      <c r="T665" s="5">
+        <f t="shared" si="81"/>
+        <v>1998418.4</v>
+      </c>
+      <c r="U665">
+        <f t="shared" si="82"/>
+        <v>0.44926303370467996</v>
+      </c>
+    </row>
+    <row r="666" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J666" s="2">
+        <v>662</v>
+      </c>
+      <c r="K666" s="1">
+        <f t="shared" si="83"/>
+        <v>133200</v>
+      </c>
+      <c r="L666" s="1">
+        <f>SUM($K$5:K666)</f>
+        <v>44420200</v>
+      </c>
+      <c r="M666" s="3">
+        <f t="shared" si="78"/>
+        <v>4.6411149825783973</v>
+      </c>
+      <c r="N666" s="4">
+        <f t="shared" si="79"/>
+        <v>1547.7421602787456</v>
+      </c>
+      <c r="P666" s="2">
+        <v>662</v>
+      </c>
+      <c r="Q666" s="6">
+        <f t="shared" si="80"/>
+        <v>448.24</v>
+      </c>
+      <c r="R666" s="6">
+        <f t="shared" si="84"/>
+        <v>1.342000000000001</v>
+      </c>
+      <c r="S666" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q666),2)</f>
+        <v>100269.16</v>
+      </c>
+      <c r="T666" s="5">
+        <f t="shared" si="81"/>
+        <v>2007383.2</v>
+      </c>
+      <c r="U666">
+        <f t="shared" si="82"/>
+        <v>0.44859474872729588</v>
+      </c>
+    </row>
+    <row r="667" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J667" s="2">
+        <v>663</v>
+      </c>
+      <c r="K667" s="1">
+        <f t="shared" si="83"/>
+        <v>133400</v>
+      </c>
+      <c r="L667" s="1">
+        <f>SUM($K$5:K667)</f>
+        <v>44553600</v>
+      </c>
+      <c r="M667" s="3">
+        <f t="shared" si="78"/>
+        <v>4.6480836236933794</v>
+      </c>
+      <c r="N667" s="4">
+        <f t="shared" si="79"/>
+        <v>1552.3902439024391</v>
+      </c>
+      <c r="P667" s="2">
+        <v>663</v>
+      </c>
+      <c r="Q667" s="6">
+        <f t="shared" si="80"/>
+        <v>449.58</v>
+      </c>
+      <c r="R667" s="6">
+        <f t="shared" si="84"/>
+        <v>1.344000000000001</v>
+      </c>
+      <c r="S667" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q667),2)</f>
+        <v>100718.74</v>
+      </c>
+      <c r="T667" s="5">
+        <f t="shared" si="81"/>
+        <v>2016374.8</v>
+      </c>
+      <c r="U667">
+        <f t="shared" si="82"/>
+        <v>0.44792643477339522</v>
+      </c>
+    </row>
+    <row r="668" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J668" s="2">
+        <v>664</v>
+      </c>
+      <c r="K668" s="1">
+        <f t="shared" si="83"/>
+        <v>133600</v>
+      </c>
+      <c r="L668" s="1">
+        <f>SUM($K$5:K668)</f>
+        <v>44687200</v>
+      </c>
+      <c r="M668" s="3">
+        <f t="shared" si="78"/>
+        <v>4.6550522648083623</v>
+      </c>
+      <c r="N668" s="4">
+        <f t="shared" si="79"/>
+        <v>1557.0452961672474</v>
+      </c>
+      <c r="P668" s="2">
+        <v>664</v>
+      </c>
+      <c r="Q668" s="6">
+        <f t="shared" si="80"/>
+        <v>450.92</v>
+      </c>
+      <c r="R668" s="6">
+        <f t="shared" si="84"/>
+        <v>1.346000000000001</v>
+      </c>
+      <c r="S668" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q668),2)</f>
+        <v>101169.66</v>
+      </c>
+      <c r="T668" s="5">
+        <f t="shared" si="81"/>
+        <v>2025393.2</v>
+      </c>
+      <c r="U668">
+        <f t="shared" si="82"/>
+        <v>0.44725811887749772</v>
+      </c>
+    </row>
+    <row r="669" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J669" s="2">
+        <v>665</v>
+      </c>
+      <c r="K669" s="1">
+        <f t="shared" si="83"/>
+        <v>133800</v>
+      </c>
+      <c r="L669" s="1">
+        <f>SUM($K$5:K669)</f>
+        <v>44821000</v>
+      </c>
+      <c r="M669" s="3">
+        <f t="shared" ref="M669:M704" si="85">K669/$H$94</f>
+        <v>4.6620209059233453</v>
+      </c>
+      <c r="N669" s="4">
+        <f t="shared" ref="N669:N704" si="86">L669/$H$94</f>
+        <v>1561.7073170731708</v>
+      </c>
+      <c r="P669" s="2">
+        <v>665</v>
+      </c>
+      <c r="Q669" s="6">
+        <f t="shared" ref="Q669:Q704" si="87">ROUNDDOWN(Q668+R669,2)</f>
+        <v>452.26</v>
+      </c>
+      <c r="R669" s="6">
+        <f t="shared" si="84"/>
+        <v>1.348000000000001</v>
+      </c>
+      <c r="S669" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q669),2)</f>
+        <v>101621.92</v>
+      </c>
+      <c r="T669" s="5">
+        <f t="shared" ref="T669:T704" si="88">$T$3*(100+S669)/100</f>
+        <v>2034438.4</v>
+      </c>
+      <c r="U669">
+        <f t="shared" ref="U669:U704" si="89">((T669-T668)/T668)*100</f>
+        <v>0.44658982759495558</v>
+      </c>
+    </row>
+    <row r="670" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J670" s="2">
+        <v>666</v>
+      </c>
+      <c r="K670" s="1">
+        <f t="shared" si="83"/>
+        <v>134000</v>
+      </c>
+      <c r="L670" s="1">
+        <f>SUM($K$5:K670)</f>
+        <v>44955000</v>
+      </c>
+      <c r="M670" s="3">
+        <f t="shared" si="85"/>
+        <v>4.6689895470383274</v>
+      </c>
+      <c r="N670" s="4">
+        <f t="shared" si="86"/>
+        <v>1566.3763066202091</v>
+      </c>
+      <c r="P670" s="2">
+        <v>666</v>
+      </c>
+      <c r="Q670" s="6">
+        <f t="shared" si="87"/>
+        <v>453.61</v>
+      </c>
+      <c r="R670" s="6">
+        <f t="shared" si="84"/>
+        <v>1.350000000000001</v>
+      </c>
+      <c r="S670" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q670),2)</f>
+        <v>102075.53</v>
+      </c>
+      <c r="T670" s="5">
+        <f t="shared" si="88"/>
+        <v>2043510.6</v>
+      </c>
+      <c r="U670">
+        <f t="shared" si="89"/>
+        <v>0.44593141773180184</v>
+      </c>
+    </row>
+    <row r="671" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J671" s="2">
+        <v>667</v>
+      </c>
+      <c r="K671" s="1">
+        <f t="shared" si="83"/>
+        <v>134200</v>
+      </c>
+      <c r="L671" s="1">
+        <f>SUM($K$5:K671)</f>
+        <v>45089200</v>
+      </c>
+      <c r="M671" s="3">
+        <f t="shared" si="85"/>
+        <v>4.6759581881533103</v>
+      </c>
+      <c r="N671" s="4">
+        <f t="shared" si="86"/>
+        <v>1571.0522648083625</v>
+      </c>
+      <c r="P671" s="2">
+        <v>667</v>
+      </c>
+      <c r="Q671" s="6">
+        <f t="shared" si="87"/>
+        <v>454.96</v>
+      </c>
+      <c r="R671" s="6">
+        <f t="shared" si="84"/>
+        <v>1.352000000000001</v>
+      </c>
+      <c r="S671" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q671),2)</f>
+        <v>102530.49</v>
+      </c>
+      <c r="T671" s="5">
+        <f t="shared" si="88"/>
+        <v>2052609.8</v>
+      </c>
+      <c r="U671">
+        <f t="shared" si="89"/>
+        <v>0.44527295331866412</v>
+      </c>
+    </row>
+    <row r="672" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J672" s="2">
+        <v>668</v>
+      </c>
+      <c r="K672" s="1">
+        <f t="shared" si="83"/>
+        <v>134400</v>
+      </c>
+      <c r="L672" s="1">
+        <f>SUM($K$5:K672)</f>
+        <v>45223600</v>
+      </c>
+      <c r="M672" s="3">
+        <f t="shared" si="85"/>
+        <v>4.6829268292682924</v>
+      </c>
+      <c r="N672" s="4">
+        <f t="shared" si="86"/>
+        <v>1575.7351916376306</v>
+      </c>
+      <c r="P672" s="2">
+        <v>668</v>
+      </c>
+      <c r="Q672" s="6">
+        <f t="shared" si="87"/>
+        <v>456.31</v>
+      </c>
+      <c r="R672" s="6">
+        <f t="shared" si="84"/>
+        <v>1.354000000000001</v>
+      </c>
+      <c r="S672" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q672),2)</f>
+        <v>102986.8</v>
+      </c>
+      <c r="T672" s="5">
+        <f t="shared" si="88"/>
+        <v>2061736</v>
+      </c>
+      <c r="U672">
+        <f t="shared" si="89"/>
+        <v>0.44461446106317692</v>
+      </c>
+    </row>
+    <row r="673" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J673" s="2">
+        <v>669</v>
+      </c>
+      <c r="K673" s="1">
+        <f t="shared" si="83"/>
+        <v>134600</v>
+      </c>
+      <c r="L673" s="1">
+        <f>SUM($K$5:K673)</f>
+        <v>45358200</v>
+      </c>
+      <c r="M673" s="3">
+        <f t="shared" si="85"/>
+        <v>4.6898954703832754</v>
+      </c>
+      <c r="N673" s="4">
+        <f t="shared" si="86"/>
+        <v>1580.4250871080139</v>
+      </c>
+      <c r="P673" s="2">
+        <v>669</v>
+      </c>
+      <c r="Q673" s="6">
+        <f t="shared" si="87"/>
+        <v>457.66</v>
+      </c>
+      <c r="R673" s="6">
+        <f t="shared" si="84"/>
+        <v>1.356000000000001</v>
+      </c>
+      <c r="S673" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q673),2)</f>
+        <v>103444.46</v>
+      </c>
+      <c r="T673" s="5">
+        <f t="shared" si="88"/>
+        <v>2070889.2</v>
+      </c>
+      <c r="U673">
+        <f t="shared" si="89"/>
+        <v>0.44395596720433428</v>
+      </c>
+    </row>
+    <row r="674" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J674" s="2">
+        <v>670</v>
+      </c>
+      <c r="K674" s="1">
+        <f t="shared" si="83"/>
+        <v>134800</v>
+      </c>
+      <c r="L674" s="1">
+        <f>SUM($K$5:K674)</f>
+        <v>45493000</v>
+      </c>
+      <c r="M674" s="3">
+        <f t="shared" si="85"/>
+        <v>4.6968641114982574</v>
+      </c>
+      <c r="N674" s="4">
+        <f t="shared" si="86"/>
+        <v>1585.1219512195121</v>
+      </c>
+      <c r="P674" s="2">
+        <v>670</v>
+      </c>
+      <c r="Q674" s="6">
+        <f t="shared" si="87"/>
+        <v>459.01</v>
+      </c>
+      <c r="R674" s="6">
+        <f t="shared" si="84"/>
+        <v>1.358000000000001</v>
+      </c>
+      <c r="S674" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q674),2)</f>
+        <v>103903.47</v>
+      </c>
+      <c r="T674" s="5">
+        <f t="shared" si="88"/>
+        <v>2080069.4</v>
+      </c>
+      <c r="U674">
+        <f t="shared" si="89"/>
+        <v>0.44329749751942082</v>
+      </c>
+    </row>
+    <row r="675" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J675" s="2">
+        <v>671</v>
+      </c>
+      <c r="K675" s="1">
+        <f t="shared" si="83"/>
+        <v>135000</v>
+      </c>
+      <c r="L675" s="1">
+        <f>SUM($K$5:K675)</f>
+        <v>45628000</v>
+      </c>
+      <c r="M675" s="3">
+        <f t="shared" si="85"/>
+        <v>4.7038327526132404</v>
+      </c>
+      <c r="N675" s="4">
+        <f t="shared" si="86"/>
+        <v>1589.8257839721255</v>
+      </c>
+      <c r="P675" s="2">
+        <v>671</v>
+      </c>
+      <c r="Q675" s="6">
+        <f t="shared" si="87"/>
+        <v>460.37</v>
+      </c>
+      <c r="R675" s="6">
+        <f t="shared" si="84"/>
+        <v>1.360000000000001</v>
+      </c>
+      <c r="S675" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q675),2)</f>
+        <v>104363.84</v>
+      </c>
+      <c r="T675" s="5">
+        <f t="shared" si="88"/>
+        <v>2089276.8</v>
+      </c>
+      <c r="U675">
+        <f t="shared" si="89"/>
+        <v>0.44264869239459703</v>
+      </c>
+    </row>
+    <row r="676" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J676" s="2">
+        <v>672</v>
+      </c>
+      <c r="K676" s="1">
+        <f t="shared" si="83"/>
+        <v>135200</v>
+      </c>
+      <c r="L676" s="1">
+        <f>SUM($K$5:K676)</f>
+        <v>45763200</v>
+      </c>
+      <c r="M676" s="3">
+        <f t="shared" si="85"/>
+        <v>4.7108013937282234</v>
+      </c>
+      <c r="N676" s="4">
+        <f t="shared" si="86"/>
+        <v>1594.5365853658536</v>
+      </c>
+      <c r="P676" s="2">
+        <v>672</v>
+      </c>
+      <c r="Q676" s="6">
+        <f t="shared" si="87"/>
+        <v>461.73</v>
+      </c>
+      <c r="R676" s="6">
+        <f t="shared" si="84"/>
+        <v>1.362000000000001</v>
+      </c>
+      <c r="S676" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q676),2)</f>
+        <v>104825.57</v>
+      </c>
+      <c r="T676" s="5">
+        <f t="shared" si="88"/>
+        <v>2098511.4</v>
+      </c>
+      <c r="U676">
+        <f t="shared" si="89"/>
+        <v>0.44199983458390291</v>
+      </c>
+    </row>
+    <row r="677" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J677" s="2">
+        <v>673</v>
+      </c>
+      <c r="K677" s="1">
+        <f t="shared" si="83"/>
+        <v>135400</v>
+      </c>
+      <c r="L677" s="1">
+        <f>SUM($K$5:K677)</f>
+        <v>45898600</v>
+      </c>
+      <c r="M677" s="3">
+        <f t="shared" si="85"/>
+        <v>4.7177700348432055</v>
+      </c>
+      <c r="N677" s="4">
+        <f t="shared" si="86"/>
+        <v>1599.2543554006968</v>
+      </c>
+      <c r="P677" s="2">
+        <v>673</v>
+      </c>
+      <c r="Q677" s="6">
+        <f t="shared" si="87"/>
+        <v>463.09</v>
+      </c>
+      <c r="R677" s="6">
+        <f t="shared" si="84"/>
+        <v>1.364000000000001</v>
+      </c>
+      <c r="S677" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q677),2)</f>
+        <v>105288.66</v>
+      </c>
+      <c r="T677" s="5">
+        <f t="shared" si="88"/>
+        <v>2107773.2000000002</v>
+      </c>
+      <c r="U677">
+        <f t="shared" si="89"/>
+        <v>0.44135095001153107</v>
+      </c>
+    </row>
+    <row r="678" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J678" s="2">
+        <v>674</v>
+      </c>
+      <c r="K678" s="1">
+        <f t="shared" si="83"/>
+        <v>135600</v>
+      </c>
+      <c r="L678" s="1">
+        <f>SUM($K$5:K678)</f>
+        <v>46034200</v>
+      </c>
+      <c r="M678" s="3">
+        <f t="shared" si="85"/>
+        <v>4.7247386759581884</v>
+      </c>
+      <c r="N678" s="4">
+        <f t="shared" si="86"/>
+        <v>1603.979094076655</v>
+      </c>
+      <c r="P678" s="2">
+        <v>674</v>
+      </c>
+      <c r="Q678" s="6">
+        <f t="shared" si="87"/>
+        <v>464.45</v>
+      </c>
+      <c r="R678" s="6">
+        <f t="shared" si="84"/>
+        <v>1.366000000000001</v>
+      </c>
+      <c r="S678" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q678),2)</f>
+        <v>105753.11</v>
+      </c>
+      <c r="T678" s="5">
+        <f t="shared" si="88"/>
+        <v>2117062.2000000002</v>
+      </c>
+      <c r="U678">
+        <f t="shared" si="89"/>
+        <v>0.44070206414997587</v>
+      </c>
+    </row>
+    <row r="679" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J679" s="2">
+        <v>675</v>
+      </c>
+      <c r="K679" s="1">
+        <f t="shared" si="83"/>
+        <v>135800</v>
+      </c>
+      <c r="L679" s="1">
+        <f>SUM($K$5:K679)</f>
+        <v>46170000</v>
+      </c>
+      <c r="M679" s="3">
+        <f t="shared" si="85"/>
+        <v>4.7317073170731705</v>
+      </c>
+      <c r="N679" s="4">
+        <f t="shared" si="86"/>
+        <v>1608.7108013937282</v>
+      </c>
+      <c r="P679" s="2">
+        <v>675</v>
+      </c>
+      <c r="Q679" s="6">
+        <f t="shared" si="87"/>
+        <v>465.81</v>
+      </c>
+      <c r="R679" s="6">
+        <f t="shared" si="84"/>
+        <v>1.368000000000001</v>
+      </c>
+      <c r="S679" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q679),2)</f>
+        <v>106218.92</v>
+      </c>
+      <c r="T679" s="5">
+        <f t="shared" si="88"/>
+        <v>2126378.4</v>
+      </c>
+      <c r="U679">
+        <f t="shared" si="89"/>
+        <v>0.44005320202683318</v>
+      </c>
+    </row>
+    <row r="680" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J680" s="2">
+        <v>676</v>
+      </c>
+      <c r="K680" s="1">
+        <f t="shared" si="83"/>
+        <v>136000</v>
+      </c>
+      <c r="L680" s="1">
+        <f>SUM($K$5:K680)</f>
+        <v>46306000</v>
+      </c>
+      <c r="M680" s="3">
+        <f t="shared" si="85"/>
+        <v>4.7386759581881535</v>
+      </c>
+      <c r="N680" s="4">
+        <f t="shared" si="86"/>
+        <v>1613.4494773519164</v>
+      </c>
+      <c r="P680" s="2">
+        <v>676</v>
+      </c>
+      <c r="Q680" s="6">
+        <f t="shared" si="87"/>
+        <v>467.18</v>
+      </c>
+      <c r="R680" s="6">
+        <f t="shared" si="84"/>
+        <v>1.370000000000001</v>
+      </c>
+      <c r="S680" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q680),2)</f>
+        <v>106686.1</v>
+      </c>
+      <c r="T680" s="5">
+        <f t="shared" si="88"/>
+        <v>2135722</v>
+      </c>
+      <c r="U680">
+        <f t="shared" si="89"/>
+        <v>0.43941379389482577</v>
+      </c>
+    </row>
+    <row r="681" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J681" s="2">
+        <v>677</v>
+      </c>
+      <c r="K681" s="1">
+        <f t="shared" si="83"/>
+        <v>136200</v>
+      </c>
+      <c r="L681" s="1">
+        <f>SUM($K$5:K681)</f>
+        <v>46442200</v>
+      </c>
+      <c r="M681" s="3">
+        <f t="shared" si="85"/>
+        <v>4.7456445993031355</v>
+      </c>
+      <c r="N681" s="4">
+        <f t="shared" si="86"/>
+        <v>1618.1951219512196</v>
+      </c>
+      <c r="P681" s="2">
+        <v>677</v>
+      </c>
+      <c r="Q681" s="6">
+        <f t="shared" si="87"/>
+        <v>468.55</v>
+      </c>
+      <c r="R681" s="6">
+        <f t="shared" si="84"/>
+        <v>1.372000000000001</v>
+      </c>
+      <c r="S681" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q681),2)</f>
+        <v>107154.65</v>
+      </c>
+      <c r="T681" s="5">
+        <f t="shared" si="88"/>
+        <v>2145093</v>
+      </c>
+      <c r="U681">
+        <f t="shared" si="89"/>
+        <v>0.43877433486193429</v>
+      </c>
+    </row>
+    <row r="682" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J682" s="2">
+        <v>678</v>
+      </c>
+      <c r="K682" s="1">
+        <f t="shared" si="83"/>
+        <v>136400</v>
+      </c>
+      <c r="L682" s="1">
+        <f>SUM($K$5:K682)</f>
+        <v>46578600</v>
+      </c>
+      <c r="M682" s="3">
+        <f t="shared" si="85"/>
+        <v>4.7526132404181185</v>
+      </c>
+      <c r="N682" s="4">
+        <f t="shared" si="86"/>
+        <v>1622.9477351916375</v>
+      </c>
+      <c r="P682" s="2">
+        <v>678</v>
+      </c>
+      <c r="Q682" s="6">
+        <f t="shared" si="87"/>
+        <v>469.92</v>
+      </c>
+      <c r="R682" s="6">
+        <f t="shared" si="84"/>
+        <v>1.374000000000001</v>
+      </c>
+      <c r="S682" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q682),2)</f>
+        <v>107624.57</v>
+      </c>
+      <c r="T682" s="5">
+        <f t="shared" si="88"/>
+        <v>2154491.4</v>
+      </c>
+      <c r="U682">
+        <f t="shared" si="89"/>
+        <v>0.43813485009740405</v>
+      </c>
+    </row>
+    <row r="683" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J683" s="2">
+        <v>679</v>
+      </c>
+      <c r="K683" s="1">
+        <f t="shared" si="83"/>
+        <v>136600</v>
+      </c>
+      <c r="L683" s="1">
+        <f>SUM($K$5:K683)</f>
+        <v>46715200</v>
+      </c>
+      <c r="M683" s="3">
+        <f t="shared" si="85"/>
+        <v>4.7595818815331015</v>
+      </c>
+      <c r="N683" s="4">
+        <f t="shared" si="86"/>
+        <v>1627.7073170731708</v>
+      </c>
+      <c r="P683" s="2">
+        <v>679</v>
+      </c>
+      <c r="Q683" s="6">
+        <f t="shared" si="87"/>
+        <v>471.29</v>
+      </c>
+      <c r="R683" s="6">
+        <f t="shared" si="84"/>
+        <v>1.376000000000001</v>
+      </c>
+      <c r="S683" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q683),2)</f>
+        <v>108095.86</v>
+      </c>
+      <c r="T683" s="5">
+        <f t="shared" si="88"/>
+        <v>2163917.2000000002</v>
+      </c>
+      <c r="U683">
+        <f t="shared" si="89"/>
+        <v>0.43749536433518743</v>
+      </c>
+    </row>
+    <row r="684" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J684" s="2">
+        <v>680</v>
+      </c>
+      <c r="K684" s="1">
+        <f t="shared" si="83"/>
+        <v>136800</v>
+      </c>
+      <c r="L684" s="1">
+        <f>SUM($K$5:K684)</f>
+        <v>46852000</v>
+      </c>
+      <c r="M684" s="3">
+        <f t="shared" si="85"/>
+        <v>4.7665505226480835</v>
+      </c>
+      <c r="N684" s="4">
+        <f t="shared" si="86"/>
+        <v>1632.4738675958188</v>
+      </c>
+      <c r="P684" s="2">
+        <v>680</v>
+      </c>
+      <c r="Q684" s="6">
+        <f t="shared" si="87"/>
+        <v>472.66</v>
+      </c>
+      <c r="R684" s="6">
+        <f t="shared" si="84"/>
+        <v>1.378000000000001</v>
+      </c>
+      <c r="S684" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q684),2)</f>
+        <v>108568.52</v>
+      </c>
+      <c r="T684" s="5">
+        <f t="shared" si="88"/>
+        <v>2173370.4</v>
+      </c>
+      <c r="U684">
+        <f t="shared" si="89"/>
+        <v>0.43685590188015144</v>
+      </c>
+    </row>
+    <row r="685" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J685" s="2">
+        <v>681</v>
+      </c>
+      <c r="K685" s="1">
+        <f t="shared" si="83"/>
+        <v>137000</v>
+      </c>
+      <c r="L685" s="1">
+        <f>SUM($K$5:K685)</f>
+        <v>46989000</v>
+      </c>
+      <c r="M685" s="3">
+        <f t="shared" si="85"/>
+        <v>4.7735191637630665</v>
+      </c>
+      <c r="N685" s="4">
+        <f t="shared" si="86"/>
+        <v>1637.2473867595818</v>
+      </c>
+      <c r="P685" s="2">
+        <v>681</v>
+      </c>
+      <c r="Q685" s="6">
+        <f t="shared" si="87"/>
+        <v>474.04</v>
+      </c>
+      <c r="R685" s="6">
+        <f t="shared" si="84"/>
+        <v>1.380000000000001</v>
+      </c>
+      <c r="S685" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q685),2)</f>
+        <v>109042.56</v>
+      </c>
+      <c r="T685" s="5">
+        <f t="shared" si="88"/>
+        <v>2182851.2000000002</v>
+      </c>
+      <c r="U685">
+        <f t="shared" si="89"/>
+        <v>0.4362256889115762</v>
+      </c>
+    </row>
+    <row r="686" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J686" s="2">
+        <v>682</v>
+      </c>
+      <c r="K686" s="1">
+        <f t="shared" si="83"/>
+        <v>137200</v>
+      </c>
+      <c r="L686" s="1">
+        <f>SUM($K$5:K686)</f>
+        <v>47126200</v>
+      </c>
+      <c r="M686" s="3">
+        <f t="shared" si="85"/>
+        <v>4.7804878048780486</v>
+      </c>
+      <c r="N686" s="4">
+        <f t="shared" si="86"/>
+        <v>1642.02787456446</v>
+      </c>
+      <c r="P686" s="2">
+        <v>682</v>
+      </c>
+      <c r="Q686" s="6">
+        <f t="shared" si="87"/>
+        <v>475.42</v>
+      </c>
+      <c r="R686" s="6">
+        <f t="shared" si="84"/>
+        <v>1.382000000000001</v>
+      </c>
+      <c r="S686" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q686),2)</f>
+        <v>109517.98</v>
+      </c>
+      <c r="T686" s="5">
+        <f t="shared" si="88"/>
+        <v>2192359.6</v>
+      </c>
+      <c r="U686">
+        <f t="shared" si="89"/>
+        <v>0.4355954267519429</v>
+      </c>
+    </row>
+    <row r="687" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J687" s="2">
+        <v>683</v>
+      </c>
+      <c r="K687" s="1">
+        <f t="shared" si="83"/>
+        <v>137400</v>
+      </c>
+      <c r="L687" s="1">
+        <f>SUM($K$5:K687)</f>
+        <v>47263600</v>
+      </c>
+      <c r="M687" s="3">
+        <f t="shared" si="85"/>
+        <v>4.7874564459930316</v>
+      </c>
+      <c r="N687" s="4">
+        <f t="shared" si="86"/>
+        <v>1646.8153310104531</v>
+      </c>
+      <c r="P687" s="2">
+        <v>683</v>
+      </c>
+      <c r="Q687" s="6">
+        <f t="shared" si="87"/>
+        <v>476.8</v>
+      </c>
+      <c r="R687" s="6">
+        <f t="shared" si="84"/>
+        <v>1.384000000000001</v>
+      </c>
+      <c r="S687" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q687),2)</f>
+        <v>109994.78</v>
+      </c>
+      <c r="T687" s="5">
+        <f t="shared" si="88"/>
+        <v>2201895.6</v>
+      </c>
+      <c r="U687">
+        <f t="shared" si="89"/>
+        <v>0.43496513984293456</v>
+      </c>
+    </row>
+    <row r="688" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J688" s="2">
+        <v>684</v>
+      </c>
+      <c r="K688" s="1">
+        <f t="shared" si="83"/>
+        <v>137600</v>
+      </c>
+      <c r="L688" s="1">
+        <f>SUM($K$5:K688)</f>
+        <v>47401200</v>
+      </c>
+      <c r="M688" s="3">
+        <f t="shared" si="85"/>
+        <v>4.7944250871080136</v>
+      </c>
+      <c r="N688" s="4">
+        <f t="shared" si="86"/>
+        <v>1651.6097560975609</v>
+      </c>
+      <c r="P688" s="2">
+        <v>684</v>
+      </c>
+      <c r="Q688" s="6">
+        <f t="shared" si="87"/>
+        <v>478.18</v>
+      </c>
+      <c r="R688" s="6">
+        <f t="shared" si="84"/>
+        <v>1.386000000000001</v>
+      </c>
+      <c r="S688" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q688),2)</f>
+        <v>110472.96000000001</v>
+      </c>
+      <c r="T688" s="5">
+        <f t="shared" si="88"/>
+        <v>2211459.2000000002</v>
+      </c>
+      <c r="U688">
+        <f t="shared" si="89"/>
+        <v>0.43433485220643947</v>
+      </c>
+    </row>
+    <row r="689" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J689" s="2">
+        <v>685</v>
+      </c>
+      <c r="K689" s="1">
+        <f t="shared" si="83"/>
+        <v>137800</v>
+      </c>
+      <c r="L689" s="1">
+        <f>SUM($K$5:K689)</f>
+        <v>47539000</v>
+      </c>
+      <c r="M689" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8013937282229966</v>
+      </c>
+      <c r="N689" s="4">
+        <f t="shared" si="86"/>
+        <v>1656.4111498257839</v>
+      </c>
+      <c r="P689" s="2">
+        <v>685</v>
+      </c>
+      <c r="Q689" s="6">
+        <f t="shared" si="87"/>
+        <v>479.56</v>
+      </c>
+      <c r="R689" s="6">
+        <f t="shared" si="84"/>
+        <v>1.388000000000001</v>
+      </c>
+      <c r="S689" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q689),2)</f>
+        <v>110952.52</v>
+      </c>
+      <c r="T689" s="5">
+        <f t="shared" si="88"/>
+        <v>2221050.4</v>
+      </c>
+      <c r="U689">
+        <f t="shared" si="89"/>
+        <v>0.43370458745066243</v>
+      </c>
+    </row>
+    <row r="690" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J690" s="2">
+        <v>686</v>
+      </c>
+      <c r="K690" s="1">
+        <f t="shared" si="83"/>
+        <v>138000</v>
+      </c>
+      <c r="L690" s="1">
+        <f>SUM($K$5:K690)</f>
+        <v>47677000</v>
+      </c>
+      <c r="M690" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8083623693379787</v>
+      </c>
+      <c r="N690" s="4">
+        <f t="shared" si="86"/>
+        <v>1661.219512195122</v>
+      </c>
+      <c r="P690" s="2">
+        <v>686</v>
+      </c>
+      <c r="Q690" s="6">
+        <f t="shared" si="87"/>
+        <v>480.95</v>
+      </c>
+      <c r="R690" s="6">
+        <f t="shared" si="84"/>
+        <v>1.390000000000001</v>
+      </c>
+      <c r="S690" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q690),2)</f>
+        <v>111433.47</v>
+      </c>
+      <c r="T690" s="5">
+        <f t="shared" si="88"/>
+        <v>2230669.4</v>
+      </c>
+      <c r="U690">
+        <f t="shared" si="89"/>
+        <v>0.43308337352452703</v>
+      </c>
+    </row>
+    <row r="691" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J691" s="2">
+        <v>687</v>
+      </c>
+      <c r="K691" s="1">
+        <f t="shared" si="83"/>
+        <v>138200</v>
+      </c>
+      <c r="L691" s="1">
+        <f>SUM($K$5:K691)</f>
+        <v>47815200</v>
+      </c>
+      <c r="M691" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8153310104529616</v>
+      </c>
+      <c r="N691" s="4">
+        <f t="shared" si="86"/>
+        <v>1666.0348432055748</v>
+      </c>
+      <c r="P691" s="2">
+        <v>687</v>
+      </c>
+      <c r="Q691" s="6">
+        <f t="shared" si="87"/>
+        <v>482.34</v>
+      </c>
+      <c r="R691" s="6">
+        <f t="shared" si="84"/>
+        <v>1.392000000000001</v>
+      </c>
+      <c r="S691" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q691),2)</f>
+        <v>111915.81</v>
+      </c>
+      <c r="T691" s="5">
+        <f t="shared" si="88"/>
+        <v>2240316.2000000002</v>
+      </c>
+      <c r="U691">
+        <f t="shared" si="89"/>
+        <v>0.43246211204584062</v>
+      </c>
+    </row>
+    <row r="692" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J692" s="2">
+        <v>688</v>
+      </c>
+      <c r="K692" s="1">
+        <f t="shared" si="83"/>
+        <v>138400</v>
+      </c>
+      <c r="L692" s="1">
+        <f>SUM($K$5:K692)</f>
+        <v>47953600</v>
+      </c>
+      <c r="M692" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8222996515679446</v>
+      </c>
+      <c r="N692" s="4">
+        <f t="shared" si="86"/>
+        <v>1670.8571428571429</v>
+      </c>
+      <c r="P692" s="2">
+        <v>688</v>
+      </c>
+      <c r="Q692" s="6">
+        <f t="shared" si="87"/>
+        <v>483.73</v>
+      </c>
+      <c r="R692" s="6">
+        <f t="shared" si="84"/>
+        <v>1.394000000000001</v>
+      </c>
+      <c r="S692" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q692),2)</f>
+        <v>112399.54</v>
+      </c>
+      <c r="T692" s="5">
+        <f t="shared" si="88"/>
+        <v>2249990.7999999998</v>
+      </c>
+      <c r="U692">
+        <f t="shared" si="89"/>
+        <v>0.43184082675470664</v>
+      </c>
+    </row>
+    <row r="693" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J693" s="2">
+        <v>689</v>
+      </c>
+      <c r="K693" s="1">
+        <f t="shared" si="83"/>
+        <v>138600</v>
+      </c>
+      <c r="L693" s="1">
+        <f>SUM($K$5:K693)</f>
+        <v>48092200</v>
+      </c>
+      <c r="M693" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8292682926829267</v>
+      </c>
+      <c r="N693" s="4">
+        <f t="shared" si="86"/>
+        <v>1675.6864111498257</v>
+      </c>
+      <c r="P693" s="2">
+        <v>689</v>
+      </c>
+      <c r="Q693" s="6">
+        <f t="shared" si="87"/>
+        <v>485.12</v>
+      </c>
+      <c r="R693" s="6">
+        <f t="shared" si="84"/>
+        <v>1.396000000000001</v>
+      </c>
+      <c r="S693" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q693),2)</f>
+        <v>112884.66</v>
+      </c>
+      <c r="T693" s="5">
+        <f t="shared" si="88"/>
+        <v>2259693.2000000002</v>
+      </c>
+      <c r="U693">
+        <f t="shared" si="89"/>
+        <v>0.43121954098658422</v>
+      </c>
+    </row>
+    <row r="694" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J694" s="2">
+        <v>690</v>
+      </c>
+      <c r="K694" s="1">
+        <f t="shared" si="83"/>
+        <v>138800</v>
+      </c>
+      <c r="L694" s="1">
+        <f>SUM($K$5:K694)</f>
+        <v>48231000</v>
+      </c>
+      <c r="M694" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8362369337979096</v>
+      </c>
+      <c r="N694" s="4">
+        <f t="shared" si="86"/>
+        <v>1680.5226480836236</v>
+      </c>
+      <c r="P694" s="2">
+        <v>690</v>
+      </c>
+      <c r="Q694" s="6">
+        <f t="shared" si="87"/>
+        <v>486.51</v>
+      </c>
+      <c r="R694" s="6">
+        <f t="shared" si="84"/>
+        <v>1.398000000000001</v>
+      </c>
+      <c r="S694" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q694),2)</f>
+        <v>113371.17</v>
+      </c>
+      <c r="T694" s="5">
+        <f t="shared" si="88"/>
+        <v>2269423.4</v>
+      </c>
+      <c r="U694">
+        <f t="shared" si="89"/>
+        <v>0.43059827767768294</v>
+      </c>
+    </row>
+    <row r="695" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J695" s="2">
+        <v>691</v>
+      </c>
+      <c r="K695" s="1">
+        <f t="shared" si="83"/>
+        <v>139000</v>
+      </c>
+      <c r="L695" s="1">
+        <f>SUM($K$5:K695)</f>
+        <v>48370000</v>
+      </c>
+      <c r="M695" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8432055749128917</v>
+      </c>
+      <c r="N695" s="4">
+        <f t="shared" si="86"/>
+        <v>1685.3658536585365</v>
+      </c>
+      <c r="P695" s="2">
+        <v>691</v>
+      </c>
+      <c r="Q695" s="6">
+        <f t="shared" si="87"/>
+        <v>487.91</v>
+      </c>
+      <c r="R695" s="6">
+        <f t="shared" si="84"/>
+        <v>1.400000000000001</v>
+      </c>
+      <c r="S695" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q695),2)</f>
+        <v>113859.08</v>
+      </c>
+      <c r="T695" s="5">
+        <f t="shared" si="88"/>
+        <v>2279181.6</v>
+      </c>
+      <c r="U695">
+        <f t="shared" si="89"/>
+        <v>0.42998587218234319</v>
+      </c>
+    </row>
+    <row r="696" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J696" s="2">
+        <v>692</v>
+      </c>
+      <c r="K696" s="1">
+        <f t="shared" si="83"/>
+        <v>139200</v>
+      </c>
+      <c r="L696" s="1">
+        <f>SUM($K$5:K696)</f>
+        <v>48509200</v>
+      </c>
+      <c r="M696" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8501742160278747</v>
+      </c>
+      <c r="N696" s="4">
+        <f t="shared" si="86"/>
+        <v>1690.2160278745644</v>
+      </c>
+      <c r="P696" s="2">
+        <v>692</v>
+      </c>
+      <c r="Q696" s="6">
+        <f t="shared" si="87"/>
+        <v>489.31</v>
+      </c>
+      <c r="R696" s="6">
+        <f t="shared" si="84"/>
+        <v>1.402000000000001</v>
+      </c>
+      <c r="S696" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q696),2)</f>
+        <v>114348.39</v>
+      </c>
+      <c r="T696" s="5">
+        <f t="shared" si="88"/>
+        <v>2288967.7999999998</v>
+      </c>
+      <c r="U696">
+        <f t="shared" si="89"/>
+        <v>0.42937342070503376</v>
+      </c>
+    </row>
+    <row r="697" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J697" s="2">
+        <v>693</v>
+      </c>
+      <c r="K697" s="1">
+        <f t="shared" si="83"/>
+        <v>139400</v>
+      </c>
+      <c r="L697" s="1">
+        <f>SUM($K$5:K697)</f>
+        <v>48648600</v>
+      </c>
+      <c r="M697" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="N697" s="4">
+        <f t="shared" si="86"/>
+        <v>1695.0731707317073</v>
+      </c>
+      <c r="P697" s="2">
+        <v>693</v>
+      </c>
+      <c r="Q697" s="6">
+        <f t="shared" si="87"/>
+        <v>490.71</v>
+      </c>
+      <c r="R697" s="6">
+        <f t="shared" si="84"/>
+        <v>1.404000000000001</v>
+      </c>
+      <c r="S697" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q697),2)</f>
+        <v>114839.1</v>
+      </c>
+      <c r="T697" s="5">
+        <f t="shared" si="88"/>
+        <v>2298782</v>
+      </c>
+      <c r="U697">
+        <f t="shared" si="89"/>
+        <v>0.42876094630951939</v>
+      </c>
+    </row>
+    <row r="698" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J698" s="2">
+        <v>694</v>
+      </c>
+      <c r="K698" s="1">
+        <f t="shared" si="83"/>
+        <v>139600</v>
+      </c>
+      <c r="L698" s="1">
+        <f>SUM($K$5:K698)</f>
+        <v>48788200</v>
+      </c>
+      <c r="M698" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8641114982578397</v>
+      </c>
+      <c r="N698" s="4">
+        <f t="shared" si="86"/>
+        <v>1699.9372822299651</v>
+      </c>
+      <c r="P698" s="2">
+        <v>694</v>
+      </c>
+      <c r="Q698" s="6">
+        <f t="shared" si="87"/>
+        <v>492.11</v>
+      </c>
+      <c r="R698" s="6">
+        <f t="shared" si="84"/>
+        <v>1.406000000000001</v>
+      </c>
+      <c r="S698" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q698),2)</f>
+        <v>115331.21</v>
+      </c>
+      <c r="T698" s="5">
+        <f t="shared" si="88"/>
+        <v>2308624.2000000002</v>
+      </c>
+      <c r="U698">
+        <f t="shared" si="89"/>
+        <v>0.42814847166891795</v>
+      </c>
+    </row>
+    <row r="699" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J699" s="2">
+        <v>695</v>
+      </c>
+      <c r="K699" s="1">
+        <f t="shared" si="83"/>
+        <v>139800</v>
+      </c>
+      <c r="L699" s="1">
+        <f>SUM($K$5:K699)</f>
+        <v>48928000</v>
+      </c>
+      <c r="M699" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8710801393728227</v>
+      </c>
+      <c r="N699" s="4">
+        <f t="shared" si="86"/>
+        <v>1704.8083623693381</v>
+      </c>
+      <c r="P699" s="2">
+        <v>695</v>
+      </c>
+      <c r="Q699" s="6">
+        <f t="shared" si="87"/>
+        <v>493.51</v>
+      </c>
+      <c r="R699" s="6">
+        <f t="shared" si="84"/>
+        <v>1.408000000000001</v>
+      </c>
+      <c r="S699" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q699),2)</f>
+        <v>115824.72</v>
+      </c>
+      <c r="T699" s="5">
+        <f t="shared" si="88"/>
+        <v>2318494.4</v>
+      </c>
+      <c r="U699">
+        <f t="shared" si="89"/>
+        <v>0.42753601907143313</v>
+      </c>
+    </row>
+    <row r="700" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J700" s="2">
+        <v>696</v>
+      </c>
+      <c r="K700" s="1">
+        <f t="shared" si="83"/>
+        <v>140000</v>
+      </c>
+      <c r="L700" s="1">
+        <f>SUM($K$5:K700)</f>
+        <v>49068000</v>
+      </c>
+      <c r="M700" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8780487804878048</v>
+      </c>
+      <c r="N700" s="4">
+        <f t="shared" si="86"/>
+        <v>1709.6864111498257</v>
+      </c>
+      <c r="P700" s="2">
+        <v>696</v>
+      </c>
+      <c r="Q700" s="6">
+        <f t="shared" si="87"/>
+        <v>494.92</v>
+      </c>
+      <c r="R700" s="6">
+        <f t="shared" si="84"/>
+        <v>1.410000000000001</v>
+      </c>
+      <c r="S700" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q700),2)</f>
+        <v>116319.64</v>
+      </c>
+      <c r="T700" s="5">
+        <f t="shared" si="88"/>
+        <v>2328392.7999999998</v>
+      </c>
+      <c r="U700">
+        <f t="shared" si="89"/>
+        <v>0.42693223671361497</v>
+      </c>
+    </row>
+    <row r="701" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J701" s="2">
+        <v>697</v>
+      </c>
+      <c r="K701" s="1">
+        <f t="shared" si="83"/>
+        <v>140200</v>
+      </c>
+      <c r="L701" s="1">
+        <f>SUM($K$5:K701)</f>
+        <v>49208200</v>
+      </c>
+      <c r="M701" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8850174216027877</v>
+      </c>
+      <c r="N701" s="4">
+        <f t="shared" si="86"/>
+        <v>1714.5714285714287</v>
+      </c>
+      <c r="P701" s="2">
+        <v>697</v>
+      </c>
+      <c r="Q701" s="6">
+        <f t="shared" si="87"/>
+        <v>496.33</v>
+      </c>
+      <c r="R701" s="6">
+        <f t="shared" si="84"/>
+        <v>1.412000000000001</v>
+      </c>
+      <c r="S701" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q701),2)</f>
+        <v>116815.97</v>
+      </c>
+      <c r="T701" s="5">
+        <f t="shared" si="88"/>
+        <v>2338319.4</v>
+      </c>
+      <c r="U701">
+        <f t="shared" si="89"/>
+        <v>0.42632840987998649</v>
+      </c>
+    </row>
+    <row r="702" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J702" s="2">
+        <v>698</v>
+      </c>
+      <c r="K702" s="1">
+        <f t="shared" si="83"/>
+        <v>140400</v>
+      </c>
+      <c r="L702" s="1">
+        <f>SUM($K$5:K702)</f>
+        <v>49348600</v>
+      </c>
+      <c r="M702" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8919860627177698</v>
+      </c>
+      <c r="N702" s="4">
+        <f t="shared" si="86"/>
+        <v>1719.4634146341464</v>
+      </c>
+      <c r="P702" s="2">
+        <v>698</v>
+      </c>
+      <c r="Q702" s="6">
+        <f t="shared" si="87"/>
+        <v>497.74</v>
+      </c>
+      <c r="R702" s="6">
+        <f t="shared" si="84"/>
+        <v>1.414000000000001</v>
+      </c>
+      <c r="S702" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q702),2)</f>
+        <v>117313.71</v>
+      </c>
+      <c r="T702" s="5">
+        <f t="shared" si="88"/>
+        <v>2348274.2000000002</v>
+      </c>
+      <c r="U702">
+        <f t="shared" si="89"/>
+        <v>0.42572456098171529</v>
+      </c>
+    </row>
+    <row r="703" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J703" s="2">
+        <v>699</v>
+      </c>
+      <c r="K703" s="1">
+        <f t="shared" si="83"/>
+        <v>140600</v>
+      </c>
+      <c r="L703" s="1">
+        <f>SUM($K$5:K703)</f>
+        <v>49489200</v>
+      </c>
+      <c r="M703" s="3">
+        <f t="shared" si="85"/>
+        <v>4.8989547038327528</v>
+      </c>
+      <c r="N703" s="4">
+        <f t="shared" si="86"/>
+        <v>1724.3623693379791</v>
+      </c>
+      <c r="P703" s="2">
+        <v>699</v>
+      </c>
+      <c r="Q703" s="6">
+        <f t="shared" si="87"/>
+        <v>499.15</v>
+      </c>
+      <c r="R703" s="6">
+        <f t="shared" si="84"/>
+        <v>1.416000000000001</v>
+      </c>
+      <c r="S703" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q703),2)</f>
+        <v>117812.86</v>
+      </c>
+      <c r="T703" s="5">
+        <f t="shared" si="88"/>
+        <v>2358257.2000000002</v>
+      </c>
+      <c r="U703">
+        <f t="shared" si="89"/>
+        <v>0.42512071205313245</v>
+      </c>
+    </row>
+    <row r="704" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J704" s="2">
+        <v>700</v>
+      </c>
+      <c r="K704" s="1">
+        <f t="shared" si="83"/>
+        <v>140800</v>
+      </c>
+      <c r="L704" s="1">
+        <f>SUM($K$5:K704)</f>
+        <v>49630000</v>
+      </c>
+      <c r="M704" s="3">
+        <f t="shared" si="85"/>
+        <v>4.9059233449477349</v>
+      </c>
+      <c r="N704" s="4">
+        <f t="shared" si="86"/>
+        <v>1729.2682926829268</v>
+      </c>
+      <c r="P704" s="2">
+        <v>700</v>
+      </c>
+      <c r="Q704" s="6">
+        <f t="shared" si="87"/>
+        <v>500.56</v>
+      </c>
+      <c r="R704" s="6">
+        <f t="shared" si="84"/>
+        <v>1.418000000000001</v>
+      </c>
+      <c r="S704" s="5">
+        <f>ROUNDUP(SUM($Q$5:Q704),2)</f>
+        <v>118313.42</v>
+      </c>
+      <c r="T704" s="5">
+        <f t="shared" si="88"/>
+        <v>2368268.4</v>
+      </c>
+      <c r="U704">
+        <f t="shared" si="89"/>
+        <v>0.42451688475708749</v>
       </c>
     </row>
   </sheetData>
